--- a/Documentos/TimeLine/Gráfico de Gantt do Agile1.xlsx
+++ b/Documentos/TimeLine/Gráfico de Gantt do Agile1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{119A656F-593D-44D4-AB22-D42455BEAF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C5FE02-A84B-44C8-9A7A-9654155FDDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="415" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="415" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sobre" sheetId="12" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="50">
   <si>
     <t>SOBRE ESTE GRÁFICO DE GANTT</t>
   </si>
@@ -205,17 +205,32 @@
   <si>
     <t>Não atribuída</t>
   </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>Tela cadastro e Login</t>
+  </si>
+  <si>
+    <t>Caio</t>
+  </si>
+  <si>
+    <t>Exportação de dados</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="166" formatCode="d"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="168" formatCode="d"/>
   </numFmts>
   <fonts count="47" x14ac:knownFonts="1">
     <font>
@@ -1185,7 +1200,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
@@ -1197,12 +1212,12 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1278,7 +1293,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1300,7 +1315,7 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1397,7 +1412,7 @@
     <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="9" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="167" fontId="0" fillId="10" borderId="0" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1409,7 +1424,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1488,7 +1503,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1569,64 +1584,64 @@
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="14" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="14" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="48" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="48" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="48" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="48" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="48" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="48" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="49" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="49" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="49" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="49" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="13" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2794,7 +2809,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
@@ -2802,7 +2817,7 @@
           <xdr:col>63</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>241300</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2849,7 +2864,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
@@ -2904,7 +2919,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
@@ -2912,7 +2927,7 @@
           <xdr:col>63</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>241300</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3301,19 +3316,19 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="2.7265625" style="8" customWidth="1"/>
-    <col min="3" max="5" width="40.7265625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="2.7265625" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="6"/>
+    <col min="1" max="1" width="4.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" style="8" customWidth="1"/>
+    <col min="3" max="5" width="40.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.4">
       <c r="D1" s="109"/>
     </row>
-    <row r="2" spans="1:13" ht="50.15" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7"/>
       <c r="B2" s="115"/>
       <c r="C2" s="146" t="s">
@@ -3330,7 +3345,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7"/>
       <c r="B3" s="110"/>
       <c r="C3" s="111"/>
@@ -3345,7 +3360,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:13" s="8" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:13" s="8" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="110"/>
       <c r="C4" s="147" t="s">
@@ -3362,7 +3377,7 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:13" s="8" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:13" s="8" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7"/>
       <c r="B5" s="110"/>
       <c r="C5" s="147" t="s">
@@ -3379,7 +3394,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="113"/>
       <c r="C6" s="113"/>
@@ -3387,15 +3402,15 @@
       <c r="E6" s="113"/>
       <c r="F6" s="113"/>
     </row>
-    <row r="7" spans="1:13" ht="50.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -3403,51 +3418,51 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="D19" s="8"/>
@@ -3473,23 +3488,23 @@
   <sheetViews>
     <sheetView showGridLines="0" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="30.7265625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.54296875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="2.7265625" style="12" customWidth="1"/>
-    <col min="9" max="64" width="3.54296875" style="12" customWidth="1"/>
-    <col min="65" max="65" width="2.7265625" style="12" customWidth="1"/>
-    <col min="66" max="16384" width="8.81640625" style="12"/>
+    <col min="1" max="1" width="4.7109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" style="12" customWidth="1"/>
+    <col min="9" max="64" width="3.5703125" style="12" customWidth="1"/>
+    <col min="65" max="65" width="2.7109375" style="12" customWidth="1"/>
+    <col min="66" max="16384" width="8.85546875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="25.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:68" ht="49.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:68" ht="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:68" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="150" t="s">
         <v>3</v>
@@ -3558,7 +3573,7 @@
       <c r="BL2" s="69"/>
       <c r="BM2" s="69"/>
     </row>
-    <row r="3" spans="1:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="70"/>
       <c r="C3" s="71"/>
@@ -3625,7 +3640,7 @@
       <c r="BL3" s="91"/>
       <c r="BM3" s="92"/>
     </row>
-    <row r="4" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="74" t="s">
         <v>4</v>
@@ -3705,7 +3720,7 @@
       <c r="BL4" s="92"/>
       <c r="BM4" s="92"/>
     </row>
-    <row r="5" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="80" t="s">
         <v>5</v>
@@ -3774,14 +3789,14 @@
       <c r="BL5" s="91"/>
       <c r="BM5" s="92"/>
     </row>
-    <row r="6" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="82" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="83" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones4352[Início])=0,TODAY(),B11(Milestones4352[Início])),TODAY())</f>
-        <v>44466</v>
+        <v>44482</v>
       </c>
       <c r="D6" s="84"/>
       <c r="E6" s="77"/>
@@ -3790,7 +3805,7 @@
       <c r="H6" s="77"/>
       <c r="I6" s="102" t="str">
         <f ca="1">TEXT(I7,"mmmm")</f>
-        <v>setembro</v>
+        <v>outubro</v>
       </c>
       <c r="J6" s="102"/>
       <c r="K6" s="102"/>
@@ -3800,7 +3815,7 @@
       <c r="O6" s="102"/>
       <c r="P6" s="102" t="str">
         <f ca="1">IF(TEXT(P7,"mmmm")=I6,"",TEXT(P7,"mmmm"))</f>
-        <v>outubro</v>
+        <v/>
       </c>
       <c r="Q6" s="102"/>
       <c r="R6" s="102"/>
@@ -3820,7 +3835,7 @@
       <c r="AC6" s="102"/>
       <c r="AD6" s="102" t="str">
         <f ca="1">IF(OR(TEXT(AD7,"mmmm")=W6,TEXT(AD7,"mmmm")=P6,TEXT(AD7,"mmmm")=I6),"",TEXT(AD7,"mmmm"))</f>
-        <v/>
+        <v>novembro</v>
       </c>
       <c r="AE6" s="102"/>
       <c r="AF6" s="102"/>
@@ -3840,7 +3855,7 @@
       <c r="AQ6" s="102"/>
       <c r="AR6" s="102" t="str">
         <f ca="1">IF(OR(TEXT(AR7,"mmmm")=AK6,TEXT(AR7,"mmmm")=AD6,TEXT(AR7,"mmmm")=W6,TEXT(AR7,"mmmm")=P6),"",TEXT(AR7,"mmmm"))</f>
-        <v>novembro</v>
+        <v/>
       </c>
       <c r="AS6" s="102"/>
       <c r="AT6" s="102"/>
@@ -3860,7 +3875,7 @@
       <c r="BE6" s="101"/>
       <c r="BF6" s="101" t="str">
         <f ca="1">IF(OR(TEXT(BF7,"mmmm")=AY6,TEXT(BF7,"mmmm")=AR6,TEXT(BF7,"mmmm")=AK6,TEXT(BF7,"mmmm")=AD6),"",TEXT(BF7,"mmmm"))</f>
-        <v/>
+        <v>dezembro</v>
       </c>
       <c r="BG6" s="101"/>
       <c r="BH6" s="101"/>
@@ -3870,7 +3885,7 @@
       <c r="BL6" s="101"/>
       <c r="BM6" s="92"/>
     </row>
-    <row r="7" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="82" t="s">
         <v>7</v>
@@ -3885,231 +3900,231 @@
       <c r="H7" s="87"/>
       <c r="I7" s="126">
         <f ca="1">IFERROR(Início_do_projeto+Incremento_de_rolagem,TODAY())</f>
-        <v>44466</v>
+        <v>44482</v>
       </c>
       <c r="J7" s="127">
         <f ca="1">I7+1</f>
-        <v>44467</v>
+        <v>44483</v>
       </c>
       <c r="K7" s="127">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44468</v>
+        <v>44484</v>
       </c>
       <c r="L7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44469</v>
+        <v>44485</v>
       </c>
       <c r="M7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44470</v>
+        <v>44486</v>
       </c>
       <c r="N7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44471</v>
+        <v>44487</v>
       </c>
       <c r="O7" s="128">
         <f t="shared" ca="1" si="0"/>
-        <v>44472</v>
+        <v>44488</v>
       </c>
       <c r="P7" s="127">
         <f ca="1">O7+1</f>
-        <v>44473</v>
+        <v>44489</v>
       </c>
       <c r="Q7" s="127">
         <f ca="1">P7+1</f>
-        <v>44474</v>
+        <v>44490</v>
       </c>
       <c r="R7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44475</v>
+        <v>44491</v>
       </c>
       <c r="S7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44476</v>
+        <v>44492</v>
       </c>
       <c r="T7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44477</v>
+        <v>44493</v>
       </c>
       <c r="U7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44478</v>
+        <v>44494</v>
       </c>
       <c r="V7" s="128">
         <f t="shared" ca="1" si="0"/>
-        <v>44479</v>
+        <v>44495</v>
       </c>
       <c r="W7" s="127">
         <f ca="1">V7+1</f>
-        <v>44480</v>
+        <v>44496</v>
       </c>
       <c r="X7" s="127">
         <f ca="1">W7+1</f>
-        <v>44481</v>
+        <v>44497</v>
       </c>
       <c r="Y7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44482</v>
+        <v>44498</v>
       </c>
       <c r="Z7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44483</v>
+        <v>44499</v>
       </c>
       <c r="AA7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44484</v>
+        <v>44500</v>
       </c>
       <c r="AB7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44485</v>
+        <v>44501</v>
       </c>
       <c r="AC7" s="128">
         <f t="shared" ca="1" si="0"/>
-        <v>44486</v>
+        <v>44502</v>
       </c>
       <c r="AD7" s="127">
         <f ca="1">AC7+1</f>
-        <v>44487</v>
+        <v>44503</v>
       </c>
       <c r="AE7" s="127">
         <f ca="1">AD7+1</f>
-        <v>44488</v>
+        <v>44504</v>
       </c>
       <c r="AF7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44489</v>
+        <v>44505</v>
       </c>
       <c r="AG7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44490</v>
+        <v>44506</v>
       </c>
       <c r="AH7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44491</v>
+        <v>44507</v>
       </c>
       <c r="AI7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44492</v>
+        <v>44508</v>
       </c>
       <c r="AJ7" s="128">
         <f t="shared" ca="1" si="0"/>
-        <v>44493</v>
+        <v>44509</v>
       </c>
       <c r="AK7" s="127">
         <f ca="1">AJ7+1</f>
-        <v>44494</v>
+        <v>44510</v>
       </c>
       <c r="AL7" s="127">
         <f ca="1">AK7+1</f>
-        <v>44495</v>
+        <v>44511</v>
       </c>
       <c r="AM7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44496</v>
+        <v>44512</v>
       </c>
       <c r="AN7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44497</v>
+        <v>44513</v>
       </c>
       <c r="AO7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44498</v>
+        <v>44514</v>
       </c>
       <c r="AP7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44499</v>
+        <v>44515</v>
       </c>
       <c r="AQ7" s="128">
         <f t="shared" ca="1" si="0"/>
-        <v>44500</v>
+        <v>44516</v>
       </c>
       <c r="AR7" s="127">
         <f ca="1">AQ7+1</f>
-        <v>44501</v>
+        <v>44517</v>
       </c>
       <c r="AS7" s="127">
         <f ca="1">AR7+1</f>
-        <v>44502</v>
+        <v>44518</v>
       </c>
       <c r="AT7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44503</v>
+        <v>44519</v>
       </c>
       <c r="AU7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
+        <v>44520</v>
       </c>
       <c r="AV7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44505</v>
+        <v>44521</v>
       </c>
       <c r="AW7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44506</v>
+        <v>44522</v>
       </c>
       <c r="AX7" s="128">
         <f t="shared" ca="1" si="0"/>
-        <v>44507</v>
+        <v>44523</v>
       </c>
       <c r="AY7" s="127">
         <f ca="1">AX7+1</f>
-        <v>44508</v>
+        <v>44524</v>
       </c>
       <c r="AZ7" s="127">
         <f ca="1">AY7+1</f>
-        <v>44509</v>
+        <v>44525</v>
       </c>
       <c r="BA7" s="127">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>44510</v>
+        <v>44526</v>
       </c>
       <c r="BB7" s="127">
         <f t="shared" ca="1" si="1"/>
-        <v>44511</v>
+        <v>44527</v>
       </c>
       <c r="BC7" s="127">
         <f t="shared" ca="1" si="1"/>
-        <v>44512</v>
+        <v>44528</v>
       </c>
       <c r="BD7" s="127">
         <f t="shared" ca="1" si="1"/>
-        <v>44513</v>
+        <v>44529</v>
       </c>
       <c r="BE7" s="128">
         <f t="shared" ca="1" si="1"/>
-        <v>44514</v>
+        <v>44530</v>
       </c>
       <c r="BF7" s="127">
         <f ca="1">BE7+1</f>
-        <v>44515</v>
+        <v>44531</v>
       </c>
       <c r="BG7" s="127">
         <f ca="1">BF7+1</f>
-        <v>44516</v>
+        <v>44532</v>
       </c>
       <c r="BH7" s="127">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>44517</v>
+        <v>44533</v>
       </c>
       <c r="BI7" s="127">
         <f t="shared" ca="1" si="2"/>
-        <v>44518</v>
+        <v>44534</v>
       </c>
       <c r="BJ7" s="127">
         <f t="shared" ca="1" si="2"/>
-        <v>44519</v>
+        <v>44535</v>
       </c>
       <c r="BK7" s="127">
         <f t="shared" ca="1" si="2"/>
-        <v>44520</v>
+        <v>44536</v>
       </c>
       <c r="BL7" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>44521</v>
+        <v>44537</v>
       </c>
       <c r="BM7" s="92"/>
     </row>
-    <row r="8" spans="1:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="88"/>
       <c r="C8" s="88"/>
@@ -4176,7 +4191,7 @@
       <c r="BL8" s="133"/>
       <c r="BM8" s="92"/>
     </row>
-    <row r="9" spans="1:68" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:68" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="116" t="s">
         <v>8</v>
@@ -4199,23 +4214,23 @@
       <c r="H9" s="98"/>
       <c r="I9" s="108" t="str">
         <f t="shared" ref="I9:BL9" ca="1" si="3">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="J9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="K9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="L9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="M9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="N9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4223,27 +4238,27 @@
       </c>
       <c r="O9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="P9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="Q9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="R9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="S9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="T9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="U9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4251,27 +4266,27 @@
       </c>
       <c r="V9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="W9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="X9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="Y9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="Z9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AA9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AB9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4279,27 +4294,27 @@
       </c>
       <c r="AC9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="AD9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AE9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="AF9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AG9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AH9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AI9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4307,27 +4322,27 @@
       </c>
       <c r="AJ9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="AK9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AL9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="AM9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AN9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AO9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AP9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4335,27 +4350,27 @@
       </c>
       <c r="AQ9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="AR9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AS9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="AT9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AU9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AV9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AW9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4363,27 +4378,27 @@
       </c>
       <c r="AX9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="AY9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AZ9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="BA9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BB9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BC9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="BD9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4391,27 +4406,27 @@
       </c>
       <c r="BE9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="BF9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="BG9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="BH9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BI9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BJ9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="BK9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4419,11 +4434,11 @@
       </c>
       <c r="BL9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="BM9" s="92"/>
     </row>
-    <row r="10" spans="1:68" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:68" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="18"/>
       <c r="C10" s="14"/>
       <c r="D10" s="13"/>
@@ -4489,7 +4504,7 @@
       <c r="BL10" s="39"/>
       <c r="BM10" s="92"/>
     </row>
-    <row r="11" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="118" t="s">
         <v>9</v>
@@ -4727,7 +4742,7 @@
       <c r="BM11" s="19"/>
       <c r="BP11" s="41"/>
     </row>
-    <row r="12" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="65" t="s">
         <v>10</v>
@@ -4743,7 +4758,7 @@
       </c>
       <c r="F12" s="63">
         <f ca="1">TODAY()</f>
-        <v>44466</v>
+        <v>44482</v>
       </c>
       <c r="G12" s="64">
         <v>3</v>
@@ -4975,7 +4990,7 @@
       </c>
       <c r="BM12" s="19"/>
     </row>
-    <row r="13" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="65" t="s">
         <v>11</v>
@@ -4987,7 +5002,7 @@
       <c r="E13" s="62"/>
       <c r="F13" s="63">
         <f ca="1">TODAY()+5</f>
-        <v>44471</v>
+        <v>44487</v>
       </c>
       <c r="G13" s="64">
         <v>1</v>
@@ -5219,7 +5234,7 @@
       </c>
       <c r="BM13" s="19"/>
     </row>
-    <row r="14" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="65" t="s">
         <v>12</v>
@@ -5233,7 +5248,7 @@
       </c>
       <c r="F14" s="63">
         <f ca="1">F12-3</f>
-        <v>44463</v>
+        <v>44479</v>
       </c>
       <c r="G14" s="64">
         <v>10</v>
@@ -5465,7 +5480,7 @@
       </c>
       <c r="BM14" s="19"/>
     </row>
-    <row r="15" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="65" t="s">
         <v>13</v>
@@ -5477,7 +5492,7 @@
       <c r="E15" s="62"/>
       <c r="F15" s="63">
         <f ca="1">F12+20</f>
-        <v>44486</v>
+        <v>44502</v>
       </c>
       <c r="G15" s="64">
         <v>1</v>
@@ -5709,7 +5724,7 @@
       </c>
       <c r="BM15" s="19"/>
     </row>
-    <row r="16" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="65" t="s">
         <v>14</v>
@@ -5723,7 +5738,7 @@
       </c>
       <c r="F16" s="63">
         <f ca="1">F12+6</f>
-        <v>44472</v>
+        <v>44488</v>
       </c>
       <c r="G16" s="64">
         <v>6</v>
@@ -5955,7 +5970,7 @@
       </c>
       <c r="BM16" s="19"/>
     </row>
-    <row r="17" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="118" t="s">
         <v>15</v>
@@ -6192,7 +6207,7 @@
       </c>
       <c r="BM17" s="19"/>
     </row>
-    <row r="18" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="65" t="s">
         <v>10</v>
@@ -6206,7 +6221,7 @@
       </c>
       <c r="F18" s="63">
         <f ca="1">F12+6</f>
-        <v>44472</v>
+        <v>44488</v>
       </c>
       <c r="G18" s="64">
         <v>13</v>
@@ -6438,7 +6453,7 @@
       </c>
       <c r="BM18" s="19"/>
     </row>
-    <row r="19" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="65" t="s">
         <v>11</v>
@@ -6452,7 +6467,7 @@
       </c>
       <c r="F19" s="63">
         <f ca="1">F18+2</f>
-        <v>44474</v>
+        <v>44490</v>
       </c>
       <c r="G19" s="64">
         <v>9</v>
@@ -6684,7 +6699,7 @@
       </c>
       <c r="BM19" s="19"/>
     </row>
-    <row r="20" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="65" t="s">
         <v>12</v>
@@ -6698,7 +6713,7 @@
       </c>
       <c r="F20" s="63">
         <f ca="1">F19+5</f>
-        <v>44479</v>
+        <v>44495</v>
       </c>
       <c r="G20" s="64">
         <v>11</v>
@@ -6930,7 +6945,7 @@
       </c>
       <c r="BM20" s="19"/>
     </row>
-    <row r="21" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="65" t="s">
         <v>13</v>
@@ -6942,7 +6957,7 @@
       <c r="E21" s="62"/>
       <c r="F21" s="63">
         <f ca="1">F20+2</f>
-        <v>44481</v>
+        <v>44497</v>
       </c>
       <c r="G21" s="64">
         <v>1</v>
@@ -7174,7 +7189,7 @@
       </c>
       <c r="BM21" s="19"/>
     </row>
-    <row r="22" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="65" t="s">
         <v>14</v>
@@ -7184,7 +7199,7 @@
       <c r="E22" s="62"/>
       <c r="F22" s="63">
         <f ca="1">F21+1</f>
-        <v>44482</v>
+        <v>44498</v>
       </c>
       <c r="G22" s="64">
         <v>24</v>
@@ -7416,7 +7431,7 @@
       </c>
       <c r="BM22" s="19"/>
     </row>
-    <row r="23" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="118" t="s">
         <v>16</v>
@@ -7653,7 +7668,7 @@
       </c>
       <c r="BM23" s="19"/>
     </row>
-    <row r="24" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="65" t="s">
         <v>10</v>
@@ -7665,7 +7680,7 @@
       <c r="E24" s="62"/>
       <c r="F24" s="63">
         <f ca="1">F12+15</f>
-        <v>44481</v>
+        <v>44497</v>
       </c>
       <c r="G24" s="64">
         <v>4</v>
@@ -7897,7 +7912,7 @@
       </c>
       <c r="BM24" s="19"/>
     </row>
-    <row r="25" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="65" t="s">
         <v>11</v>
@@ -7909,7 +7924,7 @@
       <c r="E25" s="62"/>
       <c r="F25" s="63">
         <f ca="1">F24+3</f>
-        <v>44484</v>
+        <v>44500</v>
       </c>
       <c r="G25" s="64">
         <v>14</v>
@@ -8141,7 +8156,7 @@
       </c>
       <c r="BM25" s="19"/>
     </row>
-    <row r="26" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="65" t="s">
         <v>12</v>
@@ -8153,7 +8168,7 @@
       <c r="E26" s="62"/>
       <c r="F26" s="63">
         <f ca="1">F25+15</f>
-        <v>44499</v>
+        <v>44515</v>
       </c>
       <c r="G26" s="64">
         <v>6</v>
@@ -8385,7 +8400,7 @@
       </c>
       <c r="BM26" s="19"/>
     </row>
-    <row r="27" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="65" t="s">
         <v>13</v>
@@ -8397,7 +8412,7 @@
       <c r="E27" s="62"/>
       <c r="F27" s="63">
         <f ca="1">F21+22</f>
-        <v>44503</v>
+        <v>44519</v>
       </c>
       <c r="G27" s="64">
         <v>3</v>
@@ -8629,7 +8644,7 @@
       </c>
       <c r="BM27" s="19"/>
     </row>
-    <row r="28" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="65" t="s">
         <v>14</v>
@@ -8641,7 +8656,7 @@
       <c r="E28" s="62"/>
       <c r="F28" s="63">
         <f ca="1">F16</f>
-        <v>44472</v>
+        <v>44488</v>
       </c>
       <c r="G28" s="64">
         <v>19</v>
@@ -8873,7 +8888,7 @@
       </c>
       <c r="BM28" s="19"/>
     </row>
-    <row r="29" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="118" t="s">
         <v>17</v>
@@ -9110,7 +9125,7 @@
       </c>
       <c r="BM29" s="19"/>
     </row>
-    <row r="30" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="65" t="s">
         <v>10</v>
@@ -9120,7 +9135,7 @@
       <c r="E30" s="62"/>
       <c r="F30" s="63">
         <f ca="1">F27+3</f>
-        <v>44506</v>
+        <v>44522</v>
       </c>
       <c r="G30" s="64">
         <v>15</v>
@@ -9352,7 +9367,7 @@
       </c>
       <c r="BM30" s="19"/>
     </row>
-    <row r="31" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="65" t="s">
         <v>11</v>
@@ -9362,7 +9377,7 @@
       <c r="E31" s="62"/>
       <c r="F31" s="63">
         <f ca="1">F30+14</f>
-        <v>44520</v>
+        <v>44536</v>
       </c>
       <c r="G31" s="64">
         <v>5</v>
@@ -9594,7 +9609,7 @@
       </c>
       <c r="BM31" s="19"/>
     </row>
-    <row r="32" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="65" t="s">
         <v>12</v>
@@ -9606,7 +9621,7 @@
       <c r="E32" s="62"/>
       <c r="F32" s="63">
         <f ca="1">F31+42</f>
-        <v>44562</v>
+        <v>44578</v>
       </c>
       <c r="G32" s="64">
         <v>1</v>
@@ -9838,7 +9853,7 @@
       </c>
       <c r="BM32" s="19"/>
     </row>
-    <row r="33" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="65" t="s">
         <v>13</v>
@@ -10075,7 +10090,7 @@
       </c>
       <c r="BM33" s="19"/>
     </row>
-    <row r="34" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="65" t="s">
         <v>14</v>
@@ -10312,7 +10327,7 @@
       </c>
       <c r="BM34" s="19"/>
     </row>
-    <row r="35" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="65"/>
       <c r="C35" s="61"/>
@@ -10547,7 +10562,7 @@
       </c>
       <c r="BM35" s="99"/>
     </row>
-    <row r="36" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="120" t="s">
         <v>18</v>
@@ -10616,12 +10631,12 @@
       <c r="BL36" s="97"/>
       <c r="BM36" s="90"/>
     </row>
-    <row r="37" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D37" s="4"/>
       <c r="G37" s="11"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D38" s="5"/>
     </row>
   </sheetData>
@@ -10728,7 +10743,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>57150</xdr:rowOff>
                   </from>
@@ -10736,7 +10751,7 @@
                     <xdr:col>63</xdr:col>
                     <xdr:colOff>228600</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>241300</xdr:rowOff>
+                    <xdr:rowOff>238125</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10818,27 +10833,27 @@
   </sheetPr>
   <dimension ref="A1:BP38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A9" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="30.7265625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.54296875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="2.7265625" style="12" customWidth="1"/>
-    <col min="9" max="64" width="3.54296875" style="12" customWidth="1"/>
-    <col min="65" max="65" width="2.7265625" style="12" customWidth="1"/>
-    <col min="66" max="16384" width="8.81640625" style="12"/>
+    <col min="1" max="1" width="4.7109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" style="12" customWidth="1"/>
+    <col min="9" max="64" width="3.5703125" style="12" customWidth="1"/>
+    <col min="65" max="65" width="2.7109375" style="12" customWidth="1"/>
+    <col min="66" max="16384" width="8.85546875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="25.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:68" ht="49.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:68" ht="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:68" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="162" t="s">
         <v>33</v>
@@ -10907,7 +10922,7 @@
       <c r="BL2" s="21"/>
       <c r="BM2" s="21"/>
     </row>
-    <row r="3" spans="1:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="42"/>
       <c r="C3" s="43"/>
@@ -10974,7 +10989,7 @@
       <c r="BL3" s="34"/>
       <c r="BM3" s="32"/>
     </row>
-    <row r="4" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="56"/>
       <c r="C4" s="51"/>
@@ -11053,7 +11068,7 @@
       <c r="BL4" s="32"/>
       <c r="BM4" s="32"/>
     </row>
-    <row r="5" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="57"/>
       <c r="C5" s="53"/>
@@ -11120,14 +11135,14 @@
       <c r="BL5" s="34"/>
       <c r="BM5" s="32"/>
     </row>
-    <row r="6" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="50" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="36" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones435[Início])=0,TODAY(),B11(Milestones435[Início])),TODAY())</f>
-        <v>44466</v>
+        <v>44482</v>
       </c>
       <c r="D6" s="54"/>
       <c r="E6" s="32"/>
@@ -11136,7 +11151,7 @@
       <c r="H6" s="30"/>
       <c r="I6" s="105" t="str">
         <f ca="1">TEXT(I7,"mmmm")</f>
-        <v>setembro</v>
+        <v>outubro</v>
       </c>
       <c r="J6" s="105"/>
       <c r="K6" s="105"/>
@@ -11146,7 +11161,7 @@
       <c r="O6" s="105"/>
       <c r="P6" s="105" t="str">
         <f ca="1">IF(TEXT(P7,"mmmm")=I6,"",TEXT(P7,"mmmm"))</f>
-        <v>outubro</v>
+        <v/>
       </c>
       <c r="Q6" s="105"/>
       <c r="R6" s="105"/>
@@ -11166,7 +11181,7 @@
       <c r="AC6" s="105"/>
       <c r="AD6" s="105" t="str">
         <f ca="1">IF(OR(TEXT(AD7,"mmmm")=W6,TEXT(AD7,"mmmm")=P6,TEXT(AD7,"mmmm")=I6),"",TEXT(AD7,"mmmm"))</f>
-        <v/>
+        <v>novembro</v>
       </c>
       <c r="AE6" s="105"/>
       <c r="AF6" s="105"/>
@@ -11186,7 +11201,7 @@
       <c r="AQ6" s="105"/>
       <c r="AR6" s="105" t="str">
         <f ca="1">IF(OR(TEXT(AR7,"mmmm")=AK6,TEXT(AR7,"mmmm")=AD6,TEXT(AR7,"mmmm")=W6,TEXT(AR7,"mmmm")=P6),"",TEXT(AR7,"mmmm"))</f>
-        <v>novembro</v>
+        <v/>
       </c>
       <c r="AS6" s="105"/>
       <c r="AT6" s="105"/>
@@ -11206,7 +11221,7 @@
       <c r="BE6" s="66"/>
       <c r="BF6" s="66" t="str">
         <f ca="1">IF(OR(TEXT(BF7,"mmmm")=AY6,TEXT(BF7,"mmmm")=AR6,TEXT(BF7,"mmmm")=AK6,TEXT(BF7,"mmmm")=AD6),"",TEXT(BF7,"mmmm"))</f>
-        <v/>
+        <v>dezembro</v>
       </c>
       <c r="BG6" s="66"/>
       <c r="BH6" s="66"/>
@@ -11216,7 +11231,7 @@
       <c r="BL6" s="66"/>
       <c r="BM6" s="32"/>
     </row>
-    <row r="7" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="50"/>
       <c r="C7" s="38"/>
@@ -11227,231 +11242,231 @@
       <c r="H7" s="35"/>
       <c r="I7" s="141">
         <f ca="1">IFERROR(Início_do_projeto+Incremento_de_rolagem,TODAY())</f>
-        <v>44466</v>
+        <v>44482</v>
       </c>
       <c r="J7" s="142">
         <f ca="1">I7+1</f>
-        <v>44467</v>
+        <v>44483</v>
       </c>
       <c r="K7" s="142">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44468</v>
+        <v>44484</v>
       </c>
       <c r="L7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44469</v>
+        <v>44485</v>
       </c>
       <c r="M7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44470</v>
+        <v>44486</v>
       </c>
       <c r="N7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44471</v>
+        <v>44487</v>
       </c>
       <c r="O7" s="143">
         <f t="shared" ca="1" si="0"/>
-        <v>44472</v>
+        <v>44488</v>
       </c>
       <c r="P7" s="144">
         <f ca="1">O7+1</f>
-        <v>44473</v>
+        <v>44489</v>
       </c>
       <c r="Q7" s="144">
         <f ca="1">P7+1</f>
-        <v>44474</v>
+        <v>44490</v>
       </c>
       <c r="R7" s="144">
         <f t="shared" ca="1" si="0"/>
-        <v>44475</v>
+        <v>44491</v>
       </c>
       <c r="S7" s="144">
         <f t="shared" ca="1" si="0"/>
-        <v>44476</v>
+        <v>44492</v>
       </c>
       <c r="T7" s="144">
         <f t="shared" ca="1" si="0"/>
-        <v>44477</v>
+        <v>44493</v>
       </c>
       <c r="U7" s="144">
         <f t="shared" ca="1" si="0"/>
-        <v>44478</v>
+        <v>44494</v>
       </c>
       <c r="V7" s="145">
         <f t="shared" ca="1" si="0"/>
-        <v>44479</v>
+        <v>44495</v>
       </c>
       <c r="W7" s="134">
         <f ca="1">V7+1</f>
-        <v>44480</v>
+        <v>44496</v>
       </c>
       <c r="X7" s="134">
         <f ca="1">W7+1</f>
-        <v>44481</v>
+        <v>44497</v>
       </c>
       <c r="Y7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44482</v>
+        <v>44498</v>
       </c>
       <c r="Z7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44483</v>
+        <v>44499</v>
       </c>
       <c r="AA7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44484</v>
+        <v>44500</v>
       </c>
       <c r="AB7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44485</v>
+        <v>44501</v>
       </c>
       <c r="AC7" s="135">
         <f t="shared" ca="1" si="0"/>
-        <v>44486</v>
+        <v>44502</v>
       </c>
       <c r="AD7" s="134">
         <f ca="1">AC7+1</f>
-        <v>44487</v>
+        <v>44503</v>
       </c>
       <c r="AE7" s="134">
         <f ca="1">AD7+1</f>
-        <v>44488</v>
+        <v>44504</v>
       </c>
       <c r="AF7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44489</v>
+        <v>44505</v>
       </c>
       <c r="AG7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44490</v>
+        <v>44506</v>
       </c>
       <c r="AH7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44491</v>
+        <v>44507</v>
       </c>
       <c r="AI7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44492</v>
+        <v>44508</v>
       </c>
       <c r="AJ7" s="135">
         <f t="shared" ca="1" si="0"/>
-        <v>44493</v>
+        <v>44509</v>
       </c>
       <c r="AK7" s="134">
         <f ca="1">AJ7+1</f>
-        <v>44494</v>
+        <v>44510</v>
       </c>
       <c r="AL7" s="134">
         <f ca="1">AK7+1</f>
-        <v>44495</v>
+        <v>44511</v>
       </c>
       <c r="AM7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44496</v>
+        <v>44512</v>
       </c>
       <c r="AN7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44497</v>
+        <v>44513</v>
       </c>
       <c r="AO7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44498</v>
+        <v>44514</v>
       </c>
       <c r="AP7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44499</v>
+        <v>44515</v>
       </c>
       <c r="AQ7" s="135">
         <f t="shared" ca="1" si="0"/>
-        <v>44500</v>
+        <v>44516</v>
       </c>
       <c r="AR7" s="134">
         <f ca="1">AQ7+1</f>
-        <v>44501</v>
+        <v>44517</v>
       </c>
       <c r="AS7" s="134">
         <f ca="1">AR7+1</f>
-        <v>44502</v>
+        <v>44518</v>
       </c>
       <c r="AT7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44503</v>
+        <v>44519</v>
       </c>
       <c r="AU7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
+        <v>44520</v>
       </c>
       <c r="AV7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44505</v>
+        <v>44521</v>
       </c>
       <c r="AW7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44506</v>
+        <v>44522</v>
       </c>
       <c r="AX7" s="135">
         <f t="shared" ca="1" si="0"/>
-        <v>44507</v>
+        <v>44523</v>
       </c>
       <c r="AY7" s="134">
         <f ca="1">AX7+1</f>
-        <v>44508</v>
+        <v>44524</v>
       </c>
       <c r="AZ7" s="134">
         <f ca="1">AY7+1</f>
-        <v>44509</v>
+        <v>44525</v>
       </c>
       <c r="BA7" s="134">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>44510</v>
+        <v>44526</v>
       </c>
       <c r="BB7" s="134">
         <f t="shared" ca="1" si="1"/>
-        <v>44511</v>
+        <v>44527</v>
       </c>
       <c r="BC7" s="134">
         <f t="shared" ca="1" si="1"/>
-        <v>44512</v>
+        <v>44528</v>
       </c>
       <c r="BD7" s="134">
         <f t="shared" ca="1" si="1"/>
-        <v>44513</v>
+        <v>44529</v>
       </c>
       <c r="BE7" s="135">
         <f t="shared" ca="1" si="1"/>
-        <v>44514</v>
+        <v>44530</v>
       </c>
       <c r="BF7" s="134">
         <f ca="1">BE7+1</f>
-        <v>44515</v>
+        <v>44531</v>
       </c>
       <c r="BG7" s="134">
         <f ca="1">BF7+1</f>
-        <v>44516</v>
+        <v>44532</v>
       </c>
       <c r="BH7" s="134">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>44517</v>
+        <v>44533</v>
       </c>
       <c r="BI7" s="134">
         <f t="shared" ca="1" si="2"/>
-        <v>44518</v>
+        <v>44534</v>
       </c>
       <c r="BJ7" s="134">
         <f t="shared" ca="1" si="2"/>
-        <v>44519</v>
+        <v>44535</v>
       </c>
       <c r="BK7" s="134">
         <f t="shared" ca="1" si="2"/>
-        <v>44520</v>
+        <v>44536</v>
       </c>
       <c r="BL7" s="136">
         <f t="shared" ca="1" si="2"/>
-        <v>44521</v>
+        <v>44537</v>
       </c>
       <c r="BM7" s="32"/>
     </row>
-    <row r="8" spans="1:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="55"/>
       <c r="C8" s="55"/>
@@ -11518,7 +11533,7 @@
       <c r="BL8" s="139"/>
       <c r="BM8" s="32"/>
     </row>
-    <row r="9" spans="1:68" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:68" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="121" t="s">
         <v>8</v>
@@ -11541,23 +11556,23 @@
       <c r="H9" s="49"/>
       <c r="I9" s="40" t="str">
         <f t="shared" ref="I9:BL9" ca="1" si="3">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="J9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="K9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="L9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="M9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="N9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -11565,27 +11580,27 @@
       </c>
       <c r="O9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="P9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="Q9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="R9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="S9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="T9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="U9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -11593,27 +11608,27 @@
       </c>
       <c r="V9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="W9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="X9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="Y9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="Z9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AA9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AB9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -11621,27 +11636,27 @@
       </c>
       <c r="AC9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="AD9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AE9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="AF9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AG9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AH9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AI9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -11649,27 +11664,27 @@
       </c>
       <c r="AJ9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="AK9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AL9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="AM9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AN9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AO9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AP9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -11677,27 +11692,27 @@
       </c>
       <c r="AQ9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="AR9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AS9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="AT9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AU9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AV9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AW9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -11705,27 +11720,27 @@
       </c>
       <c r="AX9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="AY9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AZ9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="BA9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BB9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BC9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="BD9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -11733,27 +11748,27 @@
       </c>
       <c r="BE9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="BF9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="BG9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="BH9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BI9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BJ9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="BK9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -11761,11 +11776,11 @@
       </c>
       <c r="BL9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="BM9" s="32"/>
     </row>
-    <row r="10" spans="1:68" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:68" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="18"/>
       <c r="C10" s="14"/>
       <c r="D10" s="13"/>
@@ -11831,7 +11846,7 @@
       <c r="BL10" s="39"/>
       <c r="BM10" s="32"/>
     </row>
-    <row r="11" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="123" t="s">
         <v>36</v>
@@ -12069,7 +12084,7 @@
       <c r="BM11" s="29"/>
       <c r="BP11" s="41"/>
     </row>
-    <row r="12" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="26" t="s">
         <v>37</v>
@@ -12078,17 +12093,16 @@
         <v>20</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E12" s="23">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="F12" s="24">
-        <f ca="1">TODAY()</f>
-        <v>44466</v>
+        <v>44470</v>
       </c>
       <c r="G12" s="25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H12" s="20"/>
       <c r="I12" s="159"/>
@@ -12302,24 +12316,25 @@
       </c>
       <c r="BM12" s="29"/>
     </row>
-    <row r="13" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="26" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="23"/>
+        <v>47</v>
+      </c>
+      <c r="E13" s="23">
+        <v>0.7</v>
+      </c>
       <c r="F13" s="24">
-        <f ca="1">TODAY()+5</f>
-        <v>44471</v>
+        <v>44474</v>
       </c>
       <c r="G13" s="25">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H13" s="20"/>
       <c r="I13" s="48" t="str">
@@ -12545,23 +12560,23 @@
       </c>
       <c r="BM13" s="29"/>
     </row>
-    <row r="14" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="26" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="E14" s="23">
         <v>0.5</v>
       </c>
       <c r="F14" s="24">
-        <f ca="1">F12-3</f>
-        <v>44463</v>
+        <f>F12-F153</f>
+        <v>44470</v>
       </c>
       <c r="G14" s="25">
         <v>10</v>
@@ -12790,7 +12805,7 @@
       </c>
       <c r="BM14" s="29"/>
     </row>
-    <row r="15" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="26" t="s">
         <v>13</v>
@@ -12803,8 +12818,8 @@
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="24">
-        <f ca="1">F12+20</f>
-        <v>44486</v>
+        <f>F12+20</f>
+        <v>44490</v>
       </c>
       <c r="G15" s="25">
         <v>1</v>
@@ -13036,7 +13051,7 @@
       </c>
       <c r="BM15" s="29"/>
     </row>
-    <row r="16" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="26" t="s">
         <v>14</v>
@@ -13049,8 +13064,8 @@
         <v>0.1</v>
       </c>
       <c r="F16" s="24">
-        <f ca="1">F12+6</f>
-        <v>44472</v>
+        <f>F12+6</f>
+        <v>44476</v>
       </c>
       <c r="G16" s="25">
         <v>6</v>
@@ -13267,7 +13282,7 @@
       </c>
       <c r="BM16" s="29"/>
     </row>
-    <row r="17" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="123" t="s">
         <v>15</v>
@@ -13506,7 +13521,7 @@
       </c>
       <c r="BM17" s="29"/>
     </row>
-    <row r="18" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="26" t="s">
         <v>10</v>
@@ -13519,88 +13534,88 @@
         <v>0.6</v>
       </c>
       <c r="F18" s="24">
-        <f ca="1">F12+6</f>
-        <v>44472</v>
+        <f>F12+6</f>
+        <v>44476</v>
       </c>
       <c r="G18" s="25">
         <v>13</v>
       </c>
       <c r="H18" s="20"/>
-      <c r="I18" s="48" t="str">
+      <c r="I18" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="J18" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="K18" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="L18" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="M18" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="N18" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>2</v>
+      </c>
+      <c r="J18" s="28">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="K18" s="28">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L18" s="28">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="M18" s="28">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N18" s="28">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="O18" s="28">
         <f t="shared" ca="1" si="9"/>
         <v>2</v>
       </c>
-      <c r="P18" s="28">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="Q18" s="28">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="R18" s="28">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="S18" s="28">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="T18" s="28">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="U18" s="28">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="V18" s="28">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="W18" s="28">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="X18" s="28">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="Y18" s="28">
-        <f t="shared" ca="1" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="Z18" s="28">
-        <f t="shared" ca="1" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AA18" s="28">
-        <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+      <c r="P18" s="28" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="Q18" s="28" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="R18" s="28" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="S18" s="28" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="T18" s="28" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="U18" s="28" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="V18" s="28" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="W18" s="28" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="X18" s="28" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="Y18" s="28" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="Z18" s="28" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AA18" s="28" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
       </c>
       <c r="AB18" s="28" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -13752,7 +13767,7 @@
       </c>
       <c r="BM18" s="29"/>
     </row>
-    <row r="19" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="26" t="s">
         <v>11</v>
@@ -13765,32 +13780,32 @@
         <v>0.5</v>
       </c>
       <c r="F19" s="24">
-        <f ca="1">F18+2</f>
-        <v>44474</v>
+        <f>F18+2</f>
+        <v>44478</v>
       </c>
       <c r="G19" s="25">
         <v>9</v>
       </c>
       <c r="H19" s="20"/>
-      <c r="I19" s="48" t="str">
+      <c r="I19" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="J19" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="K19" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="L19" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="M19" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>2</v>
+      </c>
+      <c r="J19" s="28">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="K19" s="28">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L19" s="28">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="M19" s="28">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="N19" s="28" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -13804,41 +13819,41 @@
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="Q19" s="28">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="R19" s="28">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="S19" s="28">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="T19" s="28">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="U19" s="28">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="V19" s="28">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="W19" s="28">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="X19" s="28">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="Y19" s="28">
-        <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+      <c r="Q19" s="28" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="R19" s="28" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="S19" s="28" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="T19" s="28" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="U19" s="28" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="V19" s="28" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="W19" s="28" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="X19" s="28" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="Y19" s="28" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
       </c>
       <c r="Z19" s="28" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -13998,7 +14013,7 @@
       </c>
       <c r="BM19" s="29"/>
     </row>
-    <row r="20" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="26" t="s">
         <v>12</v>
@@ -14011,8 +14026,8 @@
         <v>0.33</v>
       </c>
       <c r="F20" s="24">
-        <f ca="1">F19+5</f>
-        <v>44479</v>
+        <f>F19+5</f>
+        <v>44483</v>
       </c>
       <c r="G20" s="25">
         <v>11</v>
@@ -14241,7 +14256,7 @@
       </c>
       <c r="BM20" s="29"/>
     </row>
-    <row r="21" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="26" t="s">
         <v>13</v>
@@ -14252,8 +14267,8 @@
       <c r="D21" s="22"/>
       <c r="E21" s="23"/>
       <c r="F21" s="24">
-        <f ca="1">F20+2</f>
-        <v>44481</v>
+        <f>F20+2</f>
+        <v>44485</v>
       </c>
       <c r="G21" s="25">
         <v>1</v>
@@ -14271,9 +14286,9 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="L21" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+      <c r="L21" s="28">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="M21" s="28" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -14319,9 +14334,9 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="X21" s="28">
+      <c r="X21" s="28" t="str">
         <f ca="1">IF(AND($C21="Objetivo",X$7&gt;=$F21,X$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",X$7&gt;=$F21,X$7&lt;=$F21+$G21-1),1,""))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="Y21" s="28" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -14485,7 +14500,7 @@
       </c>
       <c r="BM21" s="29"/>
     </row>
-    <row r="22" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="26" t="s">
         <v>14</v>
@@ -14496,8 +14511,8 @@
       <c r="D22" s="22"/>
       <c r="E22" s="23"/>
       <c r="F22" s="24">
-        <f ca="1">F21+1</f>
-        <v>44482</v>
+        <f>F21+1</f>
+        <v>44486</v>
       </c>
       <c r="G22" s="25">
         <v>24</v>
@@ -14519,53 +14534,53 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="M22" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="N22" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="O22" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="P22" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="Q22" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="R22" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="S22" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="T22" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="U22" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="V22" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="W22" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="X22" s="28" t="str">
+      <c r="M22" s="28">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N22" s="28">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O22" s="28">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P22" s="28">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Q22" s="28">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="R22" s="28">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S22" s="28">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="T22" s="28">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="U22" s="28">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V22" s="28">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="W22" s="28">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X22" s="28">
         <f ca="1">IF(AND($C22="Objetivo",X$7&gt;=$F22,X$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",X$7&gt;=$F22,X$7&lt;=$F22+$G22-1),1,""))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="Y22" s="28">
         <f ca="1">IF(AND($C22="Objetivo",Y$7&gt;=$F22,Y$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",Y$7&gt;=$F22,Y$7&lt;=$F22+$G22-1),1,""))</f>
@@ -14615,53 +14630,53 @@
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="AK22" s="28">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AL22" s="28">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AM22" s="28">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AN22" s="28">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AO22" s="28">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AP22" s="28">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AQ22" s="28">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AR22" s="28">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AS22" s="28">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AT22" s="28">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AU22" s="28">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AV22" s="28">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+      <c r="AK22" s="28" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AL22" s="28" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AM22" s="28" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN22" s="28" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AO22" s="28" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AP22" s="28" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AQ22" s="28" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AR22" s="28" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AS22" s="28" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AT22" s="28" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AU22" s="28" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AV22" s="28" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
       </c>
       <c r="AW22" s="28" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -14729,7 +14744,7 @@
       </c>
       <c r="BM22" s="29"/>
     </row>
-    <row r="23" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="123" t="s">
         <v>16</v>
@@ -14968,7 +14983,7 @@
       </c>
       <c r="BM23" s="29"/>
     </row>
-    <row r="24" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="26" t="s">
         <v>10</v>
@@ -14979,8 +14994,8 @@
       <c r="D24" s="22"/>
       <c r="E24" s="23"/>
       <c r="F24" s="24">
-        <f ca="1">F12+15</f>
-        <v>44481</v>
+        <f>F12+15</f>
+        <v>44485</v>
       </c>
       <c r="G24" s="25">
         <v>4</v>
@@ -15212,7 +15227,7 @@
       </c>
       <c r="BM24" s="29"/>
     </row>
-    <row r="25" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="26" t="s">
         <v>11</v>
@@ -15223,8 +15238,8 @@
       <c r="D25" s="22"/>
       <c r="E25" s="23"/>
       <c r="F25" s="24">
-        <f ca="1">F24+3</f>
-        <v>44484</v>
+        <f>F24+3</f>
+        <v>44488</v>
       </c>
       <c r="G25" s="25">
         <v>14</v>
@@ -15456,7 +15471,7 @@
       </c>
       <c r="BM25" s="29"/>
     </row>
-    <row r="26" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="26" t="s">
         <v>12</v>
@@ -15467,8 +15482,8 @@
       <c r="D26" s="22"/>
       <c r="E26" s="23"/>
       <c r="F26" s="24">
-        <f ca="1">F25+15</f>
-        <v>44499</v>
+        <f>F25+15</f>
+        <v>44503</v>
       </c>
       <c r="G26" s="25">
         <v>6</v>
@@ -15700,7 +15715,7 @@
       </c>
       <c r="BM26" s="29"/>
     </row>
-    <row r="27" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="26" t="s">
         <v>13</v>
@@ -15711,8 +15726,8 @@
       <c r="D27" s="22"/>
       <c r="E27" s="23"/>
       <c r="F27" s="24">
-        <f ca="1">F21+22</f>
-        <v>44503</v>
+        <f>F21+22</f>
+        <v>44507</v>
       </c>
       <c r="G27" s="25">
         <v>3</v>
@@ -15818,17 +15833,17 @@
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
-      <c r="AH27" s="28" t="str">
+      <c r="AH27" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AI27" s="28" t="str">
+        <v>2</v>
+      </c>
+      <c r="AI27" s="28">
         <f t="shared" ref="AI27:AM35" ca="1" si="15">IF(AND($C27="Objetivo",AI$7&gt;=$F27,AI$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AI$7&gt;=$F27,AI$7&lt;=$F27+$G27-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AJ27" s="28" t="str">
+        <v>2</v>
+      </c>
+      <c r="AJ27" s="28">
         <f t="shared" ca="1" si="15"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AK27" s="28" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -15866,17 +15881,17 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AT27" s="28">
-        <f t="shared" ca="1" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AU27" s="28">
-        <f t="shared" ca="1" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AV27" s="28">
-        <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+      <c r="AT27" s="28" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AU27" s="28" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AV27" s="28" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
       </c>
       <c r="AW27" s="28" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -15944,7 +15959,7 @@
       </c>
       <c r="BM27" s="29"/>
     </row>
-    <row r="28" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="26" t="s">
         <v>14</v>
@@ -15955,8 +15970,8 @@
       <c r="D28" s="22"/>
       <c r="E28" s="23"/>
       <c r="F28" s="24">
-        <f ca="1">F16</f>
-        <v>44472</v>
+        <f>F16</f>
+        <v>44476</v>
       </c>
       <c r="G28" s="25">
         <v>19</v>
@@ -16188,7 +16203,7 @@
       </c>
       <c r="BM28" s="29"/>
     </row>
-    <row r="29" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="123" t="s">
         <v>17</v>
@@ -16427,7 +16442,7 @@
       </c>
       <c r="BM29" s="29"/>
     </row>
-    <row r="30" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="26" t="s">
         <v>10</v>
@@ -16438,8 +16453,8 @@
       <c r="D30" s="22"/>
       <c r="E30" s="23"/>
       <c r="F30" s="24">
-        <f ca="1">F27+3</f>
-        <v>44506</v>
+        <f>F27+3</f>
+        <v>44510</v>
       </c>
       <c r="G30" s="25">
         <v>15</v>
@@ -16557,53 +16572,53 @@
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AK30" s="28" t="str">
+      <c r="AK30" s="28">
         <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AL30" s="28" t="str">
+        <v>1</v>
+      </c>
+      <c r="AL30" s="28">
         <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AM30" s="28" t="str">
+        <v>1</v>
+      </c>
+      <c r="AM30" s="28">
         <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AN30" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AO30" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AP30" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AQ30" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AR30" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AS30" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AT30" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AU30" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AV30" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="AN30" s="28">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AO30" s="28">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AP30" s="28">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AQ30" s="28">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AR30" s="28">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AS30" s="28">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AT30" s="28">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AU30" s="28">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AV30" s="28">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
       </c>
       <c r="AW30" s="28">
         <f t="shared" ca="1" si="12"/>
@@ -16617,53 +16632,53 @@
         <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
-      <c r="AZ30" s="28">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="BA30" s="28">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="BB30" s="28">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="BC30" s="28">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="BD30" s="28">
+      <c r="AZ30" s="28" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BA30" s="28" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BB30" s="28" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BC30" s="28" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BD30" s="28" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="BE30" s="28">
+        <v/>
+      </c>
+      <c r="BE30" s="28" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="BF30" s="28">
+        <v/>
+      </c>
+      <c r="BF30" s="28" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="BG30" s="28">
+        <v/>
+      </c>
+      <c r="BG30" s="28" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="BH30" s="28">
+        <v/>
+      </c>
+      <c r="BH30" s="28" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="BI30" s="28">
+        <v/>
+      </c>
+      <c r="BI30" s="28" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="BJ30" s="28">
+        <v/>
+      </c>
+      <c r="BJ30" s="28" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="BK30" s="28">
+        <v/>
+      </c>
+      <c r="BK30" s="28" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="BL30" s="28" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -16671,7 +16686,7 @@
       </c>
       <c r="BM30" s="29"/>
     </row>
-    <row r="31" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="26" t="s">
         <v>11</v>
@@ -16682,8 +16697,8 @@
       <c r="D31" s="22"/>
       <c r="E31" s="23"/>
       <c r="F31" s="24">
-        <f ca="1">F30+14</f>
-        <v>44520</v>
+        <f>F30+14</f>
+        <v>44524</v>
       </c>
       <c r="G31" s="25">
         <v>5</v>
@@ -16857,25 +16872,25 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AY31" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AZ31" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BA31" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BB31" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BC31" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
+      <c r="AY31" s="28">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AZ31" s="28">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="BA31" s="28">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="BB31" s="28">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="BC31" s="28">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
       </c>
       <c r="BD31" s="28" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -16905,17 +16920,17 @@
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="BK31" s="28">
+      <c r="BK31" s="28" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="BL31" s="28">
+        <v/>
+      </c>
+      <c r="BL31" s="28" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="BM31" s="29"/>
     </row>
-    <row r="32" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="26" t="s">
         <v>12</v>
@@ -16926,8 +16941,8 @@
       <c r="D32" s="22"/>
       <c r="E32" s="23"/>
       <c r="F32" s="24">
-        <f ca="1">F31+42</f>
-        <v>44562</v>
+        <f>F31+42</f>
+        <v>44566</v>
       </c>
       <c r="G32" s="25">
         <v>1</v>
@@ -17159,7 +17174,7 @@
       </c>
       <c r="BM32" s="29"/>
     </row>
-    <row r="33" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="26" t="s">
         <v>13</v>
@@ -17398,7 +17413,7 @@
       </c>
       <c r="BM33" s="29"/>
     </row>
-    <row r="34" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="26" t="s">
         <v>14</v>
@@ -17637,7 +17652,7 @@
       </c>
       <c r="BM34" s="29"/>
     </row>
-    <row r="35" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="26"/>
       <c r="C35" s="22"/>
@@ -17872,7 +17887,7 @@
       </c>
       <c r="BM35" s="68"/>
     </row>
-    <row r="36" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="119"/>
       <c r="C36" s="58"/>
@@ -17939,12 +17954,12 @@
       <c r="BL36" s="67"/>
       <c r="BM36" s="46"/>
     </row>
-    <row r="37" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D37" s="4"/>
       <c r="G37" s="11"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>43</v>
       </c>
@@ -18059,8 +18074,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C35" xr:uid="{6DF53675-1CC5-48A5-AEA3-4B056C8D49B7}">
       <formula1>"Objetivo,No Prazo,Não Iniciada, Atrasada, Finalizada"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D34" xr:uid="{A16C404A-F419-4504-85ED-FA4BCECFC07A}">
-      <formula1>"Nome, Caio, João, Luis, Lucas G, Lucas F, Vinicius"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{BA1ADA27-A95D-46D5-8472-774D839E3B20}">
+      <formula1>"Nome, Caio, João, Luis, Lucas G, Lucas F, Vinicius,Todos"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -18084,7 +18099,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>57150</xdr:rowOff>
                   </from>
@@ -18176,23 +18191,23 @@
   <sheetViews>
     <sheetView showGridLines="0" showRuler="0" topLeftCell="A29" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="30.7265625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.54296875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="2.7265625" style="12" customWidth="1"/>
-    <col min="9" max="64" width="3.54296875" style="12" customWidth="1"/>
-    <col min="65" max="65" width="2.7265625" style="12" customWidth="1"/>
-    <col min="66" max="16384" width="8.81640625" style="12"/>
+    <col min="1" max="1" width="4.7109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" style="12" customWidth="1"/>
+    <col min="9" max="64" width="3.5703125" style="12" customWidth="1"/>
+    <col min="65" max="65" width="2.7109375" style="12" customWidth="1"/>
+    <col min="66" max="16384" width="8.85546875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="25.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:68" ht="49.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:68" ht="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:68" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="168" t="s">
         <v>3</v>
@@ -18261,7 +18276,7 @@
       <c r="BL2" s="107"/>
       <c r="BM2" s="107"/>
     </row>
-    <row r="3" spans="1:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="70"/>
       <c r="C3" s="71"/>
@@ -18328,7 +18343,7 @@
       <c r="BL3" s="91"/>
       <c r="BM3" s="92"/>
     </row>
-    <row r="4" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="74" t="s">
         <v>4</v>
@@ -18408,7 +18423,7 @@
       <c r="BL4" s="92"/>
       <c r="BM4" s="92"/>
     </row>
-    <row r="5" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="80" t="s">
         <v>5</v>
@@ -18477,14 +18492,14 @@
       <c r="BL5" s="91"/>
       <c r="BM5" s="92"/>
     </row>
-    <row r="6" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="82" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="83" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones43524[Início])=0,TODAY(),B11(Milestones43524[Início])),TODAY())</f>
-        <v>44466</v>
+        <v>44482</v>
       </c>
       <c r="D6" s="84"/>
       <c r="E6" s="77"/>
@@ -18493,7 +18508,7 @@
       <c r="H6" s="77"/>
       <c r="I6" s="102" t="str">
         <f ca="1">TEXT(I7,"mmmm")</f>
-        <v>setembro</v>
+        <v>outubro</v>
       </c>
       <c r="J6" s="102"/>
       <c r="K6" s="102"/>
@@ -18503,7 +18518,7 @@
       <c r="O6" s="102"/>
       <c r="P6" s="102" t="str">
         <f ca="1">IF(TEXT(P7,"mmmm")=I6,"",TEXT(P7,"mmmm"))</f>
-        <v>outubro</v>
+        <v/>
       </c>
       <c r="Q6" s="102"/>
       <c r="R6" s="102"/>
@@ -18523,7 +18538,7 @@
       <c r="AC6" s="102"/>
       <c r="AD6" s="102" t="str">
         <f ca="1">IF(OR(TEXT(AD7,"mmmm")=W6,TEXT(AD7,"mmmm")=P6,TEXT(AD7,"mmmm")=I6),"",TEXT(AD7,"mmmm"))</f>
-        <v/>
+        <v>novembro</v>
       </c>
       <c r="AE6" s="102"/>
       <c r="AF6" s="102"/>
@@ -18543,7 +18558,7 @@
       <c r="AQ6" s="102"/>
       <c r="AR6" s="102" t="str">
         <f ca="1">IF(OR(TEXT(AR7,"mmmm")=AK6,TEXT(AR7,"mmmm")=AD6,TEXT(AR7,"mmmm")=W6,TEXT(AR7,"mmmm")=P6),"",TEXT(AR7,"mmmm"))</f>
-        <v>novembro</v>
+        <v/>
       </c>
       <c r="AS6" s="102"/>
       <c r="AT6" s="102"/>
@@ -18563,7 +18578,7 @@
       <c r="BE6" s="101"/>
       <c r="BF6" s="101" t="str">
         <f ca="1">IF(OR(TEXT(BF7,"mmmm")=AY6,TEXT(BF7,"mmmm")=AR6,TEXT(BF7,"mmmm")=AK6,TEXT(BF7,"mmmm")=AD6),"",TEXT(BF7,"mmmm"))</f>
-        <v/>
+        <v>dezembro</v>
       </c>
       <c r="BG6" s="101"/>
       <c r="BH6" s="101"/>
@@ -18573,7 +18588,7 @@
       <c r="BL6" s="101"/>
       <c r="BM6" s="92"/>
     </row>
-    <row r="7" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="82" t="s">
         <v>7</v>
@@ -18588,231 +18603,231 @@
       <c r="H7" s="87"/>
       <c r="I7" s="126">
         <f ca="1">IFERROR(Início_do_projeto+Incremento_de_rolagem,TODAY())</f>
-        <v>44466</v>
+        <v>44482</v>
       </c>
       <c r="J7" s="127">
         <f ca="1">I7+1</f>
-        <v>44467</v>
+        <v>44483</v>
       </c>
       <c r="K7" s="127">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44468</v>
+        <v>44484</v>
       </c>
       <c r="L7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44469</v>
+        <v>44485</v>
       </c>
       <c r="M7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44470</v>
+        <v>44486</v>
       </c>
       <c r="N7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44471</v>
+        <v>44487</v>
       </c>
       <c r="O7" s="128">
         <f t="shared" ca="1" si="0"/>
-        <v>44472</v>
+        <v>44488</v>
       </c>
       <c r="P7" s="127">
         <f ca="1">O7+1</f>
-        <v>44473</v>
+        <v>44489</v>
       </c>
       <c r="Q7" s="127">
         <f ca="1">P7+1</f>
-        <v>44474</v>
+        <v>44490</v>
       </c>
       <c r="R7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44475</v>
+        <v>44491</v>
       </c>
       <c r="S7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44476</v>
+        <v>44492</v>
       </c>
       <c r="T7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44477</v>
+        <v>44493</v>
       </c>
       <c r="U7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44478</v>
+        <v>44494</v>
       </c>
       <c r="V7" s="128">
         <f t="shared" ca="1" si="0"/>
-        <v>44479</v>
+        <v>44495</v>
       </c>
       <c r="W7" s="127">
         <f ca="1">V7+1</f>
-        <v>44480</v>
+        <v>44496</v>
       </c>
       <c r="X7" s="127">
         <f ca="1">W7+1</f>
-        <v>44481</v>
+        <v>44497</v>
       </c>
       <c r="Y7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44482</v>
+        <v>44498</v>
       </c>
       <c r="Z7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44483</v>
+        <v>44499</v>
       </c>
       <c r="AA7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44484</v>
+        <v>44500</v>
       </c>
       <c r="AB7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44485</v>
+        <v>44501</v>
       </c>
       <c r="AC7" s="128">
         <f t="shared" ca="1" si="0"/>
-        <v>44486</v>
+        <v>44502</v>
       </c>
       <c r="AD7" s="127">
         <f ca="1">AC7+1</f>
-        <v>44487</v>
+        <v>44503</v>
       </c>
       <c r="AE7" s="127">
         <f ca="1">AD7+1</f>
-        <v>44488</v>
+        <v>44504</v>
       </c>
       <c r="AF7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44489</v>
+        <v>44505</v>
       </c>
       <c r="AG7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44490</v>
+        <v>44506</v>
       </c>
       <c r="AH7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44491</v>
+        <v>44507</v>
       </c>
       <c r="AI7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44492</v>
+        <v>44508</v>
       </c>
       <c r="AJ7" s="128">
         <f t="shared" ca="1" si="0"/>
-        <v>44493</v>
+        <v>44509</v>
       </c>
       <c r="AK7" s="127">
         <f ca="1">AJ7+1</f>
-        <v>44494</v>
+        <v>44510</v>
       </c>
       <c r="AL7" s="127">
         <f ca="1">AK7+1</f>
-        <v>44495</v>
+        <v>44511</v>
       </c>
       <c r="AM7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44496</v>
+        <v>44512</v>
       </c>
       <c r="AN7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44497</v>
+        <v>44513</v>
       </c>
       <c r="AO7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44498</v>
+        <v>44514</v>
       </c>
       <c r="AP7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44499</v>
+        <v>44515</v>
       </c>
       <c r="AQ7" s="128">
         <f t="shared" ca="1" si="0"/>
-        <v>44500</v>
+        <v>44516</v>
       </c>
       <c r="AR7" s="127">
         <f ca="1">AQ7+1</f>
-        <v>44501</v>
+        <v>44517</v>
       </c>
       <c r="AS7" s="127">
         <f ca="1">AR7+1</f>
-        <v>44502</v>
+        <v>44518</v>
       </c>
       <c r="AT7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44503</v>
+        <v>44519</v>
       </c>
       <c r="AU7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
+        <v>44520</v>
       </c>
       <c r="AV7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44505</v>
+        <v>44521</v>
       </c>
       <c r="AW7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44506</v>
+        <v>44522</v>
       </c>
       <c r="AX7" s="128">
         <f t="shared" ca="1" si="0"/>
-        <v>44507</v>
+        <v>44523</v>
       </c>
       <c r="AY7" s="127">
         <f ca="1">AX7+1</f>
-        <v>44508</v>
+        <v>44524</v>
       </c>
       <c r="AZ7" s="127">
         <f ca="1">AY7+1</f>
-        <v>44509</v>
+        <v>44525</v>
       </c>
       <c r="BA7" s="127">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>44510</v>
+        <v>44526</v>
       </c>
       <c r="BB7" s="127">
         <f t="shared" ca="1" si="1"/>
-        <v>44511</v>
+        <v>44527</v>
       </c>
       <c r="BC7" s="127">
         <f t="shared" ca="1" si="1"/>
-        <v>44512</v>
+        <v>44528</v>
       </c>
       <c r="BD7" s="127">
         <f t="shared" ca="1" si="1"/>
-        <v>44513</v>
+        <v>44529</v>
       </c>
       <c r="BE7" s="128">
         <f t="shared" ca="1" si="1"/>
-        <v>44514</v>
+        <v>44530</v>
       </c>
       <c r="BF7" s="127">
         <f ca="1">BE7+1</f>
-        <v>44515</v>
+        <v>44531</v>
       </c>
       <c r="BG7" s="127">
         <f ca="1">BF7+1</f>
-        <v>44516</v>
+        <v>44532</v>
       </c>
       <c r="BH7" s="127">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>44517</v>
+        <v>44533</v>
       </c>
       <c r="BI7" s="127">
         <f t="shared" ca="1" si="2"/>
-        <v>44518</v>
+        <v>44534</v>
       </c>
       <c r="BJ7" s="127">
         <f t="shared" ca="1" si="2"/>
-        <v>44519</v>
+        <v>44535</v>
       </c>
       <c r="BK7" s="127">
         <f t="shared" ca="1" si="2"/>
-        <v>44520</v>
+        <v>44536</v>
       </c>
       <c r="BL7" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>44521</v>
+        <v>44537</v>
       </c>
       <c r="BM7" s="92"/>
     </row>
-    <row r="8" spans="1:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="88"/>
       <c r="C8" s="88"/>
@@ -18879,7 +18894,7 @@
       <c r="BL8" s="133"/>
       <c r="BM8" s="92"/>
     </row>
-    <row r="9" spans="1:68" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:68" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="124" t="s">
         <v>8</v>
@@ -18902,23 +18917,23 @@
       <c r="H9" s="98"/>
       <c r="I9" s="108" t="str">
         <f t="shared" ref="I9:BL9" ca="1" si="3">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="J9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="K9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="L9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="M9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="N9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -18926,27 +18941,27 @@
       </c>
       <c r="O9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="P9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="Q9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="R9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="S9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="T9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="U9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -18954,27 +18969,27 @@
       </c>
       <c r="V9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="W9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="X9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="Y9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="Z9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AA9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AB9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -18982,27 +18997,27 @@
       </c>
       <c r="AC9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="AD9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AE9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="AF9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AG9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AH9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AI9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19010,27 +19025,27 @@
       </c>
       <c r="AJ9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="AK9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AL9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="AM9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AN9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AO9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AP9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19038,27 +19053,27 @@
       </c>
       <c r="AQ9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="AR9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AS9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="AT9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AU9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AV9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AW9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19066,27 +19081,27 @@
       </c>
       <c r="AX9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="AY9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AZ9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="BA9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BB9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BC9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="BD9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19094,27 +19109,27 @@
       </c>
       <c r="BE9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="BF9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="BG9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="BH9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BI9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BJ9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="BK9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19122,11 +19137,11 @@
       </c>
       <c r="BL9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="BM9" s="92"/>
     </row>
-    <row r="10" spans="1:68" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:68" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="18"/>
       <c r="C10" s="14"/>
       <c r="D10" s="13"/>
@@ -19192,7 +19207,7 @@
       <c r="BL10" s="39"/>
       <c r="BM10" s="92"/>
     </row>
-    <row r="11" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="118" t="s">
         <v>9</v>
@@ -19430,7 +19445,7 @@
       <c r="BM11" s="19"/>
       <c r="BP11" s="41"/>
     </row>
-    <row r="12" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="65" t="s">
         <v>10</v>
@@ -19446,7 +19461,7 @@
       </c>
       <c r="F12" s="63">
         <f ca="1">TODAY()</f>
-        <v>44466</v>
+        <v>44482</v>
       </c>
       <c r="G12" s="64">
         <v>3</v>
@@ -19678,7 +19693,7 @@
       </c>
       <c r="BM12" s="19"/>
     </row>
-    <row r="13" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="65" t="s">
         <v>11</v>
@@ -19690,7 +19705,7 @@
       <c r="E13" s="62"/>
       <c r="F13" s="63">
         <f ca="1">TODAY()+5</f>
-        <v>44471</v>
+        <v>44487</v>
       </c>
       <c r="G13" s="64">
         <v>1</v>
@@ -19922,7 +19937,7 @@
       </c>
       <c r="BM13" s="19"/>
     </row>
-    <row r="14" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="65" t="s">
         <v>12</v>
@@ -19936,7 +19951,7 @@
       </c>
       <c r="F14" s="63">
         <f ca="1">F12-3</f>
-        <v>44463</v>
+        <v>44479</v>
       </c>
       <c r="G14" s="64">
         <v>10</v>
@@ -20168,7 +20183,7 @@
       </c>
       <c r="BM14" s="19"/>
     </row>
-    <row r="15" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="65" t="s">
         <v>13</v>
@@ -20180,7 +20195,7 @@
       <c r="E15" s="62"/>
       <c r="F15" s="63">
         <f ca="1">F12+20</f>
-        <v>44486</v>
+        <v>44502</v>
       </c>
       <c r="G15" s="64">
         <v>1</v>
@@ -20412,7 +20427,7 @@
       </c>
       <c r="BM15" s="19"/>
     </row>
-    <row r="16" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="65" t="s">
         <v>14</v>
@@ -20426,7 +20441,7 @@
       </c>
       <c r="F16" s="63">
         <f ca="1">F12+6</f>
-        <v>44472</v>
+        <v>44488</v>
       </c>
       <c r="G16" s="64">
         <v>6</v>
@@ -20658,7 +20673,7 @@
       </c>
       <c r="BM16" s="19"/>
     </row>
-    <row r="17" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="118" t="s">
         <v>15</v>
@@ -20895,7 +20910,7 @@
       </c>
       <c r="BM17" s="19"/>
     </row>
-    <row r="18" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="65" t="s">
         <v>10</v>
@@ -20909,7 +20924,7 @@
       </c>
       <c r="F18" s="63">
         <f ca="1">F12+6</f>
-        <v>44472</v>
+        <v>44488</v>
       </c>
       <c r="G18" s="64">
         <v>13</v>
@@ -21141,7 +21156,7 @@
       </c>
       <c r="BM18" s="19"/>
     </row>
-    <row r="19" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="65" t="s">
         <v>11</v>
@@ -21155,7 +21170,7 @@
       </c>
       <c r="F19" s="63">
         <f ca="1">F18+2</f>
-        <v>44474</v>
+        <v>44490</v>
       </c>
       <c r="G19" s="64">
         <v>9</v>
@@ -21387,7 +21402,7 @@
       </c>
       <c r="BM19" s="19"/>
     </row>
-    <row r="20" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="65" t="s">
         <v>12</v>
@@ -21401,7 +21416,7 @@
       </c>
       <c r="F20" s="63">
         <f ca="1">F19+5</f>
-        <v>44479</v>
+        <v>44495</v>
       </c>
       <c r="G20" s="64">
         <v>11</v>
@@ -21633,7 +21648,7 @@
       </c>
       <c r="BM20" s="19"/>
     </row>
-    <row r="21" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="65" t="s">
         <v>13</v>
@@ -21645,7 +21660,7 @@
       <c r="E21" s="62"/>
       <c r="F21" s="63">
         <f ca="1">F20+2</f>
-        <v>44481</v>
+        <v>44497</v>
       </c>
       <c r="G21" s="64">
         <v>1</v>
@@ -21877,7 +21892,7 @@
       </c>
       <c r="BM21" s="19"/>
     </row>
-    <row r="22" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="65" t="s">
         <v>14</v>
@@ -21887,7 +21902,7 @@
       <c r="E22" s="62"/>
       <c r="F22" s="63">
         <f ca="1">F21+1</f>
-        <v>44482</v>
+        <v>44498</v>
       </c>
       <c r="G22" s="64">
         <v>24</v>
@@ -22119,7 +22134,7 @@
       </c>
       <c r="BM22" s="19"/>
     </row>
-    <row r="23" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="118" t="s">
         <v>16</v>
@@ -22356,7 +22371,7 @@
       </c>
       <c r="BM23" s="19"/>
     </row>
-    <row r="24" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="65" t="s">
         <v>10</v>
@@ -22368,7 +22383,7 @@
       <c r="E24" s="62"/>
       <c r="F24" s="63">
         <f ca="1">F12+15</f>
-        <v>44481</v>
+        <v>44497</v>
       </c>
       <c r="G24" s="64">
         <v>4</v>
@@ -22600,7 +22615,7 @@
       </c>
       <c r="BM24" s="19"/>
     </row>
-    <row r="25" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="65" t="s">
         <v>11</v>
@@ -22612,7 +22627,7 @@
       <c r="E25" s="62"/>
       <c r="F25" s="63">
         <f ca="1">F24+3</f>
-        <v>44484</v>
+        <v>44500</v>
       </c>
       <c r="G25" s="64">
         <v>14</v>
@@ -22844,7 +22859,7 @@
       </c>
       <c r="BM25" s="19"/>
     </row>
-    <row r="26" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="65" t="s">
         <v>12</v>
@@ -22856,7 +22871,7 @@
       <c r="E26" s="62"/>
       <c r="F26" s="63">
         <f ca="1">F25+15</f>
-        <v>44499</v>
+        <v>44515</v>
       </c>
       <c r="G26" s="64">
         <v>6</v>
@@ -23088,7 +23103,7 @@
       </c>
       <c r="BM26" s="19"/>
     </row>
-    <row r="27" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="65" t="s">
         <v>13</v>
@@ -23100,7 +23115,7 @@
       <c r="E27" s="62"/>
       <c r="F27" s="63">
         <f ca="1">F21+22</f>
-        <v>44503</v>
+        <v>44519</v>
       </c>
       <c r="G27" s="64">
         <v>3</v>
@@ -23332,7 +23347,7 @@
       </c>
       <c r="BM27" s="19"/>
     </row>
-    <row r="28" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="65" t="s">
         <v>14</v>
@@ -23344,7 +23359,7 @@
       <c r="E28" s="62"/>
       <c r="F28" s="63">
         <f ca="1">F16</f>
-        <v>44472</v>
+        <v>44488</v>
       </c>
       <c r="G28" s="64">
         <v>19</v>
@@ -23576,7 +23591,7 @@
       </c>
       <c r="BM28" s="19"/>
     </row>
-    <row r="29" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="118" t="s">
         <v>17</v>
@@ -23813,7 +23828,7 @@
       </c>
       <c r="BM29" s="19"/>
     </row>
-    <row r="30" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="65" t="s">
         <v>10</v>
@@ -23823,7 +23838,7 @@
       <c r="E30" s="62"/>
       <c r="F30" s="63">
         <f ca="1">F27+3</f>
-        <v>44506</v>
+        <v>44522</v>
       </c>
       <c r="G30" s="64">
         <v>15</v>
@@ -24055,7 +24070,7 @@
       </c>
       <c r="BM30" s="19"/>
     </row>
-    <row r="31" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="65" t="s">
         <v>11</v>
@@ -24065,7 +24080,7 @@
       <c r="E31" s="62"/>
       <c r="F31" s="63">
         <f ca="1">F30+14</f>
-        <v>44520</v>
+        <v>44536</v>
       </c>
       <c r="G31" s="64">
         <v>5</v>
@@ -24297,7 +24312,7 @@
       </c>
       <c r="BM31" s="19"/>
     </row>
-    <row r="32" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="65" t="s">
         <v>12</v>
@@ -24309,7 +24324,7 @@
       <c r="E32" s="62"/>
       <c r="F32" s="63">
         <f ca="1">F31+42</f>
-        <v>44562</v>
+        <v>44578</v>
       </c>
       <c r="G32" s="64">
         <v>1</v>
@@ -24541,7 +24556,7 @@
       </c>
       <c r="BM32" s="19"/>
     </row>
-    <row r="33" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="65" t="s">
         <v>13</v>
@@ -24778,7 +24793,7 @@
       </c>
       <c r="BM33" s="19"/>
     </row>
-    <row r="34" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="65" t="s">
         <v>14</v>
@@ -25015,7 +25030,7 @@
       </c>
       <c r="BM34" s="19"/>
     </row>
-    <row r="35" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="65"/>
       <c r="C35" s="61"/>
@@ -25250,7 +25265,7 @@
       </c>
       <c r="BM35" s="99"/>
     </row>
-    <row r="36" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="120" t="s">
         <v>18</v>
@@ -25319,12 +25334,12 @@
       <c r="BL36" s="97"/>
       <c r="BM36" s="90"/>
     </row>
-    <row r="37" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D37" s="4"/>
       <c r="G37" s="11"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D38" s="5"/>
     </row>
   </sheetData>
@@ -25431,7 +25446,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>57150</xdr:rowOff>
                   </from>
@@ -25439,7 +25454,7 @@
                     <xdr:col>63</xdr:col>
                     <xdr:colOff>228600</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>241300</xdr:rowOff>
+                    <xdr:rowOff>238125</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -25524,6 +25539,25 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="22a266b9fa9a230c5a512669d8b298c3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eddc33fff6b14141ee5c74a0d29ea6a1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -25799,25 +25833,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
   <ds:schemaRefs>
@@ -25827,6 +25842,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75C87518-DD8E-42CD-8DAC-291A323E849B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25845,16 +25872,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentos/TimeLine/Gráfico de Gantt do Agile1.xlsx
+++ b/Documentos/TimeLine/Gráfico de Gantt do Agile1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C5FE02-A84B-44C8-9A7A-9654155FDDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD184C03-4400-42DB-B298-4F484AA53E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="415" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="415" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sobre" sheetId="12" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="51">
   <si>
     <t>SOBRE ESTE GRÁFICO DE GANTT</t>
   </si>
@@ -220,17 +220,20 @@
   <si>
     <t>Luis</t>
   </si>
+  <si>
+    <t>S</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="168" formatCode="d"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="166" formatCode="d"/>
   </numFmts>
   <fonts count="47" x14ac:knownFonts="1">
     <font>
@@ -1200,7 +1203,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
@@ -1212,12 +1215,12 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1293,7 +1296,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1315,7 +1318,7 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1412,7 +1415,7 @@
     <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="9" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="10" borderId="0" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1424,7 +1427,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1503,7 +1506,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1584,64 +1587,64 @@
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="14" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="14" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="48" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="48" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="48" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="48" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="48" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="48" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="49" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="49" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="49" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="49" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="13" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3796,7 +3799,7 @@
       </c>
       <c r="C6" s="83" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones4352[Início])=0,TODAY(),B11(Milestones4352[Início])),TODAY())</f>
-        <v>44482</v>
+        <v>44486</v>
       </c>
       <c r="D6" s="84"/>
       <c r="E6" s="77"/>
@@ -3900,227 +3903,227 @@
       <c r="H7" s="87"/>
       <c r="I7" s="126">
         <f ca="1">IFERROR(Início_do_projeto+Incremento_de_rolagem,TODAY())</f>
-        <v>44482</v>
+        <v>44486</v>
       </c>
       <c r="J7" s="127">
         <f ca="1">I7+1</f>
-        <v>44483</v>
+        <v>44487</v>
       </c>
       <c r="K7" s="127">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44484</v>
+        <v>44488</v>
       </c>
       <c r="L7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44485</v>
+        <v>44489</v>
       </c>
       <c r="M7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44486</v>
+        <v>44490</v>
       </c>
       <c r="N7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44487</v>
+        <v>44491</v>
       </c>
       <c r="O7" s="128">
         <f t="shared" ca="1" si="0"/>
-        <v>44488</v>
+        <v>44492</v>
       </c>
       <c r="P7" s="127">
         <f ca="1">O7+1</f>
-        <v>44489</v>
+        <v>44493</v>
       </c>
       <c r="Q7" s="127">
         <f ca="1">P7+1</f>
-        <v>44490</v>
+        <v>44494</v>
       </c>
       <c r="R7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44491</v>
+        <v>44495</v>
       </c>
       <c r="S7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44492</v>
+        <v>44496</v>
       </c>
       <c r="T7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44493</v>
+        <v>44497</v>
       </c>
       <c r="U7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44494</v>
+        <v>44498</v>
       </c>
       <c r="V7" s="128">
         <f t="shared" ca="1" si="0"/>
-        <v>44495</v>
+        <v>44499</v>
       </c>
       <c r="W7" s="127">
         <f ca="1">V7+1</f>
-        <v>44496</v>
+        <v>44500</v>
       </c>
       <c r="X7" s="127">
         <f ca="1">W7+1</f>
-        <v>44497</v>
+        <v>44501</v>
       </c>
       <c r="Y7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44498</v>
+        <v>44502</v>
       </c>
       <c r="Z7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44499</v>
+        <v>44503</v>
       </c>
       <c r="AA7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44500</v>
+        <v>44504</v>
       </c>
       <c r="AB7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44501</v>
+        <v>44505</v>
       </c>
       <c r="AC7" s="128">
         <f t="shared" ca="1" si="0"/>
-        <v>44502</v>
+        <v>44506</v>
       </c>
       <c r="AD7" s="127">
         <f ca="1">AC7+1</f>
-        <v>44503</v>
+        <v>44507</v>
       </c>
       <c r="AE7" s="127">
         <f ca="1">AD7+1</f>
-        <v>44504</v>
+        <v>44508</v>
       </c>
       <c r="AF7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44505</v>
+        <v>44509</v>
       </c>
       <c r="AG7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44506</v>
+        <v>44510</v>
       </c>
       <c r="AH7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="AI7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44508</v>
+        <v>44512</v>
       </c>
       <c r="AJ7" s="128">
         <f t="shared" ca="1" si="0"/>
-        <v>44509</v>
+        <v>44513</v>
       </c>
       <c r="AK7" s="127">
         <f ca="1">AJ7+1</f>
-        <v>44510</v>
+        <v>44514</v>
       </c>
       <c r="AL7" s="127">
         <f ca="1">AK7+1</f>
-        <v>44511</v>
+        <v>44515</v>
       </c>
       <c r="AM7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44512</v>
+        <v>44516</v>
       </c>
       <c r="AN7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44513</v>
+        <v>44517</v>
       </c>
       <c r="AO7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44514</v>
+        <v>44518</v>
       </c>
       <c r="AP7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44515</v>
+        <v>44519</v>
       </c>
       <c r="AQ7" s="128">
         <f t="shared" ca="1" si="0"/>
-        <v>44516</v>
+        <v>44520</v>
       </c>
       <c r="AR7" s="127">
         <f ca="1">AQ7+1</f>
-        <v>44517</v>
+        <v>44521</v>
       </c>
       <c r="AS7" s="127">
         <f ca="1">AR7+1</f>
-        <v>44518</v>
+        <v>44522</v>
       </c>
       <c r="AT7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44519</v>
+        <v>44523</v>
       </c>
       <c r="AU7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44520</v>
+        <v>44524</v>
       </c>
       <c r="AV7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44521</v>
+        <v>44525</v>
       </c>
       <c r="AW7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44522</v>
+        <v>44526</v>
       </c>
       <c r="AX7" s="128">
         <f t="shared" ca="1" si="0"/>
-        <v>44523</v>
+        <v>44527</v>
       </c>
       <c r="AY7" s="127">
         <f ca="1">AX7+1</f>
-        <v>44524</v>
+        <v>44528</v>
       </c>
       <c r="AZ7" s="127">
         <f ca="1">AY7+1</f>
-        <v>44525</v>
+        <v>44529</v>
       </c>
       <c r="BA7" s="127">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>44526</v>
+        <v>44530</v>
       </c>
       <c r="BB7" s="127">
         <f t="shared" ca="1" si="1"/>
-        <v>44527</v>
+        <v>44531</v>
       </c>
       <c r="BC7" s="127">
         <f t="shared" ca="1" si="1"/>
-        <v>44528</v>
+        <v>44532</v>
       </c>
       <c r="BD7" s="127">
         <f t="shared" ca="1" si="1"/>
-        <v>44529</v>
+        <v>44533</v>
       </c>
       <c r="BE7" s="128">
         <f t="shared" ca="1" si="1"/>
-        <v>44530</v>
+        <v>44534</v>
       </c>
       <c r="BF7" s="127">
         <f ca="1">BE7+1</f>
-        <v>44531</v>
+        <v>44535</v>
       </c>
       <c r="BG7" s="127">
         <f ca="1">BF7+1</f>
-        <v>44532</v>
+        <v>44536</v>
       </c>
       <c r="BH7" s="127">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>44533</v>
+        <v>44537</v>
       </c>
       <c r="BI7" s="127">
         <f t="shared" ca="1" si="2"/>
-        <v>44534</v>
+        <v>44538</v>
       </c>
       <c r="BJ7" s="127">
         <f t="shared" ca="1" si="2"/>
-        <v>44535</v>
+        <v>44539</v>
       </c>
       <c r="BK7" s="127">
         <f t="shared" ca="1" si="2"/>
-        <v>44536</v>
+        <v>44540</v>
       </c>
       <c r="BL7" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>44537</v>
+        <v>44541</v>
       </c>
       <c r="BM7" s="92"/>
     </row>
@@ -4214,23 +4217,23 @@
       <c r="H9" s="98"/>
       <c r="I9" s="108" t="str">
         <f t="shared" ref="I9:BL9" ca="1" si="3">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>q</v>
+        <v>d</v>
       </c>
       <c r="J9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="K9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="L9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="M9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>q</v>
       </c>
       <c r="N9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4238,27 +4241,27 @@
       </c>
       <c r="O9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="P9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>d</v>
       </c>
       <c r="Q9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="R9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="S9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="T9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>q</v>
       </c>
       <c r="U9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4266,27 +4269,27 @@
       </c>
       <c r="V9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="W9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>d</v>
       </c>
       <c r="X9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="Y9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="Z9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AA9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>q</v>
       </c>
       <c r="AB9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4294,27 +4297,27 @@
       </c>
       <c r="AC9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="AD9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>d</v>
       </c>
       <c r="AE9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AF9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="AG9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AH9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>q</v>
       </c>
       <c r="AI9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4322,27 +4325,27 @@
       </c>
       <c r="AJ9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="AK9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>d</v>
       </c>
       <c r="AL9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AM9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="AN9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AO9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>q</v>
       </c>
       <c r="AP9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4350,27 +4353,27 @@
       </c>
       <c r="AQ9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="AR9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>d</v>
       </c>
       <c r="AS9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AT9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="AU9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AV9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>q</v>
       </c>
       <c r="AW9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4378,27 +4381,27 @@
       </c>
       <c r="AX9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="AY9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>d</v>
       </c>
       <c r="AZ9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BA9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="BB9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="BC9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>q</v>
       </c>
       <c r="BD9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4406,27 +4409,27 @@
       </c>
       <c r="BE9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="BF9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>d</v>
       </c>
       <c r="BG9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BH9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="BI9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="BJ9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>q</v>
       </c>
       <c r="BK9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4434,7 +4437,7 @@
       </c>
       <c r="BL9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="BM9" s="92"/>
     </row>
@@ -4758,7 +4761,7 @@
       </c>
       <c r="F12" s="63">
         <f ca="1">TODAY()</f>
-        <v>44482</v>
+        <v>44486</v>
       </c>
       <c r="G12" s="64">
         <v>3</v>
@@ -5002,7 +5005,7 @@
       <c r="E13" s="62"/>
       <c r="F13" s="63">
         <f ca="1">TODAY()+5</f>
-        <v>44487</v>
+        <v>44491</v>
       </c>
       <c r="G13" s="64">
         <v>1</v>
@@ -5248,7 +5251,7 @@
       </c>
       <c r="F14" s="63">
         <f ca="1">F12-3</f>
-        <v>44479</v>
+        <v>44483</v>
       </c>
       <c r="G14" s="64">
         <v>10</v>
@@ -5492,7 +5495,7 @@
       <c r="E15" s="62"/>
       <c r="F15" s="63">
         <f ca="1">F12+20</f>
-        <v>44502</v>
+        <v>44506</v>
       </c>
       <c r="G15" s="64">
         <v>1</v>
@@ -5738,7 +5741,7 @@
       </c>
       <c r="F16" s="63">
         <f ca="1">F12+6</f>
-        <v>44488</v>
+        <v>44492</v>
       </c>
       <c r="G16" s="64">
         <v>6</v>
@@ -6221,7 +6224,7 @@
       </c>
       <c r="F18" s="63">
         <f ca="1">F12+6</f>
-        <v>44488</v>
+        <v>44492</v>
       </c>
       <c r="G18" s="64">
         <v>13</v>
@@ -6467,7 +6470,7 @@
       </c>
       <c r="F19" s="63">
         <f ca="1">F18+2</f>
-        <v>44490</v>
+        <v>44494</v>
       </c>
       <c r="G19" s="64">
         <v>9</v>
@@ -6713,7 +6716,7 @@
       </c>
       <c r="F20" s="63">
         <f ca="1">F19+5</f>
-        <v>44495</v>
+        <v>44499</v>
       </c>
       <c r="G20" s="64">
         <v>11</v>
@@ -6957,7 +6960,7 @@
       <c r="E21" s="62"/>
       <c r="F21" s="63">
         <f ca="1">F20+2</f>
-        <v>44497</v>
+        <v>44501</v>
       </c>
       <c r="G21" s="64">
         <v>1</v>
@@ -7199,7 +7202,7 @@
       <c r="E22" s="62"/>
       <c r="F22" s="63">
         <f ca="1">F21+1</f>
-        <v>44498</v>
+        <v>44502</v>
       </c>
       <c r="G22" s="64">
         <v>24</v>
@@ -7680,7 +7683,7 @@
       <c r="E24" s="62"/>
       <c r="F24" s="63">
         <f ca="1">F12+15</f>
-        <v>44497</v>
+        <v>44501</v>
       </c>
       <c r="G24" s="64">
         <v>4</v>
@@ -7924,7 +7927,7 @@
       <c r="E25" s="62"/>
       <c r="F25" s="63">
         <f ca="1">F24+3</f>
-        <v>44500</v>
+        <v>44504</v>
       </c>
       <c r="G25" s="64">
         <v>14</v>
@@ -8168,7 +8171,7 @@
       <c r="E26" s="62"/>
       <c r="F26" s="63">
         <f ca="1">F25+15</f>
-        <v>44515</v>
+        <v>44519</v>
       </c>
       <c r="G26" s="64">
         <v>6</v>
@@ -8412,7 +8415,7 @@
       <c r="E27" s="62"/>
       <c r="F27" s="63">
         <f ca="1">F21+22</f>
-        <v>44519</v>
+        <v>44523</v>
       </c>
       <c r="G27" s="64">
         <v>3</v>
@@ -8656,7 +8659,7 @@
       <c r="E28" s="62"/>
       <c r="F28" s="63">
         <f ca="1">F16</f>
-        <v>44488</v>
+        <v>44492</v>
       </c>
       <c r="G28" s="64">
         <v>19</v>
@@ -9135,7 +9138,7 @@
       <c r="E30" s="62"/>
       <c r="F30" s="63">
         <f ca="1">F27+3</f>
-        <v>44522</v>
+        <v>44526</v>
       </c>
       <c r="G30" s="64">
         <v>15</v>
@@ -9377,7 +9380,7 @@
       <c r="E31" s="62"/>
       <c r="F31" s="63">
         <f ca="1">F30+14</f>
-        <v>44536</v>
+        <v>44540</v>
       </c>
       <c r="G31" s="64">
         <v>5</v>
@@ -9621,7 +9624,7 @@
       <c r="E32" s="62"/>
       <c r="F32" s="63">
         <f ca="1">F31+42</f>
-        <v>44578</v>
+        <v>44582</v>
       </c>
       <c r="G32" s="64">
         <v>1</v>
@@ -10833,8 +10836,8 @@
   </sheetPr>
   <dimension ref="A1:BP38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A9" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A2" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11142,7 +11145,7 @@
       </c>
       <c r="C6" s="36" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones435[Início])=0,TODAY(),B11(Milestones435[Início])),TODAY())</f>
-        <v>44482</v>
+        <v>44486</v>
       </c>
       <c r="D6" s="54"/>
       <c r="E6" s="32"/>
@@ -11242,227 +11245,227 @@
       <c r="H7" s="35"/>
       <c r="I7" s="141">
         <f ca="1">IFERROR(Início_do_projeto+Incremento_de_rolagem,TODAY())</f>
-        <v>44482</v>
+        <v>44486</v>
       </c>
       <c r="J7" s="142">
         <f ca="1">I7+1</f>
-        <v>44483</v>
+        <v>44487</v>
       </c>
       <c r="K7" s="142">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44484</v>
+        <v>44488</v>
       </c>
       <c r="L7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44485</v>
+        <v>44489</v>
       </c>
       <c r="M7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44486</v>
+        <v>44490</v>
       </c>
       <c r="N7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44487</v>
+        <v>44491</v>
       </c>
       <c r="O7" s="143">
         <f t="shared" ca="1" si="0"/>
-        <v>44488</v>
+        <v>44492</v>
       </c>
       <c r="P7" s="144">
         <f ca="1">O7+1</f>
-        <v>44489</v>
+        <v>44493</v>
       </c>
       <c r="Q7" s="144">
         <f ca="1">P7+1</f>
-        <v>44490</v>
+        <v>44494</v>
       </c>
       <c r="R7" s="144">
         <f t="shared" ca="1" si="0"/>
-        <v>44491</v>
+        <v>44495</v>
       </c>
       <c r="S7" s="144">
         <f t="shared" ca="1" si="0"/>
-        <v>44492</v>
+        <v>44496</v>
       </c>
       <c r="T7" s="144">
         <f t="shared" ca="1" si="0"/>
-        <v>44493</v>
+        <v>44497</v>
       </c>
       <c r="U7" s="144">
         <f t="shared" ca="1" si="0"/>
-        <v>44494</v>
+        <v>44498</v>
       </c>
       <c r="V7" s="145">
         <f t="shared" ca="1" si="0"/>
-        <v>44495</v>
+        <v>44499</v>
       </c>
       <c r="W7" s="134">
         <f ca="1">V7+1</f>
-        <v>44496</v>
+        <v>44500</v>
       </c>
       <c r="X7" s="134">
         <f ca="1">W7+1</f>
-        <v>44497</v>
+        <v>44501</v>
       </c>
       <c r="Y7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44498</v>
+        <v>44502</v>
       </c>
       <c r="Z7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44499</v>
+        <v>44503</v>
       </c>
       <c r="AA7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44500</v>
+        <v>44504</v>
       </c>
       <c r="AB7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44501</v>
+        <v>44505</v>
       </c>
       <c r="AC7" s="135">
         <f t="shared" ca="1" si="0"/>
-        <v>44502</v>
+        <v>44506</v>
       </c>
       <c r="AD7" s="134">
         <f ca="1">AC7+1</f>
-        <v>44503</v>
+        <v>44507</v>
       </c>
       <c r="AE7" s="134">
         <f ca="1">AD7+1</f>
-        <v>44504</v>
+        <v>44508</v>
       </c>
       <c r="AF7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44505</v>
+        <v>44509</v>
       </c>
       <c r="AG7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44506</v>
+        <v>44510</v>
       </c>
       <c r="AH7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="AI7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44508</v>
+        <v>44512</v>
       </c>
       <c r="AJ7" s="135">
         <f t="shared" ca="1" si="0"/>
-        <v>44509</v>
+        <v>44513</v>
       </c>
       <c r="AK7" s="134">
         <f ca="1">AJ7+1</f>
-        <v>44510</v>
+        <v>44514</v>
       </c>
       <c r="AL7" s="134">
         <f ca="1">AK7+1</f>
-        <v>44511</v>
+        <v>44515</v>
       </c>
       <c r="AM7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44512</v>
+        <v>44516</v>
       </c>
       <c r="AN7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44513</v>
+        <v>44517</v>
       </c>
       <c r="AO7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44514</v>
+        <v>44518</v>
       </c>
       <c r="AP7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44515</v>
+        <v>44519</v>
       </c>
       <c r="AQ7" s="135">
         <f t="shared" ca="1" si="0"/>
-        <v>44516</v>
+        <v>44520</v>
       </c>
       <c r="AR7" s="134">
         <f ca="1">AQ7+1</f>
-        <v>44517</v>
+        <v>44521</v>
       </c>
       <c r="AS7" s="134">
         <f ca="1">AR7+1</f>
-        <v>44518</v>
+        <v>44522</v>
       </c>
       <c r="AT7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44519</v>
+        <v>44523</v>
       </c>
       <c r="AU7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44520</v>
+        <v>44524</v>
       </c>
       <c r="AV7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44521</v>
+        <v>44525</v>
       </c>
       <c r="AW7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44522</v>
+        <v>44526</v>
       </c>
       <c r="AX7" s="135">
         <f t="shared" ca="1" si="0"/>
-        <v>44523</v>
+        <v>44527</v>
       </c>
       <c r="AY7" s="134">
         <f ca="1">AX7+1</f>
-        <v>44524</v>
+        <v>44528</v>
       </c>
       <c r="AZ7" s="134">
         <f ca="1">AY7+1</f>
-        <v>44525</v>
+        <v>44529</v>
       </c>
       <c r="BA7" s="134">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>44526</v>
+        <v>44530</v>
       </c>
       <c r="BB7" s="134">
         <f t="shared" ca="1" si="1"/>
-        <v>44527</v>
+        <v>44531</v>
       </c>
       <c r="BC7" s="134">
         <f t="shared" ca="1" si="1"/>
-        <v>44528</v>
+        <v>44532</v>
       </c>
       <c r="BD7" s="134">
         <f t="shared" ca="1" si="1"/>
-        <v>44529</v>
+        <v>44533</v>
       </c>
       <c r="BE7" s="135">
         <f t="shared" ca="1" si="1"/>
-        <v>44530</v>
+        <v>44534</v>
       </c>
       <c r="BF7" s="134">
         <f ca="1">BE7+1</f>
-        <v>44531</v>
+        <v>44535</v>
       </c>
       <c r="BG7" s="134">
         <f ca="1">BF7+1</f>
-        <v>44532</v>
+        <v>44536</v>
       </c>
       <c r="BH7" s="134">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>44533</v>
+        <v>44537</v>
       </c>
       <c r="BI7" s="134">
         <f t="shared" ca="1" si="2"/>
-        <v>44534</v>
+        <v>44538</v>
       </c>
       <c r="BJ7" s="134">
         <f t="shared" ca="1" si="2"/>
-        <v>44535</v>
+        <v>44539</v>
       </c>
       <c r="BK7" s="134">
         <f t="shared" ca="1" si="2"/>
-        <v>44536</v>
+        <v>44540</v>
       </c>
       <c r="BL7" s="136">
         <f t="shared" ca="1" si="2"/>
-        <v>44537</v>
+        <v>44541</v>
       </c>
       <c r="BM7" s="32"/>
     </row>
@@ -11556,23 +11559,23 @@
       <c r="H9" s="49"/>
       <c r="I9" s="40" t="str">
         <f t="shared" ref="I9:BL9" ca="1" si="3">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>q</v>
+        <v>d</v>
       </c>
       <c r="J9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="K9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="L9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="M9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>q</v>
       </c>
       <c r="N9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -11580,27 +11583,27 @@
       </c>
       <c r="O9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="P9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>d</v>
       </c>
       <c r="Q9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="R9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="S9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="T9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>q</v>
       </c>
       <c r="U9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -11608,27 +11611,27 @@
       </c>
       <c r="V9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="W9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>d</v>
       </c>
       <c r="X9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="Y9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="Z9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AA9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>q</v>
       </c>
       <c r="AB9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -11636,27 +11639,27 @@
       </c>
       <c r="AC9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="AD9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>d</v>
       </c>
       <c r="AE9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AF9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="AG9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AH9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>q</v>
       </c>
       <c r="AI9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -11664,27 +11667,27 @@
       </c>
       <c r="AJ9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="AK9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>d</v>
       </c>
       <c r="AL9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AM9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="AN9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AO9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>q</v>
       </c>
       <c r="AP9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -11692,27 +11695,27 @@
       </c>
       <c r="AQ9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="AR9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>d</v>
       </c>
       <c r="AS9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AT9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="AU9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AV9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>q</v>
       </c>
       <c r="AW9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -11720,27 +11723,27 @@
       </c>
       <c r="AX9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="AY9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>d</v>
       </c>
       <c r="AZ9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BA9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="BB9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="BC9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>q</v>
       </c>
       <c r="BD9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -11748,27 +11751,27 @@
       </c>
       <c r="BE9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="BF9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>d</v>
       </c>
       <c r="BG9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BH9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="BI9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="BJ9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>q</v>
       </c>
       <c r="BK9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -11776,7 +11779,7 @@
       </c>
       <c r="BL9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="BM9" s="32"/>
     </row>
@@ -12808,7 +12811,7 @@
     <row r="15" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="26" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>40</v>
@@ -13553,21 +13556,21 @@
         <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
-      <c r="L18" s="28">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="M18" s="28">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="N18" s="28">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="O18" s="28">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+      <c r="L18" s="28" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="M18" s="28" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="N18" s="28" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="O18" s="28" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
       </c>
       <c r="P18" s="28" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -13791,21 +13794,21 @@
         <f t="shared" ca="1" si="8"/>
         <v>2</v>
       </c>
-      <c r="J19" s="28">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="K19" s="28">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="L19" s="28">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="M19" s="28">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+      <c r="J19" s="28" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="K19" s="28" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="L19" s="28" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="M19" s="28" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
       </c>
       <c r="N19" s="28" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -14286,9 +14289,9 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="L21" s="28">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+      <c r="L21" s="28" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
       </c>
       <c r="M21" s="28" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -14518,21 +14521,21 @@
         <v>24</v>
       </c>
       <c r="H22" s="20"/>
-      <c r="I22" s="48" t="str">
+      <c r="I22" s="48">
         <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="J22" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="K22" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="L22" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J22" s="28">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K22" s="28">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L22" s="28">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="M22" s="28">
         <f t="shared" ca="1" si="4"/>
@@ -14614,21 +14617,21 @@
         <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
-      <c r="AG22" s="28">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AH22" s="28">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AI22" s="28">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AJ22" s="28">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+      <c r="AG22" s="28" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AH22" s="28" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AI22" s="28" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AJ22" s="28" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
       </c>
       <c r="AK22" s="28" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -15817,33 +15820,33 @@
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
-      <c r="AD27" s="28" t="str">
+      <c r="AD27" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AE27" s="28" t="str">
+        <v>2</v>
+      </c>
+      <c r="AE27" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AF27" s="28" t="str">
+        <v>2</v>
+      </c>
+      <c r="AF27" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AG27" s="28" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
-      <c r="AH27" s="28">
+      <c r="AH27" s="28" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="AI27" s="28">
+        <v/>
+      </c>
+      <c r="AI27" s="28" t="str">
         <f t="shared" ref="AI27:AM35" ca="1" si="15">IF(AND($C27="Objetivo",AI$7&gt;=$F27,AI$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AI$7&gt;=$F27,AI$7&lt;=$F27+$G27-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AJ27" s="28">
+        <v/>
+      </c>
+      <c r="AJ27" s="28" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="AK27" s="28" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -16556,21 +16559,21 @@
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
-      <c r="AG30" s="28" t="str">
+      <c r="AG30" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AH30" s="28" t="str">
+        <v>1</v>
+      </c>
+      <c r="AH30" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AI30" s="28" t="str">
+        <v>1</v>
+      </c>
+      <c r="AI30" s="28">
         <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AJ30" s="28" t="str">
+        <v>1</v>
+      </c>
+      <c r="AJ30" s="28">
         <f t="shared" ca="1" si="15"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AK30" s="28">
         <f t="shared" ca="1" si="15"/>
@@ -16616,21 +16619,21 @@
         <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
-      <c r="AV30" s="28">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AW30" s="28">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AX30" s="28">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AY30" s="28">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+      <c r="AV30" s="28" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AW30" s="28" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AX30" s="28" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AY30" s="28" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
       </c>
       <c r="AZ30" s="28" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -16856,41 +16859,41 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AU31" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AV31" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AW31" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AX31" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
+      <c r="AU31" s="28">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AV31" s="28">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AW31" s="28">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AX31" s="28">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
       </c>
       <c r="AY31" s="28">
         <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
-      <c r="AZ31" s="28">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="BA31" s="28">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="BB31" s="28">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="BC31" s="28">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+      <c r="AZ31" s="28" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BA31" s="28" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BB31" s="28" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BC31" s="28" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
       </c>
       <c r="BD31" s="28" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -18499,7 +18502,7 @@
       </c>
       <c r="C6" s="83" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones43524[Início])=0,TODAY(),B11(Milestones43524[Início])),TODAY())</f>
-        <v>44482</v>
+        <v>44486</v>
       </c>
       <c r="D6" s="84"/>
       <c r="E6" s="77"/>
@@ -18603,227 +18606,227 @@
       <c r="H7" s="87"/>
       <c r="I7" s="126">
         <f ca="1">IFERROR(Início_do_projeto+Incremento_de_rolagem,TODAY())</f>
-        <v>44482</v>
+        <v>44486</v>
       </c>
       <c r="J7" s="127">
         <f ca="1">I7+1</f>
-        <v>44483</v>
+        <v>44487</v>
       </c>
       <c r="K7" s="127">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44484</v>
+        <v>44488</v>
       </c>
       <c r="L7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44485</v>
+        <v>44489</v>
       </c>
       <c r="M7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44486</v>
+        <v>44490</v>
       </c>
       <c r="N7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44487</v>
+        <v>44491</v>
       </c>
       <c r="O7" s="128">
         <f t="shared" ca="1" si="0"/>
-        <v>44488</v>
+        <v>44492</v>
       </c>
       <c r="P7" s="127">
         <f ca="1">O7+1</f>
-        <v>44489</v>
+        <v>44493</v>
       </c>
       <c r="Q7" s="127">
         <f ca="1">P7+1</f>
-        <v>44490</v>
+        <v>44494</v>
       </c>
       <c r="R7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44491</v>
+        <v>44495</v>
       </c>
       <c r="S7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44492</v>
+        <v>44496</v>
       </c>
       <c r="T7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44493</v>
+        <v>44497</v>
       </c>
       <c r="U7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44494</v>
+        <v>44498</v>
       </c>
       <c r="V7" s="128">
         <f t="shared" ca="1" si="0"/>
-        <v>44495</v>
+        <v>44499</v>
       </c>
       <c r="W7" s="127">
         <f ca="1">V7+1</f>
-        <v>44496</v>
+        <v>44500</v>
       </c>
       <c r="X7" s="127">
         <f ca="1">W7+1</f>
-        <v>44497</v>
+        <v>44501</v>
       </c>
       <c r="Y7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44498</v>
+        <v>44502</v>
       </c>
       <c r="Z7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44499</v>
+        <v>44503</v>
       </c>
       <c r="AA7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44500</v>
+        <v>44504</v>
       </c>
       <c r="AB7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44501</v>
+        <v>44505</v>
       </c>
       <c r="AC7" s="128">
         <f t="shared" ca="1" si="0"/>
-        <v>44502</v>
+        <v>44506</v>
       </c>
       <c r="AD7" s="127">
         <f ca="1">AC7+1</f>
-        <v>44503</v>
+        <v>44507</v>
       </c>
       <c r="AE7" s="127">
         <f ca="1">AD7+1</f>
-        <v>44504</v>
+        <v>44508</v>
       </c>
       <c r="AF7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44505</v>
+        <v>44509</v>
       </c>
       <c r="AG7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44506</v>
+        <v>44510</v>
       </c>
       <c r="AH7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44507</v>
+        <v>44511</v>
       </c>
       <c r="AI7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44508</v>
+        <v>44512</v>
       </c>
       <c r="AJ7" s="128">
         <f t="shared" ca="1" si="0"/>
-        <v>44509</v>
+        <v>44513</v>
       </c>
       <c r="AK7" s="127">
         <f ca="1">AJ7+1</f>
-        <v>44510</v>
+        <v>44514</v>
       </c>
       <c r="AL7" s="127">
         <f ca="1">AK7+1</f>
-        <v>44511</v>
+        <v>44515</v>
       </c>
       <c r="AM7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44512</v>
+        <v>44516</v>
       </c>
       <c r="AN7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44513</v>
+        <v>44517</v>
       </c>
       <c r="AO7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44514</v>
+        <v>44518</v>
       </c>
       <c r="AP7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44515</v>
+        <v>44519</v>
       </c>
       <c r="AQ7" s="128">
         <f t="shared" ca="1" si="0"/>
-        <v>44516</v>
+        <v>44520</v>
       </c>
       <c r="AR7" s="127">
         <f ca="1">AQ7+1</f>
-        <v>44517</v>
+        <v>44521</v>
       </c>
       <c r="AS7" s="127">
         <f ca="1">AR7+1</f>
-        <v>44518</v>
+        <v>44522</v>
       </c>
       <c r="AT7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44519</v>
+        <v>44523</v>
       </c>
       <c r="AU7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44520</v>
+        <v>44524</v>
       </c>
       <c r="AV7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44521</v>
+        <v>44525</v>
       </c>
       <c r="AW7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44522</v>
+        <v>44526</v>
       </c>
       <c r="AX7" s="128">
         <f t="shared" ca="1" si="0"/>
-        <v>44523</v>
+        <v>44527</v>
       </c>
       <c r="AY7" s="127">
         <f ca="1">AX7+1</f>
-        <v>44524</v>
+        <v>44528</v>
       </c>
       <c r="AZ7" s="127">
         <f ca="1">AY7+1</f>
-        <v>44525</v>
+        <v>44529</v>
       </c>
       <c r="BA7" s="127">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>44526</v>
+        <v>44530</v>
       </c>
       <c r="BB7" s="127">
         <f t="shared" ca="1" si="1"/>
-        <v>44527</v>
+        <v>44531</v>
       </c>
       <c r="BC7" s="127">
         <f t="shared" ca="1" si="1"/>
-        <v>44528</v>
+        <v>44532</v>
       </c>
       <c r="BD7" s="127">
         <f t="shared" ca="1" si="1"/>
-        <v>44529</v>
+        <v>44533</v>
       </c>
       <c r="BE7" s="128">
         <f t="shared" ca="1" si="1"/>
-        <v>44530</v>
+        <v>44534</v>
       </c>
       <c r="BF7" s="127">
         <f ca="1">BE7+1</f>
-        <v>44531</v>
+        <v>44535</v>
       </c>
       <c r="BG7" s="127">
         <f ca="1">BF7+1</f>
-        <v>44532</v>
+        <v>44536</v>
       </c>
       <c r="BH7" s="127">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>44533</v>
+        <v>44537</v>
       </c>
       <c r="BI7" s="127">
         <f t="shared" ca="1" si="2"/>
-        <v>44534</v>
+        <v>44538</v>
       </c>
       <c r="BJ7" s="127">
         <f t="shared" ca="1" si="2"/>
-        <v>44535</v>
+        <v>44539</v>
       </c>
       <c r="BK7" s="127">
         <f t="shared" ca="1" si="2"/>
-        <v>44536</v>
+        <v>44540</v>
       </c>
       <c r="BL7" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>44537</v>
+        <v>44541</v>
       </c>
       <c r="BM7" s="92"/>
     </row>
@@ -18917,23 +18920,23 @@
       <c r="H9" s="98"/>
       <c r="I9" s="108" t="str">
         <f t="shared" ref="I9:BL9" ca="1" si="3">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>q</v>
+        <v>d</v>
       </c>
       <c r="J9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="K9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="L9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="M9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>q</v>
       </c>
       <c r="N9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -18941,27 +18944,27 @@
       </c>
       <c r="O9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="P9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>d</v>
       </c>
       <c r="Q9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="R9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="S9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="T9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>q</v>
       </c>
       <c r="U9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -18969,27 +18972,27 @@
       </c>
       <c r="V9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="W9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>d</v>
       </c>
       <c r="X9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="Y9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="Z9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AA9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>q</v>
       </c>
       <c r="AB9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -18997,27 +19000,27 @@
       </c>
       <c r="AC9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="AD9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>d</v>
       </c>
       <c r="AE9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AF9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="AG9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AH9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>q</v>
       </c>
       <c r="AI9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19025,27 +19028,27 @@
       </c>
       <c r="AJ9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="AK9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>d</v>
       </c>
       <c r="AL9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AM9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="AN9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AO9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>q</v>
       </c>
       <c r="AP9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19053,27 +19056,27 @@
       </c>
       <c r="AQ9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="AR9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>d</v>
       </c>
       <c r="AS9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AT9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="AU9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AV9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>q</v>
       </c>
       <c r="AW9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19081,27 +19084,27 @@
       </c>
       <c r="AX9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="AY9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>d</v>
       </c>
       <c r="AZ9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BA9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="BB9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="BC9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>q</v>
       </c>
       <c r="BD9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19109,27 +19112,27 @@
       </c>
       <c r="BE9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="BF9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>d</v>
       </c>
       <c r="BG9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BH9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="BI9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="BJ9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>q</v>
       </c>
       <c r="BK9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19137,7 +19140,7 @@
       </c>
       <c r="BL9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>s</v>
       </c>
       <c r="BM9" s="92"/>
     </row>
@@ -19461,7 +19464,7 @@
       </c>
       <c r="F12" s="63">
         <f ca="1">TODAY()</f>
-        <v>44482</v>
+        <v>44486</v>
       </c>
       <c r="G12" s="64">
         <v>3</v>
@@ -19705,7 +19708,7 @@
       <c r="E13" s="62"/>
       <c r="F13" s="63">
         <f ca="1">TODAY()+5</f>
-        <v>44487</v>
+        <v>44491</v>
       </c>
       <c r="G13" s="64">
         <v>1</v>
@@ -19951,7 +19954,7 @@
       </c>
       <c r="F14" s="63">
         <f ca="1">F12-3</f>
-        <v>44479</v>
+        <v>44483</v>
       </c>
       <c r="G14" s="64">
         <v>10</v>
@@ -20195,7 +20198,7 @@
       <c r="E15" s="62"/>
       <c r="F15" s="63">
         <f ca="1">F12+20</f>
-        <v>44502</v>
+        <v>44506</v>
       </c>
       <c r="G15" s="64">
         <v>1</v>
@@ -20441,7 +20444,7 @@
       </c>
       <c r="F16" s="63">
         <f ca="1">F12+6</f>
-        <v>44488</v>
+        <v>44492</v>
       </c>
       <c r="G16" s="64">
         <v>6</v>
@@ -20924,7 +20927,7 @@
       </c>
       <c r="F18" s="63">
         <f ca="1">F12+6</f>
-        <v>44488</v>
+        <v>44492</v>
       </c>
       <c r="G18" s="64">
         <v>13</v>
@@ -21170,7 +21173,7 @@
       </c>
       <c r="F19" s="63">
         <f ca="1">F18+2</f>
-        <v>44490</v>
+        <v>44494</v>
       </c>
       <c r="G19" s="64">
         <v>9</v>
@@ -21416,7 +21419,7 @@
       </c>
       <c r="F20" s="63">
         <f ca="1">F19+5</f>
-        <v>44495</v>
+        <v>44499</v>
       </c>
       <c r="G20" s="64">
         <v>11</v>
@@ -21660,7 +21663,7 @@
       <c r="E21" s="62"/>
       <c r="F21" s="63">
         <f ca="1">F20+2</f>
-        <v>44497</v>
+        <v>44501</v>
       </c>
       <c r="G21" s="64">
         <v>1</v>
@@ -21902,7 +21905,7 @@
       <c r="E22" s="62"/>
       <c r="F22" s="63">
         <f ca="1">F21+1</f>
-        <v>44498</v>
+        <v>44502</v>
       </c>
       <c r="G22" s="64">
         <v>24</v>
@@ -22383,7 +22386,7 @@
       <c r="E24" s="62"/>
       <c r="F24" s="63">
         <f ca="1">F12+15</f>
-        <v>44497</v>
+        <v>44501</v>
       </c>
       <c r="G24" s="64">
         <v>4</v>
@@ -22627,7 +22630,7 @@
       <c r="E25" s="62"/>
       <c r="F25" s="63">
         <f ca="1">F24+3</f>
-        <v>44500</v>
+        <v>44504</v>
       </c>
       <c r="G25" s="64">
         <v>14</v>
@@ -22871,7 +22874,7 @@
       <c r="E26" s="62"/>
       <c r="F26" s="63">
         <f ca="1">F25+15</f>
-        <v>44515</v>
+        <v>44519</v>
       </c>
       <c r="G26" s="64">
         <v>6</v>
@@ -23115,7 +23118,7 @@
       <c r="E27" s="62"/>
       <c r="F27" s="63">
         <f ca="1">F21+22</f>
-        <v>44519</v>
+        <v>44523</v>
       </c>
       <c r="G27" s="64">
         <v>3</v>
@@ -23359,7 +23362,7 @@
       <c r="E28" s="62"/>
       <c r="F28" s="63">
         <f ca="1">F16</f>
-        <v>44488</v>
+        <v>44492</v>
       </c>
       <c r="G28" s="64">
         <v>19</v>
@@ -23838,7 +23841,7 @@
       <c r="E30" s="62"/>
       <c r="F30" s="63">
         <f ca="1">F27+3</f>
-        <v>44522</v>
+        <v>44526</v>
       </c>
       <c r="G30" s="64">
         <v>15</v>
@@ -24080,7 +24083,7 @@
       <c r="E31" s="62"/>
       <c r="F31" s="63">
         <f ca="1">F30+14</f>
-        <v>44536</v>
+        <v>44540</v>
       </c>
       <c r="G31" s="64">
         <v>5</v>
@@ -24324,7 +24327,7 @@
       <c r="E32" s="62"/>
       <c r="F32" s="63">
         <f ca="1">F31+42</f>
-        <v>44578</v>
+        <v>44582</v>
       </c>
       <c r="G32" s="64">
         <v>1</v>
@@ -25539,25 +25542,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="22a266b9fa9a230c5a512669d8b298c3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eddc33fff6b14141ee5c74a0d29ea6a1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -25833,6 +25817,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
   <ds:schemaRefs>
@@ -25842,18 +25845,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75C87518-DD8E-42CD-8DAC-291A323E849B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25872,4 +25863,16 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentos/TimeLine/Gráfico de Gantt do Agile1.xlsx
+++ b/Documentos/TimeLine/Gráfico de Gantt do Agile1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD184C03-4400-42DB-B298-4F484AA53E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9710FD01-0E25-4927-881E-706FAEE66C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="415" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="415" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sobre" sheetId="12" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="51">
   <si>
     <t>SOBRE ESTE GRÁFICO DE GANTT</t>
   </si>
@@ -173,16 +173,7 @@
     <t>2WORK</t>
   </si>
   <si>
-    <t xml:space="preserve">Data de Início do Projeto: </t>
-  </si>
-  <si>
     <t>Legenda das atividades:</t>
-  </si>
-  <si>
-    <t>Principais atividades do projeto</t>
-  </si>
-  <si>
-    <t>Finalizar protótipo Web</t>
   </si>
   <si>
     <t>Não iniciada</t>
@@ -209,19 +200,28 @@
     <t>Todos</t>
   </si>
   <si>
-    <t>Tela cadastro e Login</t>
-  </si>
-  <si>
     <t>Caio</t>
-  </si>
-  <si>
-    <t>Exportação de dados</t>
   </si>
   <si>
     <t>Luis</t>
   </si>
   <si>
-    <t>S</t>
+    <t>Principais atividades da 3º Sprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data de Início da 3º Sprint: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atualização da documentação </t>
+  </si>
+  <si>
+    <t>Desenvolvimento Spring Boot</t>
+  </si>
+  <si>
+    <t>Exportação de dados (PDF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codificação em React das telas restates </t>
   </si>
 </sst>
 </file>
@@ -229,11 +229,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="166" formatCode="d"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="168" formatCode="d"/>
   </numFmts>
   <fonts count="47" x14ac:knownFonts="1">
     <font>
@@ -573,7 +573,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="50">
+  <fills count="51">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -852,6 +852,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1203,7 +1209,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
@@ -1215,12 +1221,12 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1258,7 +1264,7 @@
     <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1296,7 +1302,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1318,7 +1324,7 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1415,7 +1421,7 @@
     <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="9" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="167" fontId="0" fillId="10" borderId="0" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1427,7 +1433,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1506,7 +1512,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1587,64 +1593,64 @@
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="14" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="14" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="48" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="48" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="48" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="48" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="48" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="48" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="49" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="49" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="49" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="49" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="13" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1677,13 +1683,7 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1720,6 +1720,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1775,36 +1784,92 @@
     <cellStyle name="Vírgula" xfId="4" builtinId="3" customBuiltin="1"/>
     <cellStyle name="zTextoOculto" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="92">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
         <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <i val="0"/>
         <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1949,34 +2014,348 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
         <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <i val="0"/>
+        <color theme="0"/>
       </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
         </patternFill>
       </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -2201,121 +2580,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-9.9948118533890809E-2"/>
@@ -2456,6 +2720,181 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.249977111117893"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -2628,21 +3067,21 @@
   </dxfs>
   <tableStyles count="2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de tabela de Gantt" pivot="0" count="4" xr9:uid="{4904D139-63E4-4221-B7C9-C6C5B7A50FAF}">
-      <tableStyleElement type="wholeTable" dxfId="61"/>
-      <tableStyleElement type="headerRow" dxfId="60"/>
-      <tableStyleElement type="firstRowStripe" dxfId="59"/>
-      <tableStyleElement type="secondRowStripe" dxfId="58"/>
+      <tableStyleElement type="wholeTable" dxfId="91"/>
+      <tableStyleElement type="headerRow" dxfId="90"/>
+      <tableStyleElement type="firstRowStripe" dxfId="89"/>
+      <tableStyleElement type="secondRowStripe" dxfId="88"/>
     </tableStyle>
     <tableStyle name="ListaDeAfazeres" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="57"/>
-      <tableStyleElement type="headerRow" dxfId="56"/>
-      <tableStyleElement type="totalRow" dxfId="55"/>
-      <tableStyleElement type="firstColumn" dxfId="54"/>
-      <tableStyleElement type="lastColumn" dxfId="53"/>
-      <tableStyleElement type="firstRowStripe" dxfId="52"/>
-      <tableStyleElement type="secondRowStripe" dxfId="51"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="50"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="49"/>
+      <tableStyleElement type="wholeTable" dxfId="87"/>
+      <tableStyleElement type="headerRow" dxfId="86"/>
+      <tableStyleElement type="totalRow" dxfId="85"/>
+      <tableStyleElement type="firstColumn" dxfId="84"/>
+      <tableStyleElement type="lastColumn" dxfId="83"/>
+      <tableStyleElement type="firstRowStripe" dxfId="82"/>
+      <tableStyleElement type="secondRowStripe" dxfId="81"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="80"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="79"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2971,7 +3410,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD82988E-1813-40AE-BDE7-9F0200A703CB}" name="Milestones4352" displayName="Milestones4352" ref="B9:G36" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD82988E-1813-40AE-BDE7-9F0200A703CB}" name="Milestones4352" displayName="Milestones4352" ref="B9:G36" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
   <autoFilter ref="B9:G36" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2981,12 +3420,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{619BF8F6-D0F1-41AD-871D-FE0240C45A93}" name="Descrição do marco" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{39BD914E-FB02-4352-846C-6D59624DC0B0}" name="Categoria" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{D274194F-BCA0-44F3-84B2-217254EE241C}" name="Atribuído a" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{8385BC6F-56EE-4363-A106-8DB0A1E4EF5A}" name="Progresso" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{02926609-7B93-4B6F-BE96-92EC7A949E4B}" name="Início" dataDxfId="33" dataCellStyle="Data"/>
-    <tableColumn id="6" xr3:uid="{8FF9BE8E-04B7-4B39-AC27-D2E534204BC3}" name="Dias" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{619BF8F6-D0F1-41AD-871D-FE0240C45A93}" name="Descrição do marco" dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{39BD914E-FB02-4352-846C-6D59624DC0B0}" name="Categoria" dataDxfId="75"/>
+    <tableColumn id="3" xr3:uid="{D274194F-BCA0-44F3-84B2-217254EE241C}" name="Atribuído a" dataDxfId="74"/>
+    <tableColumn id="4" xr3:uid="{8385BC6F-56EE-4363-A106-8DB0A1E4EF5A}" name="Progresso" dataDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{02926609-7B93-4B6F-BE96-92EC7A949E4B}" name="Início" dataDxfId="72" dataCellStyle="Data"/>
+    <tableColumn id="6" xr3:uid="{8FF9BE8E-04B7-4B39-AC27-D2E534204BC3}" name="Dias" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="ListaDeAfazeres" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2998,7 +3437,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0EDB95CA-98FE-4198-8801-690B9B480FDF}" name="Milestones435" displayName="Milestones435" ref="B9:G36" totalsRowShown="0" headerRowDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0EDB95CA-98FE-4198-8801-690B9B480FDF}" name="Milestones435" displayName="Milestones435" ref="B9:G36" totalsRowShown="0" headerRowDxfId="70">
   <autoFilter ref="B9:G36" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3008,9 +3447,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6E47A83D-ACD7-4EB6-9B84-5195E813945E}" name="Descrição do marco" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{529EEF64-D037-4ACF-8CA4-0C10FE2D1FBB}" name="Categoria" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{711D01BA-2785-403A-9636-CCC7E2ADA584}" name="Atribuído a" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{6E47A83D-ACD7-4EB6-9B84-5195E813945E}" name="Descrição do marco" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{529EEF64-D037-4ACF-8CA4-0C10FE2D1FBB}" name="Categoria" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{711D01BA-2785-403A-9636-CCC7E2ADA584}" name="Atribuído a" dataDxfId="67"/>
     <tableColumn id="4" xr3:uid="{62B00BEF-16BE-4692-B5E2-F287F680F2C1}" name="Progresso"/>
     <tableColumn id="5" xr3:uid="{D6D72902-F68F-4E59-A714-AFFF520C647A}" name="Início" dataCellStyle="Data"/>
     <tableColumn id="6" xr3:uid="{93E698DE-286F-49ED-AA20-D0C843671DE8}" name="Dias"/>
@@ -3025,7 +3464,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{876EA49D-634E-482B-8173-880F7B761E2C}" name="Milestones43524" displayName="Milestones43524" ref="B9:G36" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{876EA49D-634E-482B-8173-880F7B761E2C}" name="Milestones43524" displayName="Milestones43524" ref="B9:G36" totalsRowShown="0" headerRowDxfId="66">
   <autoFilter ref="B9:G36" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3035,9 +3474,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0971B905-713A-4980-8BBC-DF959C2E61F9}" name="Descrição do marco" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{4492A0B8-068F-4002-9E8D-E1F5FED367F0}" name="Categoria" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{DF1A764E-7050-4528-B7F9-B6AB99372146}" name="Atribuído a" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{0971B905-713A-4980-8BBC-DF959C2E61F9}" name="Descrição do marco" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{4492A0B8-068F-4002-9E8D-E1F5FED367F0}" name="Categoria" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{DF1A764E-7050-4528-B7F9-B6AB99372146}" name="Atribuído a" dataDxfId="63"/>
     <tableColumn id="4" xr3:uid="{47C54592-75B0-4C70-BBF8-0F40483670E9}" name="Progresso"/>
     <tableColumn id="5" xr3:uid="{663FB5E0-7616-4EA5-B56A-FF069E2E07D7}" name="Início" dataCellStyle="Data"/>
     <tableColumn id="6" xr3:uid="{3B766962-C06F-4E12-BE91-12AB93439874}" name="Dias"/>
@@ -3799,7 +4238,7 @@
       </c>
       <c r="C6" s="83" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones4352[Início])=0,TODAY(),B11(Milestones4352[Início])),TODAY())</f>
-        <v>44486</v>
+        <v>44488</v>
       </c>
       <c r="D6" s="84"/>
       <c r="E6" s="77"/>
@@ -3828,7 +4267,7 @@
       <c r="V6" s="102"/>
       <c r="W6" s="102" t="str">
         <f ca="1">IF(OR(TEXT(W7,"mmmm")=P6,TEXT(W7,"mmmm")=I6),"",TEXT(W7,"mmmm"))</f>
-        <v/>
+        <v>novembro</v>
       </c>
       <c r="X6" s="102"/>
       <c r="Y6" s="102"/>
@@ -3838,7 +4277,7 @@
       <c r="AC6" s="102"/>
       <c r="AD6" s="102" t="str">
         <f ca="1">IF(OR(TEXT(AD7,"mmmm")=W6,TEXT(AD7,"mmmm")=P6,TEXT(AD7,"mmmm")=I6),"",TEXT(AD7,"mmmm"))</f>
-        <v>novembro</v>
+        <v/>
       </c>
       <c r="AE6" s="102"/>
       <c r="AF6" s="102"/>
@@ -3903,227 +4342,227 @@
       <c r="H7" s="87"/>
       <c r="I7" s="126">
         <f ca="1">IFERROR(Início_do_projeto+Incremento_de_rolagem,TODAY())</f>
-        <v>44486</v>
+        <v>44488</v>
       </c>
       <c r="J7" s="127">
         <f ca="1">I7+1</f>
-        <v>44487</v>
+        <v>44489</v>
       </c>
       <c r="K7" s="127">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44488</v>
+        <v>44490</v>
       </c>
       <c r="L7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44489</v>
+        <v>44491</v>
       </c>
       <c r="M7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44490</v>
+        <v>44492</v>
       </c>
       <c r="N7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44491</v>
+        <v>44493</v>
       </c>
       <c r="O7" s="128">
         <f t="shared" ca="1" si="0"/>
-        <v>44492</v>
+        <v>44494</v>
       </c>
       <c r="P7" s="127">
         <f ca="1">O7+1</f>
-        <v>44493</v>
+        <v>44495</v>
       </c>
       <c r="Q7" s="127">
         <f ca="1">P7+1</f>
-        <v>44494</v>
+        <v>44496</v>
       </c>
       <c r="R7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44495</v>
+        <v>44497</v>
       </c>
       <c r="S7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44496</v>
+        <v>44498</v>
       </c>
       <c r="T7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44497</v>
+        <v>44499</v>
       </c>
       <c r="U7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44498</v>
+        <v>44500</v>
       </c>
       <c r="V7" s="128">
         <f t="shared" ca="1" si="0"/>
-        <v>44499</v>
+        <v>44501</v>
       </c>
       <c r="W7" s="127">
         <f ca="1">V7+1</f>
-        <v>44500</v>
+        <v>44502</v>
       </c>
       <c r="X7" s="127">
         <f ca="1">W7+1</f>
-        <v>44501</v>
+        <v>44503</v>
       </c>
       <c r="Y7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44502</v>
+        <v>44504</v>
       </c>
       <c r="Z7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44503</v>
+        <v>44505</v>
       </c>
       <c r="AA7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
+        <v>44506</v>
       </c>
       <c r="AB7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44505</v>
+        <v>44507</v>
       </c>
       <c r="AC7" s="128">
         <f t="shared" ca="1" si="0"/>
-        <v>44506</v>
+        <v>44508</v>
       </c>
       <c r="AD7" s="127">
         <f ca="1">AC7+1</f>
-        <v>44507</v>
+        <v>44509</v>
       </c>
       <c r="AE7" s="127">
         <f ca="1">AD7+1</f>
-        <v>44508</v>
+        <v>44510</v>
       </c>
       <c r="AF7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44509</v>
+        <v>44511</v>
       </c>
       <c r="AG7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44510</v>
+        <v>44512</v>
       </c>
       <c r="AH7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44511</v>
+        <v>44513</v>
       </c>
       <c r="AI7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44512</v>
+        <v>44514</v>
       </c>
       <c r="AJ7" s="128">
         <f t="shared" ca="1" si="0"/>
-        <v>44513</v>
+        <v>44515</v>
       </c>
       <c r="AK7" s="127">
         <f ca="1">AJ7+1</f>
-        <v>44514</v>
+        <v>44516</v>
       </c>
       <c r="AL7" s="127">
         <f ca="1">AK7+1</f>
-        <v>44515</v>
+        <v>44517</v>
       </c>
       <c r="AM7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44516</v>
+        <v>44518</v>
       </c>
       <c r="AN7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44517</v>
+        <v>44519</v>
       </c>
       <c r="AO7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44518</v>
+        <v>44520</v>
       </c>
       <c r="AP7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44519</v>
+        <v>44521</v>
       </c>
       <c r="AQ7" s="128">
         <f t="shared" ca="1" si="0"/>
-        <v>44520</v>
+        <v>44522</v>
       </c>
       <c r="AR7" s="127">
         <f ca="1">AQ7+1</f>
-        <v>44521</v>
+        <v>44523</v>
       </c>
       <c r="AS7" s="127">
         <f ca="1">AR7+1</f>
-        <v>44522</v>
+        <v>44524</v>
       </c>
       <c r="AT7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44523</v>
+        <v>44525</v>
       </c>
       <c r="AU7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44524</v>
+        <v>44526</v>
       </c>
       <c r="AV7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44525</v>
+        <v>44527</v>
       </c>
       <c r="AW7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44526</v>
+        <v>44528</v>
       </c>
       <c r="AX7" s="128">
         <f t="shared" ca="1" si="0"/>
-        <v>44527</v>
+        <v>44529</v>
       </c>
       <c r="AY7" s="127">
         <f ca="1">AX7+1</f>
-        <v>44528</v>
+        <v>44530</v>
       </c>
       <c r="AZ7" s="127">
         <f ca="1">AY7+1</f>
-        <v>44529</v>
+        <v>44531</v>
       </c>
       <c r="BA7" s="127">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>44530</v>
+        <v>44532</v>
       </c>
       <c r="BB7" s="127">
         <f t="shared" ca="1" si="1"/>
-        <v>44531</v>
+        <v>44533</v>
       </c>
       <c r="BC7" s="127">
         <f t="shared" ca="1" si="1"/>
-        <v>44532</v>
+        <v>44534</v>
       </c>
       <c r="BD7" s="127">
         <f t="shared" ca="1" si="1"/>
-        <v>44533</v>
+        <v>44535</v>
       </c>
       <c r="BE7" s="128">
         <f t="shared" ca="1" si="1"/>
-        <v>44534</v>
+        <v>44536</v>
       </c>
       <c r="BF7" s="127">
         <f ca="1">BE7+1</f>
-        <v>44535</v>
+        <v>44537</v>
       </c>
       <c r="BG7" s="127">
         <f ca="1">BF7+1</f>
-        <v>44536</v>
+        <v>44538</v>
       </c>
       <c r="BH7" s="127">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>44537</v>
+        <v>44539</v>
       </c>
       <c r="BI7" s="127">
         <f t="shared" ca="1" si="2"/>
-        <v>44538</v>
+        <v>44540</v>
       </c>
       <c r="BJ7" s="127">
         <f t="shared" ca="1" si="2"/>
-        <v>44539</v>
+        <v>44541</v>
       </c>
       <c r="BK7" s="127">
         <f t="shared" ca="1" si="2"/>
-        <v>44540</v>
+        <v>44542</v>
       </c>
       <c r="BL7" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>44541</v>
+        <v>44543</v>
       </c>
       <c r="BM7" s="92"/>
     </row>
@@ -4217,27 +4656,27 @@
       <c r="H9" s="98"/>
       <c r="I9" s="108" t="str">
         <f t="shared" ref="I9:BL9" ca="1" si="3">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="J9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="K9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="L9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="M9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="N9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="O9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4245,27 +4684,27 @@
       </c>
       <c r="P9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="Q9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="R9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="S9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="T9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="U9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="V9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4273,27 +4712,27 @@
       </c>
       <c r="W9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="X9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="Y9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="Z9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AA9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AB9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AC9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4301,27 +4740,27 @@
       </c>
       <c r="AD9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="AE9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AF9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="AG9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AH9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AI9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AJ9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4329,27 +4768,27 @@
       </c>
       <c r="AK9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="AL9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AM9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="AN9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AO9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AP9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AQ9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4357,27 +4796,27 @@
       </c>
       <c r="AR9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="AS9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AT9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="AU9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AV9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AW9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AX9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4385,27 +4824,27 @@
       </c>
       <c r="AY9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="AZ9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="BA9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="BB9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BC9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BD9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="BE9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4413,27 +4852,27 @@
       </c>
       <c r="BF9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="BG9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="BH9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="BI9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BJ9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BK9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="BL9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4761,7 +5200,7 @@
       </c>
       <c r="F12" s="63">
         <f ca="1">TODAY()</f>
-        <v>44486</v>
+        <v>44488</v>
       </c>
       <c r="G12" s="64">
         <v>3</v>
@@ -5005,7 +5444,7 @@
       <c r="E13" s="62"/>
       <c r="F13" s="63">
         <f ca="1">TODAY()+5</f>
-        <v>44491</v>
+        <v>44493</v>
       </c>
       <c r="G13" s="64">
         <v>1</v>
@@ -5251,7 +5690,7 @@
       </c>
       <c r="F14" s="63">
         <f ca="1">F12-3</f>
-        <v>44483</v>
+        <v>44485</v>
       </c>
       <c r="G14" s="64">
         <v>10</v>
@@ -5495,7 +5934,7 @@
       <c r="E15" s="62"/>
       <c r="F15" s="63">
         <f ca="1">F12+20</f>
-        <v>44506</v>
+        <v>44508</v>
       </c>
       <c r="G15" s="64">
         <v>1</v>
@@ -5741,7 +6180,7 @@
       </c>
       <c r="F16" s="63">
         <f ca="1">F12+6</f>
-        <v>44492</v>
+        <v>44494</v>
       </c>
       <c r="G16" s="64">
         <v>6</v>
@@ -6224,7 +6663,7 @@
       </c>
       <c r="F18" s="63">
         <f ca="1">F12+6</f>
-        <v>44492</v>
+        <v>44494</v>
       </c>
       <c r="G18" s="64">
         <v>13</v>
@@ -6470,7 +6909,7 @@
       </c>
       <c r="F19" s="63">
         <f ca="1">F18+2</f>
-        <v>44494</v>
+        <v>44496</v>
       </c>
       <c r="G19" s="64">
         <v>9</v>
@@ -6716,7 +7155,7 @@
       </c>
       <c r="F20" s="63">
         <f ca="1">F19+5</f>
-        <v>44499</v>
+        <v>44501</v>
       </c>
       <c r="G20" s="64">
         <v>11</v>
@@ -6960,7 +7399,7 @@
       <c r="E21" s="62"/>
       <c r="F21" s="63">
         <f ca="1">F20+2</f>
-        <v>44501</v>
+        <v>44503</v>
       </c>
       <c r="G21" s="64">
         <v>1</v>
@@ -7202,7 +7641,7 @@
       <c r="E22" s="62"/>
       <c r="F22" s="63">
         <f ca="1">F21+1</f>
-        <v>44502</v>
+        <v>44504</v>
       </c>
       <c r="G22" s="64">
         <v>24</v>
@@ -7683,7 +8122,7 @@
       <c r="E24" s="62"/>
       <c r="F24" s="63">
         <f ca="1">F12+15</f>
-        <v>44501</v>
+        <v>44503</v>
       </c>
       <c r="G24" s="64">
         <v>4</v>
@@ -7927,7 +8366,7 @@
       <c r="E25" s="62"/>
       <c r="F25" s="63">
         <f ca="1">F24+3</f>
-        <v>44504</v>
+        <v>44506</v>
       </c>
       <c r="G25" s="64">
         <v>14</v>
@@ -8171,7 +8610,7 @@
       <c r="E26" s="62"/>
       <c r="F26" s="63">
         <f ca="1">F25+15</f>
-        <v>44519</v>
+        <v>44521</v>
       </c>
       <c r="G26" s="64">
         <v>6</v>
@@ -8415,7 +8854,7 @@
       <c r="E27" s="62"/>
       <c r="F27" s="63">
         <f ca="1">F21+22</f>
-        <v>44523</v>
+        <v>44525</v>
       </c>
       <c r="G27" s="64">
         <v>3</v>
@@ -8659,7 +9098,7 @@
       <c r="E28" s="62"/>
       <c r="F28" s="63">
         <f ca="1">F16</f>
-        <v>44492</v>
+        <v>44494</v>
       </c>
       <c r="G28" s="64">
         <v>19</v>
@@ -9138,7 +9577,7 @@
       <c r="E30" s="62"/>
       <c r="F30" s="63">
         <f ca="1">F27+3</f>
-        <v>44526</v>
+        <v>44528</v>
       </c>
       <c r="G30" s="64">
         <v>15</v>
@@ -9380,7 +9819,7 @@
       <c r="E31" s="62"/>
       <c r="F31" s="63">
         <f ca="1">F30+14</f>
-        <v>44540</v>
+        <v>44542</v>
       </c>
       <c r="G31" s="64">
         <v>5</v>
@@ -9624,7 +10063,7 @@
       <c r="E32" s="62"/>
       <c r="F32" s="63">
         <f ca="1">F31+42</f>
-        <v>44582</v>
+        <v>44584</v>
       </c>
       <c r="G32" s="64">
         <v>1</v>
@@ -10668,39 +11107,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL36">
-    <cfRule type="expression" dxfId="48" priority="1">
+    <cfRule type="expression" dxfId="62" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="47" priority="4">
+    <cfRule type="expression" dxfId="61" priority="4">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="46" priority="3">
+    <cfRule type="expression" dxfId="60" priority="3">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="45" priority="2">
+    <cfRule type="expression" dxfId="59" priority="2">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL35">
-    <cfRule type="expression" dxfId="44" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="7" stopIfTrue="1">
       <formula>AND($C10="Baixo risco",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="8" stopIfTrue="1">
       <formula>AND($C10="Alto risco",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="9" stopIfTrue="1">
       <formula>AND($C10="No prazo",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="10" stopIfTrue="1">
       <formula>AND($C10="Médio risco",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="11" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10836,7 +11275,7 @@
   </sheetPr>
   <dimension ref="A1:BP38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A2" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -10858,27 +11297,27 @@
     <row r="1" spans="1:68" ht="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:68" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="165"/>
-      <c r="S2" s="165"/>
-      <c r="T2" s="165"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="161"/>
+      <c r="N2" s="161"/>
+      <c r="O2" s="162"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="163"/>
+      <c r="R2" s="163"/>
+      <c r="S2" s="163"/>
+      <c r="T2" s="163"/>
       <c r="U2" s="21"/>
       <c r="V2" s="21"/>
       <c r="W2" s="21"/>
@@ -11000,7 +11439,7 @@
       <c r="E4" s="30"/>
       <c r="F4" s="31"/>
       <c r="G4" s="140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="30"/>
       <c r="I4" s="153" t="s">
@@ -11010,30 +11449,30 @@
       <c r="K4" s="153"/>
       <c r="L4" s="153"/>
       <c r="M4" s="32"/>
-      <c r="N4" s="166" t="s">
+      <c r="N4" s="164" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="164"/>
+      <c r="P4" s="164"/>
+      <c r="Q4" s="164"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="165" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="166"/>
-      <c r="P4" s="166"/>
-      <c r="Q4" s="166"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="167" t="s">
-        <v>41</v>
-      </c>
-      <c r="T4" s="167"/>
-      <c r="U4" s="167"/>
-      <c r="V4" s="167"/>
-      <c r="W4" s="167"/>
+      <c r="T4" s="165"/>
+      <c r="U4" s="165"/>
+      <c r="V4" s="165"/>
+      <c r="W4" s="165"/>
       <c r="X4" s="32"/>
-      <c r="Y4" s="161" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z4" s="161"/>
-      <c r="AA4" s="161"/>
-      <c r="AB4" s="161"/>
+      <c r="Y4" s="159" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z4" s="159"/>
+      <c r="AA4" s="159"/>
+      <c r="AB4" s="159"/>
       <c r="AC4" s="32"/>
       <c r="AD4" s="149" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AE4" s="149"/>
       <c r="AF4" s="149"/>
@@ -11141,11 +11580,11 @@
     <row r="6" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="50" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C6" s="36" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones435[Início])=0,TODAY(),B11(Milestones435[Início])),TODAY())</f>
-        <v>44486</v>
+        <v>44488</v>
       </c>
       <c r="D6" s="54"/>
       <c r="E6" s="32"/>
@@ -11174,7 +11613,7 @@
       <c r="V6" s="105"/>
       <c r="W6" s="105" t="str">
         <f ca="1">IF(OR(TEXT(W7,"mmmm")=P6,TEXT(W7,"mmmm")=I6),"",TEXT(W7,"mmmm"))</f>
-        <v/>
+        <v>novembro</v>
       </c>
       <c r="X6" s="105"/>
       <c r="Y6" s="105"/>
@@ -11184,7 +11623,7 @@
       <c r="AC6" s="105"/>
       <c r="AD6" s="105" t="str">
         <f ca="1">IF(OR(TEXT(AD7,"mmmm")=W6,TEXT(AD7,"mmmm")=P6,TEXT(AD7,"mmmm")=I6),"",TEXT(AD7,"mmmm"))</f>
-        <v>novembro</v>
+        <v/>
       </c>
       <c r="AE6" s="105"/>
       <c r="AF6" s="105"/>
@@ -11245,227 +11684,227 @@
       <c r="H7" s="35"/>
       <c r="I7" s="141">
         <f ca="1">IFERROR(Início_do_projeto+Incremento_de_rolagem,TODAY())</f>
-        <v>44486</v>
+        <v>44488</v>
       </c>
       <c r="J7" s="142">
         <f ca="1">I7+1</f>
-        <v>44487</v>
+        <v>44489</v>
       </c>
       <c r="K7" s="142">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44488</v>
+        <v>44490</v>
       </c>
       <c r="L7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44489</v>
+        <v>44491</v>
       </c>
       <c r="M7" s="142">
-        <f t="shared" ca="1" si="0"/>
-        <v>44490</v>
+        <f ca="1">L7+1</f>
+        <v>44492</v>
       </c>
       <c r="N7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44491</v>
+        <v>44493</v>
       </c>
       <c r="O7" s="143">
         <f t="shared" ca="1" si="0"/>
-        <v>44492</v>
+        <v>44494</v>
       </c>
       <c r="P7" s="144">
         <f ca="1">O7+1</f>
-        <v>44493</v>
+        <v>44495</v>
       </c>
       <c r="Q7" s="144">
         <f ca="1">P7+1</f>
-        <v>44494</v>
+        <v>44496</v>
       </c>
       <c r="R7" s="144">
         <f t="shared" ca="1" si="0"/>
-        <v>44495</v>
+        <v>44497</v>
       </c>
       <c r="S7" s="144">
         <f t="shared" ca="1" si="0"/>
-        <v>44496</v>
+        <v>44498</v>
       </c>
       <c r="T7" s="144">
         <f t="shared" ca="1" si="0"/>
-        <v>44497</v>
+        <v>44499</v>
       </c>
       <c r="U7" s="144">
         <f t="shared" ca="1" si="0"/>
-        <v>44498</v>
+        <v>44500</v>
       </c>
       <c r="V7" s="145">
         <f t="shared" ca="1" si="0"/>
-        <v>44499</v>
+        <v>44501</v>
       </c>
       <c r="W7" s="134">
         <f ca="1">V7+1</f>
-        <v>44500</v>
+        <v>44502</v>
       </c>
       <c r="X7" s="134">
         <f ca="1">W7+1</f>
-        <v>44501</v>
+        <v>44503</v>
       </c>
       <c r="Y7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44502</v>
+        <v>44504</v>
       </c>
       <c r="Z7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44503</v>
+        <v>44505</v>
       </c>
       <c r="AA7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
+        <v>44506</v>
       </c>
       <c r="AB7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44505</v>
+        <v>44507</v>
       </c>
       <c r="AC7" s="135">
         <f t="shared" ca="1" si="0"/>
-        <v>44506</v>
+        <v>44508</v>
       </c>
       <c r="AD7" s="134">
         <f ca="1">AC7+1</f>
-        <v>44507</v>
+        <v>44509</v>
       </c>
       <c r="AE7" s="134">
         <f ca="1">AD7+1</f>
-        <v>44508</v>
+        <v>44510</v>
       </c>
       <c r="AF7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44509</v>
+        <v>44511</v>
       </c>
       <c r="AG7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44510</v>
+        <v>44512</v>
       </c>
       <c r="AH7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44511</v>
+        <v>44513</v>
       </c>
       <c r="AI7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44512</v>
+        <v>44514</v>
       </c>
       <c r="AJ7" s="135">
         <f t="shared" ca="1" si="0"/>
-        <v>44513</v>
+        <v>44515</v>
       </c>
       <c r="AK7" s="134">
         <f ca="1">AJ7+1</f>
-        <v>44514</v>
+        <v>44516</v>
       </c>
       <c r="AL7" s="134">
         <f ca="1">AK7+1</f>
-        <v>44515</v>
+        <v>44517</v>
       </c>
       <c r="AM7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44516</v>
+        <v>44518</v>
       </c>
       <c r="AN7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44517</v>
+        <v>44519</v>
       </c>
       <c r="AO7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44518</v>
+        <v>44520</v>
       </c>
       <c r="AP7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44519</v>
+        <v>44521</v>
       </c>
       <c r="AQ7" s="135">
         <f t="shared" ca="1" si="0"/>
-        <v>44520</v>
+        <v>44522</v>
       </c>
       <c r="AR7" s="134">
         <f ca="1">AQ7+1</f>
-        <v>44521</v>
+        <v>44523</v>
       </c>
       <c r="AS7" s="134">
         <f ca="1">AR7+1</f>
-        <v>44522</v>
+        <v>44524</v>
       </c>
       <c r="AT7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44523</v>
+        <v>44525</v>
       </c>
       <c r="AU7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44524</v>
+        <v>44526</v>
       </c>
       <c r="AV7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44525</v>
+        <v>44527</v>
       </c>
       <c r="AW7" s="134">
         <f t="shared" ca="1" si="0"/>
-        <v>44526</v>
+        <v>44528</v>
       </c>
       <c r="AX7" s="135">
         <f t="shared" ca="1" si="0"/>
-        <v>44527</v>
+        <v>44529</v>
       </c>
       <c r="AY7" s="134">
         <f ca="1">AX7+1</f>
-        <v>44528</v>
+        <v>44530</v>
       </c>
       <c r="AZ7" s="134">
         <f ca="1">AY7+1</f>
-        <v>44529</v>
+        <v>44531</v>
       </c>
       <c r="BA7" s="134">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>44530</v>
+        <v>44532</v>
       </c>
       <c r="BB7" s="134">
         <f t="shared" ca="1" si="1"/>
-        <v>44531</v>
+        <v>44533</v>
       </c>
       <c r="BC7" s="134">
         <f t="shared" ca="1" si="1"/>
-        <v>44532</v>
+        <v>44534</v>
       </c>
       <c r="BD7" s="134">
         <f t="shared" ca="1" si="1"/>
-        <v>44533</v>
+        <v>44535</v>
       </c>
       <c r="BE7" s="135">
         <f t="shared" ca="1" si="1"/>
-        <v>44534</v>
+        <v>44536</v>
       </c>
       <c r="BF7" s="134">
         <f ca="1">BE7+1</f>
-        <v>44535</v>
+        <v>44537</v>
       </c>
       <c r="BG7" s="134">
         <f ca="1">BF7+1</f>
-        <v>44536</v>
+        <v>44538</v>
       </c>
       <c r="BH7" s="134">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>44537</v>
+        <v>44539</v>
       </c>
       <c r="BI7" s="134">
         <f t="shared" ca="1" si="2"/>
-        <v>44538</v>
+        <v>44540</v>
       </c>
       <c r="BJ7" s="134">
         <f t="shared" ca="1" si="2"/>
-        <v>44539</v>
+        <v>44541</v>
       </c>
       <c r="BK7" s="134">
         <f t="shared" ca="1" si="2"/>
-        <v>44540</v>
+        <v>44542</v>
       </c>
       <c r="BL7" s="136">
         <f t="shared" ca="1" si="2"/>
-        <v>44541</v>
+        <v>44543</v>
       </c>
       <c r="BM7" s="32"/>
     </row>
@@ -11559,27 +11998,27 @@
       <c r="H9" s="49"/>
       <c r="I9" s="40" t="str">
         <f t="shared" ref="I9:BL9" ca="1" si="3">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="J9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="K9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="L9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="M9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="N9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="O9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -11587,27 +12026,27 @@
       </c>
       <c r="P9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="Q9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="R9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="S9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="T9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="U9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="V9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -11615,27 +12054,27 @@
       </c>
       <c r="W9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="X9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="Y9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="Z9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AA9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AB9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AC9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -11643,27 +12082,27 @@
       </c>
       <c r="AD9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="AE9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AF9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="AG9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AH9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AI9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AJ9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -11671,27 +12110,27 @@
       </c>
       <c r="AK9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="AL9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AM9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="AN9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AO9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AP9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AQ9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -11699,27 +12138,27 @@
       </c>
       <c r="AR9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="AS9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AT9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="AU9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AV9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AW9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AX9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -11727,27 +12166,27 @@
       </c>
       <c r="AY9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="AZ9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="BA9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="BB9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BC9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BD9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="BE9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -11755,27 +12194,27 @@
       </c>
       <c r="BF9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="BG9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="BH9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="BI9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BJ9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BK9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="BL9" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -11783,7 +12222,7 @@
       </c>
       <c r="BM9" s="32"/>
     </row>
-    <row r="10" spans="1:68" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:68" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="18"/>
       <c r="C10" s="14"/>
       <c r="D10" s="13"/>
@@ -11852,7 +12291,7 @@
     <row r="11" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="123" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -12090,255 +12529,234 @@
     <row r="12" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>20</v>
-      </c>
       <c r="D12" s="22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E12" s="23">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="F12" s="24">
-        <v>44470</v>
+        <v>44494</v>
       </c>
       <c r="G12" s="25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H12" s="20"/>
-      <c r="I12" s="159"/>
-      <c r="J12" s="159"/>
-      <c r="K12" s="159"/>
-      <c r="L12" s="160"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
       <c r="M12" s="28"/>
       <c r="N12" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="O12" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="P12" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="Q12" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="R12" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
+        <f ca="1">IF(AND($C12="Objetivo",N$7&gt;=$F12,N$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",N$7&gt;=$F12,N$7&lt;=$F12+$G12-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="O12" s="169" t="str">
+        <f ca="1">IF(AND($C12="Objetivo",O$7&gt;=$F12,O$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",O$7&gt;=$F12,O$7&lt;=$F12+$G12-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="P12" s="170"/>
+      <c r="Q12" s="170"/>
+      <c r="R12" s="171"/>
       <c r="S12" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C12="Objetivo",S$7&gt;=$F12,S$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",S$7&gt;=$F12,S$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="T12" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C12="Objetivo",T$7&gt;=$F12,T$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",T$7&gt;=$F12,T$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="U12" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C12="Objetivo",U$7&gt;=$F12,U$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",U$7&gt;=$F12,U$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="V12" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C12="Objetivo",V$7&gt;=$F12,V$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",V$7&gt;=$F12,V$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="W12" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C12="Objetivo",W$7&gt;=$F12,W$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",W$7&gt;=$F12,W$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="X12" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C12="Objetivo",X$7&gt;=$F12,X$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",X$7&gt;=$F12,X$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="Y12" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C12="Objetivo",Y$7&gt;=$F12,Y$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",Y$7&gt;=$F12,Y$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="Z12" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C12="Objetivo",Z$7&gt;=$F12,Z$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",Z$7&gt;=$F12,Z$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="AA12" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C12="Objetivo",AA$7&gt;=$F12,AA$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",AA$7&gt;=$F12,AA$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="AB12" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C12="Objetivo",AB$7&gt;=$F12,AB$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",AB$7&gt;=$F12,AB$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="AC12" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C12="Objetivo",AC$7&gt;=$F12,AC$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",AC$7&gt;=$F12,AC$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="AD12" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C12="Objetivo",AD$7&gt;=$F12,AD$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",AD$7&gt;=$F12,AD$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="AE12" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C12="Objetivo",AE$7&gt;=$F12,AE$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",AE$7&gt;=$F12,AE$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="AF12" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C12="Objetivo",AF$7&gt;=$F12,AF$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",AF$7&gt;=$F12,AF$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="AG12" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C12="Objetivo",AG$7&gt;=$F12,AG$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",AG$7&gt;=$F12,AG$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="AH12" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C12="Objetivo",AH$7&gt;=$F12,AH$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",AH$7&gt;=$F12,AH$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="AI12" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C12="Objetivo",AI$7&gt;=$F12,AI$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",AI$7&gt;=$F12,AI$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ12" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C12="Objetivo",AJ$7&gt;=$F12,AJ$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",AJ$7&gt;=$F12,AJ$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="AK12" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C12="Objetivo",AK$7&gt;=$F12,AK$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",AK$7&gt;=$F12,AK$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="AL12" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C12="Objetivo",AL$7&gt;=$F12,AL$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",AL$7&gt;=$F12,AL$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="AM12" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C12="Objetivo",AM$7&gt;=$F12,AM$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",AM$7&gt;=$F12,AM$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="AN12" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C12="Objetivo",AN$7&gt;=$F12,AN$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",AN$7&gt;=$F12,AN$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="AO12" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C12="Objetivo",AO$7&gt;=$F12,AO$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",AO$7&gt;=$F12,AO$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="AP12" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C12="Objetivo",AP$7&gt;=$F12,AP$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",AP$7&gt;=$F12,AP$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ12" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C12="Objetivo",AQ$7&gt;=$F12,AQ$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",AQ$7&gt;=$F12,AQ$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="AR12" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C12="Objetivo",AR$7&gt;=$F12,AR$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",AR$7&gt;=$F12,AR$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="AS12" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C12="Objetivo",AS$7&gt;=$F12,AS$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",AS$7&gt;=$F12,AS$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="AT12" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C12="Objetivo",AT$7&gt;=$F12,AT$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",AT$7&gt;=$F12,AT$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="AU12" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C12="Objetivo",AU$7&gt;=$F12,AU$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",AU$7&gt;=$F12,AU$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="AV12" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C12="Objetivo",AV$7&gt;=$F12,AV$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",AV$7&gt;=$F12,AV$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="AW12" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C12="Objetivo",AW$7&gt;=$F12,AW$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",AW$7&gt;=$F12,AW$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="AX12" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C12="Objetivo",AX$7&gt;=$F12,AX$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",AX$7&gt;=$F12,AX$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="AY12" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C12="Objetivo",AY$7&gt;=$F12,AY$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",AY$7&gt;=$F12,AY$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ12" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C12="Objetivo",AZ$7&gt;=$F12,AZ$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",AZ$7&gt;=$F12,AZ$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="BA12" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C12="Objetivo",BA$7&gt;=$F12,BA$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",BA$7&gt;=$F12,BA$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="BB12" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C12="Objetivo",BB$7&gt;=$F12,BB$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",BB$7&gt;=$F12,BB$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="BC12" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C12="Objetivo",BC$7&gt;=$F12,BC$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",BC$7&gt;=$F12,BC$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="BD12" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C12="Objetivo",BD$7&gt;=$F12,BD$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",BD$7&gt;=$F12,BD$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="BE12" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C12="Objetivo",BE$7&gt;=$F12,BE$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",BE$7&gt;=$F12,BE$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="BF12" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C12="Objetivo",BF$7&gt;=$F12,BF$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",BF$7&gt;=$F12,BF$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="BG12" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C12="Objetivo",BG$7&gt;=$F12,BG$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",BG$7&gt;=$F12,BG$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="BH12" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C12="Objetivo",BH$7&gt;=$F12,BH$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",BH$7&gt;=$F12,BH$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="BI12" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C12="Objetivo",BI$7&gt;=$F12,BI$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",BI$7&gt;=$F12,BI$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ12" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C12="Objetivo",BJ$7&gt;=$F12,BJ$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",BJ$7&gt;=$F12,BJ$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="BK12" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C12="Objetivo",BK$7&gt;=$F12,BK$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",BK$7&gt;=$F12,BK$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="BL12" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C12="Objetivo",BL$7&gt;=$F12,BL$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",BL$7&gt;=$F12,BL$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="BM12" s="29"/>
     </row>
     <row r="13" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
-      <c r="B13" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="23">
-        <v>0.7</v>
-      </c>
-      <c r="F13" s="24">
-        <v>44474</v>
-      </c>
-      <c r="G13" s="25">
-        <v>7</v>
-      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="20"/>
       <c r="I13" s="48" t="str">
         <f t="shared" ref="I13:X28" ca="1" si="8">IF(AND($C13="Objetivo",I$7&gt;=$F13,I$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",I$7&gt;=$F13,I$7&lt;=$F13+$G13-1),1,""))</f>
@@ -12360,7 +12778,10 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="N13" s="28"/>
+      <c r="N13" s="28" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
       <c r="O13" s="28" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -12569,17 +12990,16 @@
         <v>48</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E14" s="23">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="F14" s="24">
-        <f>F12-F153</f>
-        <v>44470</v>
+        <v>44494</v>
       </c>
       <c r="G14" s="25">
         <v>10</v>
@@ -12602,22 +13022,10 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="O14" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="P14" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="Q14" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
+      <c r="N14" s="157"/>
+      <c r="O14" s="157"/>
+      <c r="P14" s="157"/>
+      <c r="Q14" s="158"/>
       <c r="R14" s="28" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -12810,23 +13218,12 @@
     </row>
     <row r="15" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
-      <c r="B15" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>27</v>
-      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="23"/>
-      <c r="F15" s="24">
-        <f>F12+20</f>
-        <v>44490</v>
-      </c>
-      <c r="G15" s="25">
-        <v>1</v>
-      </c>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
       <c r="H15" s="20"/>
       <c r="I15" s="48" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -12852,22 +13249,10 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="O15" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="P15" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="Q15" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="R15" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
+      <c r="O15" s="157"/>
+      <c r="P15" s="157"/>
+      <c r="Q15" s="157"/>
+      <c r="R15" s="158"/>
       <c r="S15" s="28" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -13057,18 +13442,20 @@
     <row r="16" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="26" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="22"/>
+        <v>36</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>43</v>
+      </c>
       <c r="E16" s="23">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="F16" s="24">
         <f>F12+6</f>
-        <v>44476</v>
+        <v>44500</v>
       </c>
       <c r="G16" s="25">
         <v>6</v>
@@ -13098,10 +13485,7 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="O16" s="156" t="str">
-        <f t="shared" ref="O16:T25" ca="1" si="9">IF(AND($C16="Objetivo",O$7&gt;=$F16,O$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",O$7&gt;=$F16,O$7&lt;=$F16+$G16-1),1,""))</f>
-        <v/>
-      </c>
+      <c r="O16" s="156"/>
       <c r="P16" s="157"/>
       <c r="Q16" s="157"/>
       <c r="R16" s="157"/>
@@ -13164,135 +13548,131 @@
         <v/>
       </c>
       <c r="AI16" s="28" t="str">
-        <f t="shared" ref="AI16:BL16" ca="1" si="10">IF(AND($C16="Objetivo",AI$7&gt;=$F16,AI$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",AI$7&gt;=$F16,AI$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ref="AI16:BL16" ca="1" si="9">IF(AND($C16="Objetivo",AI$7&gt;=$F16,AI$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",AI$7&gt;=$F16,AI$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ16" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AK16" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AL16" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AM16" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AN16" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AO16" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AP16" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AQ16" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AR16" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AS16" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AT16" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AU16" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AV16" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AW16" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AX16" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AY16" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AZ16" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BA16" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BB16" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BC16" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BD16" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BE16" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BF16" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BG16" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BH16" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BI16" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BJ16" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BK16" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BL16" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BM16" s="29"/>
     </row>
     <row r="17" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
-      <c r="B17" s="123" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>42</v>
-      </c>
+      <c r="B17" s="123"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
       <c r="F17" s="24"/>
@@ -13323,27 +13703,27 @@
         <v/>
       </c>
       <c r="O17" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ref="O17:T25" ca="1" si="10">IF(AND($C17="Objetivo",O$7&gt;=$F17,O$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",O$7&gt;=$F17,O$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="P17" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Q17" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="R17" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="S17" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="T17" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="U17" s="28" t="str">
@@ -13527,34 +13907,36 @@
     <row r="18" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="26" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="22"/>
+        <v>37</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>42</v>
+      </c>
       <c r="E18" s="23">
         <v>0.6</v>
       </c>
       <c r="F18" s="24">
         <f>F12+6</f>
-        <v>44476</v>
+        <v>44500</v>
       </c>
       <c r="G18" s="25">
         <v>13</v>
       </c>
       <c r="H18" s="20"/>
-      <c r="I18" s="48">
+      <c r="I18" s="48" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="J18" s="28">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="K18" s="28">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v/>
+      </c>
+      <c r="J18" s="28" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="K18" s="28" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
       </c>
       <c r="L18" s="28" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -13569,27 +13951,27 @@
         <v/>
       </c>
       <c r="O18" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="P18" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Q18" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="R18" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="S18" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="T18" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="U18" s="28" t="str">
@@ -13772,27 +14154,16 @@
     </row>
     <row r="19" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
-      <c r="B19" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>20</v>
-      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="F19" s="24">
-        <f>F18+2</f>
-        <v>44478</v>
-      </c>
-      <c r="G19" s="25">
-        <v>9</v>
-      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
       <c r="H19" s="20"/>
-      <c r="I19" s="48">
+      <c r="I19" s="48" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="J19" s="28" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -13815,27 +14186,27 @@
         <v/>
       </c>
       <c r="O19" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="P19" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Q19" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="R19" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="S19" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="T19" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="U19" s="28" t="str">
@@ -14018,22 +14389,17 @@
     </row>
     <row r="20" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
-      <c r="B20" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>22</v>
-      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="23">
-        <v>0.33</v>
+        <v>0.9</v>
       </c>
       <c r="F20" s="24">
-        <f>F19+5</f>
-        <v>44483</v>
+        <v>44494</v>
       </c>
       <c r="G20" s="25">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H20" s="20"/>
       <c r="I20" s="48" t="str">
@@ -14061,27 +14427,27 @@
         <v/>
       </c>
       <c r="O20" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="P20" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Q20" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="R20" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="S20" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="T20" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="U20" s="28" t="str">
@@ -14261,20 +14627,21 @@
     </row>
     <row r="21" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="B21" s="26" t="s">
-        <v>13</v>
-      </c>
+      <c r="B21" s="26"/>
       <c r="C21" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
+        <v>20</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="23">
+        <v>0.7</v>
+      </c>
       <c r="F21" s="24">
-        <f>F20+2</f>
-        <v>44485</v>
+        <v>44494</v>
       </c>
       <c r="G21" s="25">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H21" s="20"/>
       <c r="I21" s="48" t="str">
@@ -14301,45 +14668,45 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="O21" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="P21" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="Q21" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="R21" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="S21" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="T21" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="U21" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="V21" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="W21" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="X21" s="28" t="str">
+      <c r="O21" s="28">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="P21" s="28">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="Q21" s="28">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="R21" s="28">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="S21" s="28">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="T21" s="28">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="U21" s="28">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="V21" s="28">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="W21" s="28">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="X21" s="28">
         <f ca="1">IF(AND($C21="Objetivo",X$7&gt;=$F21,X$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",X$7&gt;=$F21,X$7&lt;=$F21+$G21-1),1,""))</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="Y21" s="28" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -14505,117 +14872,119 @@
     </row>
     <row r="22" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
-      <c r="B22" s="26" t="s">
-        <v>14</v>
-      </c>
+      <c r="B22" s="26"/>
       <c r="C22" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
+        <v>20</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="23">
+        <v>0.5</v>
+      </c>
       <c r="F22" s="24">
-        <f>F21+1</f>
-        <v>44486</v>
+        <f>F20-F161</f>
+        <v>44494</v>
       </c>
       <c r="G22" s="25">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="H22" s="20"/>
-      <c r="I22" s="48">
+      <c r="I22" s="48" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="J22" s="28">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K22" s="28">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L22" s="28">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M22" s="28">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N22" s="28">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="J22" s="28" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="K22" s="28" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="L22" s="28" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="M22" s="28" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="N22" s="28" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
       </c>
       <c r="O22" s="28">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
       </c>
       <c r="P22" s="28">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
       </c>
       <c r="Q22" s="28">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
       </c>
       <c r="R22" s="28">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
       </c>
       <c r="S22" s="28">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
       </c>
       <c r="T22" s="28">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
       </c>
       <c r="U22" s="28">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V22" s="28">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W22" s="28">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X22" s="28">
         <f ca="1">IF(AND($C22="Objetivo",X$7&gt;=$F22,X$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",X$7&gt;=$F22,X$7&lt;=$F22+$G22-1),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="Y22" s="28">
+        <v>2</v>
+      </c>
+      <c r="Y22" s="28" t="str">
         <f ca="1">IF(AND($C22="Objetivo",Y$7&gt;=$F22,Y$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",Y$7&gt;=$F22,Y$7&lt;=$F22+$G22-1),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="Z22" s="28">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AA22" s="28">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AB22" s="28">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AC22" s="28">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AD22" s="28">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AE22" s="28">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AF22" s="28">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="Z22" s="28" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AA22" s="28" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AB22" s="28" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AC22" s="28" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AD22" s="28" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AE22" s="28" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AF22" s="28" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
       </c>
       <c r="AG22" s="28" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -14749,16 +15118,22 @@
     </row>
     <row r="23" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
-      <c r="B23" s="123" t="s">
-        <v>16</v>
-      </c>
+      <c r="B23" s="26"/>
       <c r="C23" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
+        <v>20</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="F23" s="24">
+        <v>44470</v>
+      </c>
+      <c r="G23" s="25">
+        <v>7</v>
+      </c>
       <c r="H23" s="20"/>
       <c r="I23" s="48" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -14785,27 +15160,27 @@
         <v/>
       </c>
       <c r="O23" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="P23" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Q23" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="R23" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="S23" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="T23" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="U23" s="28" t="str">
@@ -14988,20 +15363,22 @@
     </row>
     <row r="24" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
-      <c r="B24" s="26" t="s">
-        <v>10</v>
-      </c>
+      <c r="B24" s="26"/>
       <c r="C24" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23"/>
+        <v>20</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="23">
+        <v>0.9</v>
+      </c>
       <c r="F24" s="24">
-        <f>F12+15</f>
-        <v>44485</v>
+        <f>F20+6</f>
+        <v>44500</v>
       </c>
       <c r="G24" s="25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H24" s="20"/>
       <c r="I24" s="48" t="str">
@@ -15029,52 +15406,52 @@
         <v/>
       </c>
       <c r="O24" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="P24" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Q24" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="R24" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="S24" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="T24" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="U24" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="V24" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="W24" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="X24" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="Y24" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="Z24" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="U24" s="28">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="V24" s="28">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="W24" s="28">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="X24" s="28">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Y24" s="28">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="Z24" s="28">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
       </c>
       <c r="AA24" s="28" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -15232,21 +15609,21 @@
     </row>
     <row r="25" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
-      <c r="B25" s="26" t="s">
-        <v>11</v>
-      </c>
+      <c r="B25" s="123"/>
       <c r="C25" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23"/>
+        <v>20</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="23">
+        <v>0.9</v>
+      </c>
       <c r="F25" s="24">
-        <f>F24+3</f>
-        <v>44488</v>
-      </c>
-      <c r="G25" s="25">
-        <v>14</v>
-      </c>
+        <f>F21+6</f>
+        <v>44500</v>
+      </c>
+      <c r="G25" s="25"/>
       <c r="H25" s="20"/>
       <c r="I25" s="48" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -15273,27 +15650,27 @@
         <v/>
       </c>
       <c r="O25" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="P25" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Q25" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="R25" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="S25" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="T25" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="U25" s="28" t="str">
@@ -15476,20 +15853,22 @@
     </row>
     <row r="26" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
-      <c r="B26" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="B26" s="26"/>
       <c r="C26" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
+        <v>20</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="23">
+        <v>0.6</v>
+      </c>
       <c r="F26" s="24">
-        <f>F25+15</f>
-        <v>44503</v>
+        <f>F20+6</f>
+        <v>44500</v>
       </c>
       <c r="G26" s="25">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H26" s="20"/>
       <c r="I26" s="48" t="str">
@@ -15540,57 +15919,57 @@
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="U26" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="V26" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="W26" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="X26" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="Y26" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="Z26" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AA26" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AB26" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AC26" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AD26" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AE26" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AF26" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AG26" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
+      <c r="U26" s="28">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="V26" s="28">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="W26" s="28">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="X26" s="28">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Y26" s="28">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="Z26" s="28">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AA26" s="28">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AB26" s="28">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AC26" s="28">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AD26" s="28">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AE26" s="28">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AF26" s="28">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AG26" s="28">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
       </c>
       <c r="AH26" s="28" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -15720,20 +16099,20 @@
     </row>
     <row r="27" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
-      <c r="B27" s="26" t="s">
-        <v>13</v>
-      </c>
+      <c r="B27" s="26"/>
       <c r="C27" s="22" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="22"/>
-      <c r="E27" s="23"/>
+      <c r="E27" s="23">
+        <v>0.5</v>
+      </c>
       <c r="F27" s="24">
-        <f>F21+22</f>
-        <v>44507</v>
+        <f>F26+2</f>
+        <v>44502</v>
       </c>
       <c r="G27" s="25">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H27" s="20"/>
       <c r="I27" s="48" t="str">
@@ -15792,33 +16171,33 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="W27" s="28" t="str">
+      <c r="W27" s="28">
         <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="X27" s="28" t="str">
+        <v>2</v>
+      </c>
+      <c r="X27" s="28">
         <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="Y27" s="28" t="str">
+        <v>2</v>
+      </c>
+      <c r="Y27" s="28">
         <f t="shared" ref="Y27:AH35" ca="1" si="14">IF(AND($C27="Objetivo",Y$7&gt;=$F27,Y$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",Y$7&gt;=$F27,Y$7&lt;=$F27+$G27-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Z27" s="28" t="str">
+        <v>2</v>
+      </c>
+      <c r="Z27" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AA27" s="28" t="str">
+        <v>2</v>
+      </c>
+      <c r="AA27" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AB27" s="28" t="str">
+        <v>2</v>
+      </c>
+      <c r="AB27" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AC27" s="28" t="str">
+        <v>2</v>
+      </c>
+      <c r="AC27" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AD27" s="28">
         <f t="shared" ca="1" si="14"/>
@@ -15828,9 +16207,9 @@
         <f t="shared" ca="1" si="14"/>
         <v>2</v>
       </c>
-      <c r="AF27" s="28">
+      <c r="AF27" s="28" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="AG27" s="28" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -15974,7 +16353,7 @@
       <c r="E28" s="23"/>
       <c r="F28" s="24">
         <f>F16</f>
-        <v>44476</v>
+        <v>44500</v>
       </c>
       <c r="G28" s="25">
         <v>19</v>
@@ -16457,7 +16836,7 @@
       <c r="E30" s="23"/>
       <c r="F30" s="24">
         <f>F27+3</f>
-        <v>44510</v>
+        <v>44505</v>
       </c>
       <c r="G30" s="25">
         <v>15</v>
@@ -16531,33 +16910,33 @@
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
-      <c r="Z30" s="28" t="str">
+      <c r="Z30" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AA30" s="28" t="str">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AB30" s="28" t="str">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AC30" s="28" t="str">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AD30" s="28" t="str">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AE30" s="28" t="str">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AF30" s="28" t="str">
+        <v>1</v>
+      </c>
+      <c r="AF30" s="28">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AG30" s="28">
         <f t="shared" ca="1" si="14"/>
@@ -16591,33 +16970,33 @@
         <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
-      <c r="AO30" s="28">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AP30" s="28">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AQ30" s="28">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AR30" s="28">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AS30" s="28">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AT30" s="28">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AU30" s="28">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+      <c r="AO30" s="28" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AP30" s="28" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AQ30" s="28" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AR30" s="28" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AS30" s="28" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AT30" s="28" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AU30" s="28" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
       </c>
       <c r="AV30" s="28" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -16701,7 +17080,7 @@
       <c r="E31" s="23"/>
       <c r="F31" s="24">
         <f>F30+14</f>
-        <v>44524</v>
+        <v>44519</v>
       </c>
       <c r="G31" s="25">
         <v>5</v>
@@ -16831,25 +17210,25 @@
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AN31" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AO31" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AP31" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AQ31" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AR31" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
+      <c r="AN31" s="28">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AO31" s="28">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AP31" s="28">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AQ31" s="28">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AR31" s="28">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
       </c>
       <c r="AS31" s="28" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -16859,25 +17238,25 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AU31" s="28">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AV31" s="28">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AW31" s="28">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AX31" s="28">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AY31" s="28">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+      <c r="AU31" s="28" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AV31" s="28" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AW31" s="28" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AX31" s="28" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AY31" s="28" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
       </c>
       <c r="AZ31" s="28" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -16945,7 +17324,7 @@
       <c r="E32" s="23"/>
       <c r="F32" s="24">
         <f>F31+42</f>
-        <v>44566</v>
+        <v>44561</v>
       </c>
       <c r="G32" s="25">
         <v>1</v>
@@ -17964,14 +18343,13 @@
     </row>
     <row r="38" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D38" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
     <mergeCell ref="O16:T16"/>
-    <mergeCell ref="I12:L12"/>
     <mergeCell ref="Y4:AB4"/>
     <mergeCell ref="AD4:AH4"/>
     <mergeCell ref="B2:H2"/>
@@ -17980,9 +18358,12 @@
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="S4:W4"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="O12:R12"/>
   </mergeCells>
-  <conditionalFormatting sqref="E9:E36">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="E9:E13 E28:E36 E15 E17:E19">
+    <cfRule type="dataBar" priority="43">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17995,63 +18376,171 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16:O16 U16:BL16 I17:BL36 I7:BL11 I13:BL15 M12:BL12">
-    <cfRule type="expression" dxfId="31" priority="1">
+  <conditionalFormatting sqref="I16:O16 U16:BL16 I17:BL36 I7:BL11 I15:N15 M12:O12 I13:L13 Q13:BL13 I14:M14 R14:BL14 S15:BL15 S12:BL12">
+    <cfRule type="expression" dxfId="53" priority="39">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="30" priority="4">
+    <cfRule type="expression" dxfId="52" priority="42">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="29" priority="3">
+    <cfRule type="expression" dxfId="51" priority="41">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="50" priority="40">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:BL11 I16:O16 U16:BL16 I17:BL35 I13:BL15 M12:BL12">
-    <cfRule type="expression" dxfId="27" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="I10:BL11 I16:O16 U16:BL16 I17:BL35 I15:N15 M12:O12 I13:L13 Q13:BL13 I14:M14 R14:BL14 S15:BL15 S12:BL12">
+    <cfRule type="expression" dxfId="49" priority="45" stopIfTrue="1">
       <formula>AND($C10="Baixo risco",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="46" stopIfTrue="1">
       <formula>AND($C10="Alto risco",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="47" stopIfTrue="1">
       <formula>AND($C10="No prazo",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="48" stopIfTrue="1">
       <formula>AND($C10="Médio risco",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="49" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="22" priority="14">
-      <formula>AND(TODAY()&gt;=L$7,TODAY()&lt;M$7)</formula>
+  <conditionalFormatting sqref="N14">
+    <cfRule type="expression" dxfId="32" priority="26">
+      <formula>AND(TODAY()&gt;=Q$7,TODAY()&lt;R$7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="21" priority="40" stopIfTrue="1">
-      <formula>AND($C12="Baixo risco",L$7&gt;=$F12,L$7&lt;=$F12+$G12-1)</formula>
+  <conditionalFormatting sqref="N14">
+    <cfRule type="expression" dxfId="31" priority="27" stopIfTrue="1">
+      <formula>AND($C14="Baixo risco",Q$7&gt;=$F14,Q$7&lt;=$F14+$G14-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="41" stopIfTrue="1">
-      <formula>AND($C12="Alto risco",L$7&gt;=$F12,L$7&lt;=$F12+$G12-1)</formula>
+    <cfRule type="expression" dxfId="30" priority="28" stopIfTrue="1">
+      <formula>AND($C14="Alto risco",Q$7&gt;=$F14,Q$7&lt;=$F14+$G14-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="42" stopIfTrue="1">
-      <formula>AND($C12="No prazo",L$7&gt;=$F12,L$7&lt;=$F12+$G12-1)</formula>
+    <cfRule type="expression" dxfId="29" priority="29" stopIfTrue="1">
+      <formula>AND($C14="No prazo",Q$7&gt;=$F14,Q$7&lt;=$F14+$G14-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="43" stopIfTrue="1">
-      <formula>AND($C12="Médio risco",L$7&gt;=$F12,L$7&lt;=$F12+$G12-1)</formula>
+    <cfRule type="expression" dxfId="28" priority="30" stopIfTrue="1">
+      <formula>AND($C14="Médio risco",Q$7&gt;=$F14,Q$7&lt;=$F14+$G14-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="44" stopIfTrue="1">
-      <formula>AND(LEN($C12)=0,L$7&gt;=$F12,L$7&lt;=$F12+$G12-1)</formula>
+    <cfRule type="expression" dxfId="27" priority="31" stopIfTrue="1">
+      <formula>AND(LEN($C14)=0,Q$7&gt;=$F14,Q$7&lt;=$F14+$G14-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O15">
+    <cfRule type="expression" dxfId="26" priority="19">
+      <formula>AND(TODAY()&gt;=R$7,TODAY()&lt;S$7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O15">
+    <cfRule type="expression" dxfId="25" priority="20" stopIfTrue="1">
+      <formula>AND($C15="Baixo risco",R$7&gt;=$F15,R$7&lt;=$F15+$G15-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="21" stopIfTrue="1">
+      <formula>AND($C15="Alto risco",R$7&gt;=$F15,R$7&lt;=$F15+$G15-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="22" stopIfTrue="1">
+      <formula>AND($C15="No prazo",R$7&gt;=$F15,R$7&lt;=$F15+$G15-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
+      <formula>AND($C15="Médio risco",R$7&gt;=$F15,R$7&lt;=$F15+$G15-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="24" stopIfTrue="1">
+      <formula>AND(LEN($C15)=0,R$7&gt;=$F15,R$7&lt;=$F15+$G15-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:L12">
+    <cfRule type="expression" dxfId="20" priority="11">
+      <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:L12">
+    <cfRule type="expression" dxfId="19" priority="13" stopIfTrue="1">
+      <formula>AND($C12="Baixo risco",I$7&gt;=$F12,I$7&lt;=$F12+$G12-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="14" stopIfTrue="1">
+      <formula>AND($C12="Alto risco",I$7&gt;=$F12,I$7&lt;=$F12+$G12-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="15" stopIfTrue="1">
+      <formula>AND($C12="No prazo",I$7&gt;=$F12,I$7&lt;=$F12+$G12-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="16" stopIfTrue="1">
+      <formula>AND($C12="Médio risco",I$7&gt;=$F12,I$7&lt;=$F12+$G12-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
+      <formula>AND(LEN($C12)=0,I$7&gt;=$F12,I$7&lt;=$F12+$G12-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20:E27">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{788A2C48-684D-4571-8C20-ACCEACA42EBE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C007EE9D-7B21-4A87-8136-AED816CBEF74}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13:P13">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>AND(TODAY()&gt;=M$7,TODAY()&lt;N$7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13:P13">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+      <formula>AND($C13="Baixo risco",M$7&gt;=$F13,M$7&lt;=$F13+$G13-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+      <formula>AND($C13="Alto risco",M$7&gt;=$F13,M$7&lt;=$F13+$G13-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
+      <formula>AND($C13="No prazo",M$7&gt;=$F13,M$7&lt;=$F13+$G13-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+      <formula>AND($C13="Médio risco",M$7&gt;=$F13,M$7&lt;=$F13+$G13-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
+      <formula>AND(LEN($C13)=0,M$7&gt;=$F13,M$7&lt;=$F13+$G13-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A6DB0180-9DB9-4306-8DBF-A8ACCD03F586}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="15">
@@ -18087,9 +18576,6 @@
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <ignoredErrors>
-    <ignoredError sqref="F20" formula="1"/>
-  </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -18139,10 +18625,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E9:E36</xm:sqref>
+          <xm:sqref>E9:E13 E28:E36 E15 E17:E19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{C84307BC-4E4D-4989-9D21-88D6AEB0AFD2}">
+          <x14:cfRule type="iconSet" priority="44" id="{C84307BC-4E4D-4989-9D21-88D6AEB0AFD2}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18158,10 +18644,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I16:O16 U16:BL16 I17:BL35 I10:BL11 I13:BL15 M12:BL12 I12</xm:sqref>
+          <xm:sqref>I16:O16 U16:BL16 I17:BL35 I10:BL11 I15:N15 M12:O12 I13:L13 Q13:BL13 I14:M14 R14:BL14 S15:BL15 S12:BL12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{3EF75A3E-8286-4296-914E-C8F63A2E14FB}">
+          <x14:cfRule type="iconSet" priority="50" id="{3EF75A3E-8286-4296-914E-C8F63A2E14FB}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18178,6 +18664,127 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>I36:BL36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="25" id="{06DD56DB-B963-4889-970E-C15197463F78}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>N14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="18" id="{E782128D-E287-483C-B143-AEF1867BA217}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>O15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="12" id="{16CF1FFB-5DBA-4207-A72C-1C6D0A465384}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I12:L12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{788A2C48-684D-4571-8C20-ACCEACA42EBE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E20:E27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C007EE9D-7B21-4A87-8136-AED816CBEF74}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{1C79CE11-247B-490A-96FC-9DF30FDE247C}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M13:P13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A6DB0180-9DB9-4306-8DBF-A8ACCD03F586}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E16</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -18212,27 +18819,27 @@
     <row r="1" spans="1:68" ht="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:68" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
-      <c r="B2" s="168" t="s">
+      <c r="B2" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
-      <c r="L2" s="169"/>
-      <c r="M2" s="169"/>
-      <c r="N2" s="169"/>
-      <c r="O2" s="170"/>
-      <c r="P2" s="170"/>
-      <c r="Q2" s="170"/>
-      <c r="R2" s="170"/>
-      <c r="S2" s="170"/>
-      <c r="T2" s="170"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="168"/>
       <c r="U2" s="107"/>
       <c r="V2" s="107"/>
       <c r="W2" s="107"/>
@@ -18502,7 +19109,7 @@
       </c>
       <c r="C6" s="83" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones43524[Início])=0,TODAY(),B11(Milestones43524[Início])),TODAY())</f>
-        <v>44486</v>
+        <v>44488</v>
       </c>
       <c r="D6" s="84"/>
       <c r="E6" s="77"/>
@@ -18531,7 +19138,7 @@
       <c r="V6" s="102"/>
       <c r="W6" s="102" t="str">
         <f ca="1">IF(OR(TEXT(W7,"mmmm")=P6,TEXT(W7,"mmmm")=I6),"",TEXT(W7,"mmmm"))</f>
-        <v/>
+        <v>novembro</v>
       </c>
       <c r="X6" s="102"/>
       <c r="Y6" s="102"/>
@@ -18541,7 +19148,7 @@
       <c r="AC6" s="102"/>
       <c r="AD6" s="102" t="str">
         <f ca="1">IF(OR(TEXT(AD7,"mmmm")=W6,TEXT(AD7,"mmmm")=P6,TEXT(AD7,"mmmm")=I6),"",TEXT(AD7,"mmmm"))</f>
-        <v>novembro</v>
+        <v/>
       </c>
       <c r="AE6" s="102"/>
       <c r="AF6" s="102"/>
@@ -18606,227 +19213,227 @@
       <c r="H7" s="87"/>
       <c r="I7" s="126">
         <f ca="1">IFERROR(Início_do_projeto+Incremento_de_rolagem,TODAY())</f>
-        <v>44486</v>
+        <v>44488</v>
       </c>
       <c r="J7" s="127">
         <f ca="1">I7+1</f>
-        <v>44487</v>
+        <v>44489</v>
       </c>
       <c r="K7" s="127">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44488</v>
+        <v>44490</v>
       </c>
       <c r="L7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44489</v>
+        <v>44491</v>
       </c>
       <c r="M7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44490</v>
+        <v>44492</v>
       </c>
       <c r="N7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44491</v>
+        <v>44493</v>
       </c>
       <c r="O7" s="128">
         <f t="shared" ca="1" si="0"/>
-        <v>44492</v>
+        <v>44494</v>
       </c>
       <c r="P7" s="127">
         <f ca="1">O7+1</f>
-        <v>44493</v>
+        <v>44495</v>
       </c>
       <c r="Q7" s="127">
         <f ca="1">P7+1</f>
-        <v>44494</v>
+        <v>44496</v>
       </c>
       <c r="R7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44495</v>
+        <v>44497</v>
       </c>
       <c r="S7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44496</v>
+        <v>44498</v>
       </c>
       <c r="T7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44497</v>
+        <v>44499</v>
       </c>
       <c r="U7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44498</v>
+        <v>44500</v>
       </c>
       <c r="V7" s="128">
         <f t="shared" ca="1" si="0"/>
-        <v>44499</v>
+        <v>44501</v>
       </c>
       <c r="W7" s="127">
         <f ca="1">V7+1</f>
-        <v>44500</v>
+        <v>44502</v>
       </c>
       <c r="X7" s="127">
         <f ca="1">W7+1</f>
-        <v>44501</v>
+        <v>44503</v>
       </c>
       <c r="Y7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44502</v>
+        <v>44504</v>
       </c>
       <c r="Z7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44503</v>
+        <v>44505</v>
       </c>
       <c r="AA7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
+        <v>44506</v>
       </c>
       <c r="AB7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44505</v>
+        <v>44507</v>
       </c>
       <c r="AC7" s="128">
         <f t="shared" ca="1" si="0"/>
-        <v>44506</v>
+        <v>44508</v>
       </c>
       <c r="AD7" s="127">
         <f ca="1">AC7+1</f>
-        <v>44507</v>
+        <v>44509</v>
       </c>
       <c r="AE7" s="127">
         <f ca="1">AD7+1</f>
-        <v>44508</v>
+        <v>44510</v>
       </c>
       <c r="AF7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44509</v>
+        <v>44511</v>
       </c>
       <c r="AG7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44510</v>
+        <v>44512</v>
       </c>
       <c r="AH7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44511</v>
+        <v>44513</v>
       </c>
       <c r="AI7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44512</v>
+        <v>44514</v>
       </c>
       <c r="AJ7" s="128">
         <f t="shared" ca="1" si="0"/>
-        <v>44513</v>
+        <v>44515</v>
       </c>
       <c r="AK7" s="127">
         <f ca="1">AJ7+1</f>
-        <v>44514</v>
+        <v>44516</v>
       </c>
       <c r="AL7" s="127">
         <f ca="1">AK7+1</f>
-        <v>44515</v>
+        <v>44517</v>
       </c>
       <c r="AM7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44516</v>
+        <v>44518</v>
       </c>
       <c r="AN7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44517</v>
+        <v>44519</v>
       </c>
       <c r="AO7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44518</v>
+        <v>44520</v>
       </c>
       <c r="AP7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44519</v>
+        <v>44521</v>
       </c>
       <c r="AQ7" s="128">
         <f t="shared" ca="1" si="0"/>
-        <v>44520</v>
+        <v>44522</v>
       </c>
       <c r="AR7" s="127">
         <f ca="1">AQ7+1</f>
-        <v>44521</v>
+        <v>44523</v>
       </c>
       <c r="AS7" s="127">
         <f ca="1">AR7+1</f>
-        <v>44522</v>
+        <v>44524</v>
       </c>
       <c r="AT7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44523</v>
+        <v>44525</v>
       </c>
       <c r="AU7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44524</v>
+        <v>44526</v>
       </c>
       <c r="AV7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44525</v>
+        <v>44527</v>
       </c>
       <c r="AW7" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>44526</v>
+        <v>44528</v>
       </c>
       <c r="AX7" s="128">
         <f t="shared" ca="1" si="0"/>
-        <v>44527</v>
+        <v>44529</v>
       </c>
       <c r="AY7" s="127">
         <f ca="1">AX7+1</f>
-        <v>44528</v>
+        <v>44530</v>
       </c>
       <c r="AZ7" s="127">
         <f ca="1">AY7+1</f>
-        <v>44529</v>
+        <v>44531</v>
       </c>
       <c r="BA7" s="127">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>44530</v>
+        <v>44532</v>
       </c>
       <c r="BB7" s="127">
         <f t="shared" ca="1" si="1"/>
-        <v>44531</v>
+        <v>44533</v>
       </c>
       <c r="BC7" s="127">
         <f t="shared" ca="1" si="1"/>
-        <v>44532</v>
+        <v>44534</v>
       </c>
       <c r="BD7" s="127">
         <f t="shared" ca="1" si="1"/>
-        <v>44533</v>
+        <v>44535</v>
       </c>
       <c r="BE7" s="128">
         <f t="shared" ca="1" si="1"/>
-        <v>44534</v>
+        <v>44536</v>
       </c>
       <c r="BF7" s="127">
         <f ca="1">BE7+1</f>
-        <v>44535</v>
+        <v>44537</v>
       </c>
       <c r="BG7" s="127">
         <f ca="1">BF7+1</f>
-        <v>44536</v>
+        <v>44538</v>
       </c>
       <c r="BH7" s="127">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>44537</v>
+        <v>44539</v>
       </c>
       <c r="BI7" s="127">
         <f t="shared" ca="1" si="2"/>
-        <v>44538</v>
+        <v>44540</v>
       </c>
       <c r="BJ7" s="127">
         <f t="shared" ca="1" si="2"/>
-        <v>44539</v>
+        <v>44541</v>
       </c>
       <c r="BK7" s="127">
         <f t="shared" ca="1" si="2"/>
-        <v>44540</v>
+        <v>44542</v>
       </c>
       <c r="BL7" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>44541</v>
+        <v>44543</v>
       </c>
       <c r="BM7" s="92"/>
     </row>
@@ -18920,27 +19527,27 @@
       <c r="H9" s="98"/>
       <c r="I9" s="108" t="str">
         <f t="shared" ref="I9:BL9" ca="1" si="3">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="J9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="K9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="L9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="M9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="N9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="O9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -18948,27 +19555,27 @@
       </c>
       <c r="P9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="Q9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="R9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="S9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="T9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="U9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="V9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -18976,27 +19583,27 @@
       </c>
       <c r="W9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="X9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="Y9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="Z9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AA9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AB9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AC9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19004,27 +19611,27 @@
       </c>
       <c r="AD9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="AE9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AF9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="AG9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AH9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AI9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AJ9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19032,27 +19639,27 @@
       </c>
       <c r="AK9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="AL9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AM9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="AN9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AO9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AP9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AQ9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19060,27 +19667,27 @@
       </c>
       <c r="AR9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="AS9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="AT9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="AU9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AV9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="AW9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="AX9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19088,27 +19695,27 @@
       </c>
       <c r="AY9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="AZ9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="BA9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="BB9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BC9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BD9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="BE9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19116,27 +19723,27 @@
       </c>
       <c r="BF9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>t</v>
       </c>
       <c r="BG9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>q</v>
       </c>
       <c r="BH9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>t</v>
+        <v>q</v>
       </c>
       <c r="BI9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BJ9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>q</v>
+        <v>s</v>
       </c>
       <c r="BK9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="BL9" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19464,7 +20071,7 @@
       </c>
       <c r="F12" s="63">
         <f ca="1">TODAY()</f>
-        <v>44486</v>
+        <v>44488</v>
       </c>
       <c r="G12" s="64">
         <v>3</v>
@@ -19708,7 +20315,7 @@
       <c r="E13" s="62"/>
       <c r="F13" s="63">
         <f ca="1">TODAY()+5</f>
-        <v>44491</v>
+        <v>44493</v>
       </c>
       <c r="G13" s="64">
         <v>1</v>
@@ -19954,7 +20561,7 @@
       </c>
       <c r="F14" s="63">
         <f ca="1">F12-3</f>
-        <v>44483</v>
+        <v>44485</v>
       </c>
       <c r="G14" s="64">
         <v>10</v>
@@ -20198,7 +20805,7 @@
       <c r="E15" s="62"/>
       <c r="F15" s="63">
         <f ca="1">F12+20</f>
-        <v>44506</v>
+        <v>44508</v>
       </c>
       <c r="G15" s="64">
         <v>1</v>
@@ -20444,7 +21051,7 @@
       </c>
       <c r="F16" s="63">
         <f ca="1">F12+6</f>
-        <v>44492</v>
+        <v>44494</v>
       </c>
       <c r="G16" s="64">
         <v>6</v>
@@ -20927,7 +21534,7 @@
       </c>
       <c r="F18" s="63">
         <f ca="1">F12+6</f>
-        <v>44492</v>
+        <v>44494</v>
       </c>
       <c r="G18" s="64">
         <v>13</v>
@@ -21173,7 +21780,7 @@
       </c>
       <c r="F19" s="63">
         <f ca="1">F18+2</f>
-        <v>44494</v>
+        <v>44496</v>
       </c>
       <c r="G19" s="64">
         <v>9</v>
@@ -21419,7 +22026,7 @@
       </c>
       <c r="F20" s="63">
         <f ca="1">F19+5</f>
-        <v>44499</v>
+        <v>44501</v>
       </c>
       <c r="G20" s="64">
         <v>11</v>
@@ -21663,7 +22270,7 @@
       <c r="E21" s="62"/>
       <c r="F21" s="63">
         <f ca="1">F20+2</f>
-        <v>44501</v>
+        <v>44503</v>
       </c>
       <c r="G21" s="64">
         <v>1</v>
@@ -21905,7 +22512,7 @@
       <c r="E22" s="62"/>
       <c r="F22" s="63">
         <f ca="1">F21+1</f>
-        <v>44502</v>
+        <v>44504</v>
       </c>
       <c r="G22" s="64">
         <v>24</v>
@@ -22386,7 +22993,7 @@
       <c r="E24" s="62"/>
       <c r="F24" s="63">
         <f ca="1">F12+15</f>
-        <v>44501</v>
+        <v>44503</v>
       </c>
       <c r="G24" s="64">
         <v>4</v>
@@ -22630,7 +23237,7 @@
       <c r="E25" s="62"/>
       <c r="F25" s="63">
         <f ca="1">F24+3</f>
-        <v>44504</v>
+        <v>44506</v>
       </c>
       <c r="G25" s="64">
         <v>14</v>
@@ -22874,7 +23481,7 @@
       <c r="E26" s="62"/>
       <c r="F26" s="63">
         <f ca="1">F25+15</f>
-        <v>44519</v>
+        <v>44521</v>
       </c>
       <c r="G26" s="64">
         <v>6</v>
@@ -23118,7 +23725,7 @@
       <c r="E27" s="62"/>
       <c r="F27" s="63">
         <f ca="1">F21+22</f>
-        <v>44523</v>
+        <v>44525</v>
       </c>
       <c r="G27" s="64">
         <v>3</v>
@@ -23362,7 +23969,7 @@
       <c r="E28" s="62"/>
       <c r="F28" s="63">
         <f ca="1">F16</f>
-        <v>44492</v>
+        <v>44494</v>
       </c>
       <c r="G28" s="64">
         <v>19</v>
@@ -23841,7 +24448,7 @@
       <c r="E30" s="62"/>
       <c r="F30" s="63">
         <f ca="1">F27+3</f>
-        <v>44526</v>
+        <v>44528</v>
       </c>
       <c r="G30" s="64">
         <v>15</v>
@@ -24083,7 +24690,7 @@
       <c r="E31" s="62"/>
       <c r="F31" s="63">
         <f ca="1">F30+14</f>
-        <v>44540</v>
+        <v>44542</v>
       </c>
       <c r="G31" s="64">
         <v>5</v>
@@ -24327,7 +24934,7 @@
       <c r="E32" s="62"/>
       <c r="F32" s="63">
         <f ca="1">F31+42</f>
-        <v>44582</v>
+        <v>44584</v>
       </c>
       <c r="G32" s="64">
         <v>1</v>
@@ -25371,39 +25978,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL36">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="11" priority="4">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL35">
-    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="7" stopIfTrue="1">
       <formula>AND($C10="Baixo risco",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="8" stopIfTrue="1">
       <formula>AND($C10="Alto risco",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>AND($C10="No prazo",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="10" stopIfTrue="1">
       <formula>AND($C10="Médio risco",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25533,6 +26140,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -25541,7 +26167,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="22a266b9fa9a230c5a512669d8b298c3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eddc33fff6b14141ee5c74a0d29ea6a1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -25817,26 +26443,19 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -25844,7 +26463,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75C87518-DD8E-42CD-8DAC-291A323E849B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25863,16 +26482,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentos/TimeLine/Gráfico de Gantt do Agile1.xlsx
+++ b/Documentos/TimeLine/Gráfico de Gantt do Agile1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9710FD01-0E25-4927-881E-706FAEE66C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC3FECB-9034-4BD1-BA91-C4814227A707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="415" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="56">
   <si>
     <t>SOBRE ESTE GRÁFICO DE GANTT</t>
   </si>
@@ -215,13 +215,28 @@
     <t xml:space="preserve">Atualização da documentação </t>
   </si>
   <si>
-    <t>Desenvolvimento Spring Boot</t>
+    <t>Lucas F</t>
   </si>
   <si>
-    <t>Exportação de dados (PDF)</t>
+    <t/>
   </si>
   <si>
-    <t xml:space="preserve">Codificação em React das telas restates </t>
+    <t xml:space="preserve">Exportação de informações em PDF </t>
+  </si>
+  <si>
+    <t>Progresso interno do sistema</t>
+  </si>
+  <si>
+    <t>Apresentação de novas telas (React)</t>
+  </si>
+  <si>
+    <t>Exibição do White Paper do projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criação e exibição  de relatórios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preparatório do projeto para versão do celular </t>
   </si>
 </sst>
 </file>
@@ -573,7 +588,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="51">
+  <fills count="52">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -858,6 +873,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1264,7 +1285,7 @@
     <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1713,6 +1734,15 @@
     <xf numFmtId="0" fontId="45" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="13" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1722,13 +1752,13 @@
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1784,93 +1814,7 @@
     <cellStyle name="Vírgula" xfId="4" builtinId="3" customBuiltin="1"/>
     <cellStyle name="zTextoOculto" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="92">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="122">
     <dxf>
       <fill>
         <patternFill>
@@ -2338,6 +2282,522 @@
         <right/>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -3067,21 +3527,21 @@
   </dxfs>
   <tableStyles count="2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de tabela de Gantt" pivot="0" count="4" xr9:uid="{4904D139-63E4-4221-B7C9-C6C5B7A50FAF}">
-      <tableStyleElement type="wholeTable" dxfId="91"/>
-      <tableStyleElement type="headerRow" dxfId="90"/>
-      <tableStyleElement type="firstRowStripe" dxfId="89"/>
-      <tableStyleElement type="secondRowStripe" dxfId="88"/>
+      <tableStyleElement type="wholeTable" dxfId="121"/>
+      <tableStyleElement type="headerRow" dxfId="120"/>
+      <tableStyleElement type="firstRowStripe" dxfId="119"/>
+      <tableStyleElement type="secondRowStripe" dxfId="118"/>
     </tableStyle>
     <tableStyle name="ListaDeAfazeres" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="87"/>
-      <tableStyleElement type="headerRow" dxfId="86"/>
-      <tableStyleElement type="totalRow" dxfId="85"/>
-      <tableStyleElement type="firstColumn" dxfId="84"/>
-      <tableStyleElement type="lastColumn" dxfId="83"/>
-      <tableStyleElement type="firstRowStripe" dxfId="82"/>
-      <tableStyleElement type="secondRowStripe" dxfId="81"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="80"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="79"/>
+      <tableStyleElement type="wholeTable" dxfId="117"/>
+      <tableStyleElement type="headerRow" dxfId="116"/>
+      <tableStyleElement type="totalRow" dxfId="115"/>
+      <tableStyleElement type="firstColumn" dxfId="114"/>
+      <tableStyleElement type="lastColumn" dxfId="113"/>
+      <tableStyleElement type="firstRowStripe" dxfId="112"/>
+      <tableStyleElement type="secondRowStripe" dxfId="111"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="110"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="109"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3410,7 +3870,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD82988E-1813-40AE-BDE7-9F0200A703CB}" name="Milestones4352" displayName="Milestones4352" ref="B9:G36" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD82988E-1813-40AE-BDE7-9F0200A703CB}" name="Milestones4352" displayName="Milestones4352" ref="B9:G36" totalsRowShown="0" headerRowDxfId="108" dataDxfId="107">
   <autoFilter ref="B9:G36" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3420,12 +3880,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{619BF8F6-D0F1-41AD-871D-FE0240C45A93}" name="Descrição do marco" dataDxfId="76"/>
-    <tableColumn id="2" xr3:uid="{39BD914E-FB02-4352-846C-6D59624DC0B0}" name="Categoria" dataDxfId="75"/>
-    <tableColumn id="3" xr3:uid="{D274194F-BCA0-44F3-84B2-217254EE241C}" name="Atribuído a" dataDxfId="74"/>
-    <tableColumn id="4" xr3:uid="{8385BC6F-56EE-4363-A106-8DB0A1E4EF5A}" name="Progresso" dataDxfId="73"/>
-    <tableColumn id="5" xr3:uid="{02926609-7B93-4B6F-BE96-92EC7A949E4B}" name="Início" dataDxfId="72" dataCellStyle="Data"/>
-    <tableColumn id="6" xr3:uid="{8FF9BE8E-04B7-4B39-AC27-D2E534204BC3}" name="Dias" dataDxfId="71"/>
+    <tableColumn id="1" xr3:uid="{619BF8F6-D0F1-41AD-871D-FE0240C45A93}" name="Descrição do marco" dataDxfId="106"/>
+    <tableColumn id="2" xr3:uid="{39BD914E-FB02-4352-846C-6D59624DC0B0}" name="Categoria" dataDxfId="105"/>
+    <tableColumn id="3" xr3:uid="{D274194F-BCA0-44F3-84B2-217254EE241C}" name="Atribuído a" dataDxfId="104"/>
+    <tableColumn id="4" xr3:uid="{8385BC6F-56EE-4363-A106-8DB0A1E4EF5A}" name="Progresso" dataDxfId="103"/>
+    <tableColumn id="5" xr3:uid="{02926609-7B93-4B6F-BE96-92EC7A949E4B}" name="Início" dataDxfId="102" dataCellStyle="Data"/>
+    <tableColumn id="6" xr3:uid="{8FF9BE8E-04B7-4B39-AC27-D2E534204BC3}" name="Dias" dataDxfId="101"/>
   </tableColumns>
   <tableStyleInfo name="ListaDeAfazeres" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3437,7 +3897,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0EDB95CA-98FE-4198-8801-690B9B480FDF}" name="Milestones435" displayName="Milestones435" ref="B9:G36" totalsRowShown="0" headerRowDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0EDB95CA-98FE-4198-8801-690B9B480FDF}" name="Milestones435" displayName="Milestones435" ref="B9:G36" totalsRowShown="0" headerRowDxfId="100">
   <autoFilter ref="B9:G36" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3447,9 +3907,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6E47A83D-ACD7-4EB6-9B84-5195E813945E}" name="Descrição do marco" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{529EEF64-D037-4ACF-8CA4-0C10FE2D1FBB}" name="Categoria" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{711D01BA-2785-403A-9636-CCC7E2ADA584}" name="Atribuído a" dataDxfId="67"/>
+    <tableColumn id="1" xr3:uid="{6E47A83D-ACD7-4EB6-9B84-5195E813945E}" name="Descrição do marco" dataDxfId="99"/>
+    <tableColumn id="2" xr3:uid="{529EEF64-D037-4ACF-8CA4-0C10FE2D1FBB}" name="Categoria" dataDxfId="98"/>
+    <tableColumn id="3" xr3:uid="{711D01BA-2785-403A-9636-CCC7E2ADA584}" name="Atribuído a" dataDxfId="97"/>
     <tableColumn id="4" xr3:uid="{62B00BEF-16BE-4692-B5E2-F287F680F2C1}" name="Progresso"/>
     <tableColumn id="5" xr3:uid="{D6D72902-F68F-4E59-A714-AFFF520C647A}" name="Início" dataCellStyle="Data"/>
     <tableColumn id="6" xr3:uid="{93E698DE-286F-49ED-AA20-D0C843671DE8}" name="Dias"/>
@@ -3464,7 +3924,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{876EA49D-634E-482B-8173-880F7B761E2C}" name="Milestones43524" displayName="Milestones43524" ref="B9:G36" totalsRowShown="0" headerRowDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{876EA49D-634E-482B-8173-880F7B761E2C}" name="Milestones43524" displayName="Milestones43524" ref="B9:G36" totalsRowShown="0" headerRowDxfId="96">
   <autoFilter ref="B9:G36" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3474,9 +3934,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0971B905-713A-4980-8BBC-DF959C2E61F9}" name="Descrição do marco" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{4492A0B8-068F-4002-9E8D-E1F5FED367F0}" name="Categoria" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{DF1A764E-7050-4528-B7F9-B6AB99372146}" name="Atribuído a" dataDxfId="63"/>
+    <tableColumn id="1" xr3:uid="{0971B905-713A-4980-8BBC-DF959C2E61F9}" name="Descrição do marco" dataDxfId="95"/>
+    <tableColumn id="2" xr3:uid="{4492A0B8-068F-4002-9E8D-E1F5FED367F0}" name="Categoria" dataDxfId="94"/>
+    <tableColumn id="3" xr3:uid="{DF1A764E-7050-4528-B7F9-B6AB99372146}" name="Atribuído a" dataDxfId="93"/>
     <tableColumn id="4" xr3:uid="{47C54592-75B0-4C70-BBF8-0F40483670E9}" name="Progresso"/>
     <tableColumn id="5" xr3:uid="{663FB5E0-7616-4EA5-B56A-FF069E2E07D7}" name="Início" dataCellStyle="Data"/>
     <tableColumn id="6" xr3:uid="{3B766962-C06F-4E12-BE91-12AB93439874}" name="Dias"/>
@@ -11107,39 +11567,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL36">
-    <cfRule type="expression" dxfId="62" priority="1">
+    <cfRule type="expression" dxfId="92" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="61" priority="4">
+    <cfRule type="expression" dxfId="91" priority="4">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="60" priority="3">
+    <cfRule type="expression" dxfId="90" priority="3">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="59" priority="2">
+    <cfRule type="expression" dxfId="89" priority="2">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL35">
-    <cfRule type="expression" dxfId="58" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="7" stopIfTrue="1">
       <formula>AND($C10="Baixo risco",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="8" stopIfTrue="1">
       <formula>AND($C10="Alto risco",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="9" stopIfTrue="1">
       <formula>AND($C10="No prazo",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="10" stopIfTrue="1">
       <formula>AND($C10="Médio risco",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="11" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11273,10 +11733,10 @@
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BP38"/>
+  <dimension ref="A1:BP50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11286,7 +11746,7 @@
     <col min="3" max="3" width="13.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" style="12" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="0.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" style="12" customWidth="1"/>
     <col min="8" max="8" width="2.7109375" style="12" customWidth="1"/>
     <col min="9" max="64" width="3.5703125" style="12" customWidth="1"/>
@@ -12300,227 +12760,227 @@
       <c r="G11" s="25"/>
       <c r="H11" s="20"/>
       <c r="I11" s="48" t="str">
-        <f t="shared" ref="I11:X26" ca="1" si="4">IF(AND($C11="Objetivo",I$7&gt;=$F11,I$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",I$7&gt;=$F11,I$7&lt;=$F11+$G11-1),1,""))</f>
+        <f ca="1">IF(AND($C11="Objetivo",I$7&gt;=$F11,I$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",I$7&gt;=$F11,I$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="J11" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C11="Objetivo",J$7&gt;=$F11,J$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",J$7&gt;=$F11,J$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="K11" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C11="Objetivo",K$7&gt;=$F11,K$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",K$7&gt;=$F11,K$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="L11" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C11="Objetivo",L$7&gt;=$F11,L$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",L$7&gt;=$F11,L$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="M11" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C11="Objetivo",M$7&gt;=$F11,M$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",M$7&gt;=$F11,M$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="N11" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C11="Objetivo",N$7&gt;=$F11,N$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",N$7&gt;=$F11,N$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="O11" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C11="Objetivo",O$7&gt;=$F11,O$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",O$7&gt;=$F11,O$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="P11" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C11="Objetivo",P$7&gt;=$F11,P$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",P$7&gt;=$F11,P$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="Q11" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C11="Objetivo",Q$7&gt;=$F11,Q$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",Q$7&gt;=$F11,Q$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="R11" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C11="Objetivo",R$7&gt;=$F11,R$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",R$7&gt;=$F11,R$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="S11" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C11="Objetivo",S$7&gt;=$F11,S$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",S$7&gt;=$F11,S$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="T11" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C11="Objetivo",T$7&gt;=$F11,T$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",T$7&gt;=$F11,T$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="U11" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C11="Objetivo",U$7&gt;=$F11,U$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",U$7&gt;=$F11,U$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="V11" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C11="Objetivo",V$7&gt;=$F11,V$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",V$7&gt;=$F11,V$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="W11" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C11="Objetivo",W$7&gt;=$F11,W$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",W$7&gt;=$F11,W$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="X11" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C11="Objetivo",X$7&gt;=$F11,X$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",X$7&gt;=$F11,X$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="Y11" s="28" t="str">
-        <f t="shared" ref="Y11:AN26" ca="1" si="5">IF(AND($C11="Objetivo",Y$7&gt;=$F11,Y$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",Y$7&gt;=$F11,Y$7&lt;=$F11+$G11-1),1,""))</f>
+        <f ca="1">IF(AND($C11="Objetivo",Y$7&gt;=$F11,Y$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",Y$7&gt;=$F11,Y$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="Z11" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C11="Objetivo",Z$7&gt;=$F11,Z$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",Z$7&gt;=$F11,Z$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="AA11" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C11="Objetivo",AA$7&gt;=$F11,AA$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",AA$7&gt;=$F11,AA$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="AB11" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C11="Objetivo",AB$7&gt;=$F11,AB$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",AB$7&gt;=$F11,AB$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="AC11" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C11="Objetivo",AC$7&gt;=$F11,AC$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",AC$7&gt;=$F11,AC$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="AD11" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C11="Objetivo",AD$7&gt;=$F11,AD$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",AD$7&gt;=$F11,AD$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="AE11" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C11="Objetivo",AE$7&gt;=$F11,AE$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",AE$7&gt;=$F11,AE$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="AF11" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C11="Objetivo",AF$7&gt;=$F11,AF$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",AF$7&gt;=$F11,AF$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="AG11" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C11="Objetivo",AG$7&gt;=$F11,AG$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",AG$7&gt;=$F11,AG$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="AH11" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C11="Objetivo",AH$7&gt;=$F11,AH$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",AH$7&gt;=$F11,AH$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="AI11" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C11="Objetivo",AI$7&gt;=$F11,AI$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",AI$7&gt;=$F11,AI$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ11" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C11="Objetivo",AJ$7&gt;=$F11,AJ$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",AJ$7&gt;=$F11,AJ$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="AK11" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C11="Objetivo",AK$7&gt;=$F11,AK$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",AK$7&gt;=$F11,AK$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="AL11" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C11="Objetivo",AL$7&gt;=$F11,AL$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",AL$7&gt;=$F11,AL$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="AM11" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C11="Objetivo",AM$7&gt;=$F11,AM$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",AM$7&gt;=$F11,AM$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="AN11" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C11="Objetivo",AN$7&gt;=$F11,AN$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",AN$7&gt;=$F11,AN$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="AO11" s="28" t="str">
-        <f t="shared" ref="AO11:BD26" ca="1" si="6">IF(AND($C11="Objetivo",AO$7&gt;=$F11,AO$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",AO$7&gt;=$F11,AO$7&lt;=$F11+$G11-1),1,""))</f>
+        <f ca="1">IF(AND($C11="Objetivo",AO$7&gt;=$F11,AO$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",AO$7&gt;=$F11,AO$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="AP11" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C11="Objetivo",AP$7&gt;=$F11,AP$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",AP$7&gt;=$F11,AP$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ11" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C11="Objetivo",AQ$7&gt;=$F11,AQ$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",AQ$7&gt;=$F11,AQ$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="AR11" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C11="Objetivo",AR$7&gt;=$F11,AR$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",AR$7&gt;=$F11,AR$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="AS11" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C11="Objetivo",AS$7&gt;=$F11,AS$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",AS$7&gt;=$F11,AS$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="AT11" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C11="Objetivo",AT$7&gt;=$F11,AT$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",AT$7&gt;=$F11,AT$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="AU11" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C11="Objetivo",AU$7&gt;=$F11,AU$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",AU$7&gt;=$F11,AU$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="AV11" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C11="Objetivo",AV$7&gt;=$F11,AV$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",AV$7&gt;=$F11,AV$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="AW11" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C11="Objetivo",AW$7&gt;=$F11,AW$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",AW$7&gt;=$F11,AW$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="AX11" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C11="Objetivo",AX$7&gt;=$F11,AX$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",AX$7&gt;=$F11,AX$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="AY11" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C11="Objetivo",AY$7&gt;=$F11,AY$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",AY$7&gt;=$F11,AY$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ11" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C11="Objetivo",AZ$7&gt;=$F11,AZ$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",AZ$7&gt;=$F11,AZ$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="BA11" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C11="Objetivo",BA$7&gt;=$F11,BA$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",BA$7&gt;=$F11,BA$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="BB11" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C11="Objetivo",BB$7&gt;=$F11,BB$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",BB$7&gt;=$F11,BB$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="BC11" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C11="Objetivo",BC$7&gt;=$F11,BC$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",BC$7&gt;=$F11,BC$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="BD11" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C11="Objetivo",BD$7&gt;=$F11,BD$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",BD$7&gt;=$F11,BD$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="BE11" s="28" t="str">
-        <f t="shared" ref="BE11:BL26" ca="1" si="7">IF(AND($C11="Objetivo",BE$7&gt;=$F11,BE$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",BE$7&gt;=$F11,BE$7&lt;=$F11+$G11-1),1,""))</f>
+        <f ca="1">IF(AND($C11="Objetivo",BE$7&gt;=$F11,BE$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",BE$7&gt;=$F11,BE$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="BF11" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C11="Objetivo",BF$7&gt;=$F11,BF$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",BF$7&gt;=$F11,BF$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="BG11" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C11="Objetivo",BG$7&gt;=$F11,BG$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",BG$7&gt;=$F11,BG$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="BH11" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C11="Objetivo",BH$7&gt;=$F11,BH$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",BH$7&gt;=$F11,BH$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="BI11" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C11="Objetivo",BI$7&gt;=$F11,BI$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",BI$7&gt;=$F11,BI$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ11" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C11="Objetivo",BJ$7&gt;=$F11,BJ$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",BJ$7&gt;=$F11,BJ$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="BK11" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C11="Objetivo",BK$7&gt;=$F11,BK$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",BK$7&gt;=$F11,BK$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="BL11" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C11="Objetivo",BL$7&gt;=$F11,BL$7&lt;=$F11+$G11-1),2,IF(AND($C11="Marco",BL$7&gt;=$F11,BL$7&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="BM11" s="29"/>
@@ -12556,13 +13016,13 @@
         <f ca="1">IF(AND($C12="Objetivo",N$7&gt;=$F12,N$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",N$7&gt;=$F12,N$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
-      <c r="O12" s="169" t="str">
+      <c r="O12" s="166" t="str">
         <f ca="1">IF(AND($C12="Objetivo",O$7&gt;=$F12,O$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",O$7&gt;=$F12,O$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
-      <c r="P12" s="170"/>
-      <c r="Q12" s="170"/>
-      <c r="R12" s="171"/>
+      <c r="P12" s="167"/>
+      <c r="Q12" s="167"/>
+      <c r="R12" s="168"/>
       <c r="S12" s="28" t="str">
         <f ca="1">IF(AND($C12="Objetivo",S$7&gt;=$F12,S$7&lt;=$F12+$G12-1),2,IF(AND($C12="Marco",S$7&gt;=$F12,S$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
@@ -12759,227 +13219,227 @@
       <c r="G13" s="25"/>
       <c r="H13" s="20"/>
       <c r="I13" s="48" t="str">
-        <f t="shared" ref="I13:X28" ca="1" si="8">IF(AND($C13="Objetivo",I$7&gt;=$F13,I$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",I$7&gt;=$F13,I$7&lt;=$F13+$G13-1),1,""))</f>
+        <f ca="1">IF(AND($C13="Objetivo",I$7&gt;=$F13,I$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",I$7&gt;=$F13,I$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="J13" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C13="Objetivo",J$7&gt;=$F13,J$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",J$7&gt;=$F13,J$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="K13" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C13="Objetivo",K$7&gt;=$F13,K$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",K$7&gt;=$F13,K$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="L13" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C13="Objetivo",L$7&gt;=$F13,L$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",L$7&gt;=$F13,L$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="M13" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C13="Objetivo",M$7&gt;=$F13,M$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",M$7&gt;=$F13,M$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="N13" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C13="Objetivo",N$7&gt;=$F13,N$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",N$7&gt;=$F13,N$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="O13" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C13="Objetivo",O$7&gt;=$F13,O$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",O$7&gt;=$F13,O$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="P13" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C13="Objetivo",P$7&gt;=$F13,P$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",P$7&gt;=$F13,P$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="Q13" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C13="Objetivo",Q$7&gt;=$F13,Q$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",Q$7&gt;=$F13,Q$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="R13" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C13="Objetivo",R$7&gt;=$F13,R$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",R$7&gt;=$F13,R$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="S13" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C13="Objetivo",S$7&gt;=$F13,S$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",S$7&gt;=$F13,S$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="T13" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C13="Objetivo",T$7&gt;=$F13,T$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",T$7&gt;=$F13,T$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="U13" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C13="Objetivo",U$7&gt;=$F13,U$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",U$7&gt;=$F13,U$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="V13" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C13="Objetivo",V$7&gt;=$F13,V$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",V$7&gt;=$F13,V$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="W13" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C13="Objetivo",W$7&gt;=$F13,W$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",W$7&gt;=$F13,W$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="X13" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C13="Objetivo",X$7&gt;=$F13,X$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",X$7&gt;=$F13,X$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="Y13" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C13="Objetivo",Y$7&gt;=$F13,Y$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",Y$7&gt;=$F13,Y$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="Z13" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C13="Objetivo",Z$7&gt;=$F13,Z$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",Z$7&gt;=$F13,Z$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="AA13" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C13="Objetivo",AA$7&gt;=$F13,AA$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",AA$7&gt;=$F13,AA$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="AB13" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C13="Objetivo",AB$7&gt;=$F13,AB$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",AB$7&gt;=$F13,AB$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="AC13" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C13="Objetivo",AC$7&gt;=$F13,AC$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",AC$7&gt;=$F13,AC$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="AD13" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C13="Objetivo",AD$7&gt;=$F13,AD$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",AD$7&gt;=$F13,AD$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="AE13" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C13="Objetivo",AE$7&gt;=$F13,AE$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",AE$7&gt;=$F13,AE$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="AF13" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C13="Objetivo",AF$7&gt;=$F13,AF$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",AF$7&gt;=$F13,AF$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="AG13" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C13="Objetivo",AG$7&gt;=$F13,AG$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",AG$7&gt;=$F13,AG$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="AH13" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C13="Objetivo",AH$7&gt;=$F13,AH$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",AH$7&gt;=$F13,AH$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="AI13" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C13="Objetivo",AI$7&gt;=$F13,AI$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",AI$7&gt;=$F13,AI$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ13" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C13="Objetivo",AJ$7&gt;=$F13,AJ$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",AJ$7&gt;=$F13,AJ$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="AK13" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C13="Objetivo",AK$7&gt;=$F13,AK$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",AK$7&gt;=$F13,AK$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="AL13" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C13="Objetivo",AL$7&gt;=$F13,AL$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",AL$7&gt;=$F13,AL$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="AM13" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C13="Objetivo",AM$7&gt;=$F13,AM$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",AM$7&gt;=$F13,AM$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="AN13" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C13="Objetivo",AN$7&gt;=$F13,AN$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",AN$7&gt;=$F13,AN$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="AO13" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C13="Objetivo",AO$7&gt;=$F13,AO$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",AO$7&gt;=$F13,AO$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="AP13" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C13="Objetivo",AP$7&gt;=$F13,AP$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",AP$7&gt;=$F13,AP$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ13" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C13="Objetivo",AQ$7&gt;=$F13,AQ$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",AQ$7&gt;=$F13,AQ$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="AR13" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C13="Objetivo",AR$7&gt;=$F13,AR$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",AR$7&gt;=$F13,AR$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="AS13" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C13="Objetivo",AS$7&gt;=$F13,AS$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",AS$7&gt;=$F13,AS$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="AT13" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C13="Objetivo",AT$7&gt;=$F13,AT$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",AT$7&gt;=$F13,AT$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="AU13" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C13="Objetivo",AU$7&gt;=$F13,AU$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",AU$7&gt;=$F13,AU$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="AV13" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C13="Objetivo",AV$7&gt;=$F13,AV$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",AV$7&gt;=$F13,AV$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="AW13" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C13="Objetivo",AW$7&gt;=$F13,AW$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",AW$7&gt;=$F13,AW$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="AX13" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C13="Objetivo",AX$7&gt;=$F13,AX$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",AX$7&gt;=$F13,AX$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="AY13" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C13="Objetivo",AY$7&gt;=$F13,AY$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",AY$7&gt;=$F13,AY$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ13" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C13="Objetivo",AZ$7&gt;=$F13,AZ$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",AZ$7&gt;=$F13,AZ$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="BA13" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C13="Objetivo",BA$7&gt;=$F13,BA$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",BA$7&gt;=$F13,BA$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="BB13" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C13="Objetivo",BB$7&gt;=$F13,BB$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",BB$7&gt;=$F13,BB$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="BC13" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C13="Objetivo",BC$7&gt;=$F13,BC$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",BC$7&gt;=$F13,BC$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="BD13" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C13="Objetivo",BD$7&gt;=$F13,BD$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",BD$7&gt;=$F13,BD$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="BE13" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C13="Objetivo",BE$7&gt;=$F13,BE$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",BE$7&gt;=$F13,BE$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="BF13" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C13="Objetivo",BF$7&gt;=$F13,BF$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",BF$7&gt;=$F13,BF$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="BG13" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C13="Objetivo",BG$7&gt;=$F13,BG$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",BG$7&gt;=$F13,BG$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="BH13" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C13="Objetivo",BH$7&gt;=$F13,BH$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",BH$7&gt;=$F13,BH$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="BI13" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C13="Objetivo",BI$7&gt;=$F13,BI$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",BI$7&gt;=$F13,BI$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ13" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C13="Objetivo",BJ$7&gt;=$F13,BJ$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",BJ$7&gt;=$F13,BJ$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="BK13" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C13="Objetivo",BK$7&gt;=$F13,BK$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",BK$7&gt;=$F13,BK$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="BL13" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C13="Objetivo",BL$7&gt;=$F13,BL$7&lt;=$F13+$G13-1),2,IF(AND($C13="Marco",BL$7&gt;=$F13,BL$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="BM13" s="29"/>
@@ -12987,7 +13447,7 @@
     <row r="14" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="26" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>36</v>
@@ -13006,20 +13466,20 @@
       </c>
       <c r="H14" s="20"/>
       <c r="I14" s="48" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C14="Objetivo",I$7&gt;=$F14,I$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",I$7&gt;=$F14,I$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="J14" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C14="Objetivo",J$7&gt;=$F14,J$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",J$7&gt;=$F14,J$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="K14" s="28"/>
       <c r="L14" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C14="Objetivo",L$7&gt;=$F14,L$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",L$7&gt;=$F14,L$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="M14" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C14="Objetivo",M$7&gt;=$F14,M$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",M$7&gt;=$F14,M$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="N14" s="157"/>
@@ -13027,191 +13487,191 @@
       <c r="P14" s="157"/>
       <c r="Q14" s="158"/>
       <c r="R14" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C14="Objetivo",R$7&gt;=$F14,R$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",R$7&gt;=$F14,R$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="S14" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C14="Objetivo",S$7&gt;=$F14,S$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",S$7&gt;=$F14,S$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="T14" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C14="Objetivo",T$7&gt;=$F14,T$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",T$7&gt;=$F14,T$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="U14" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C14="Objetivo",U$7&gt;=$F14,U$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",U$7&gt;=$F14,U$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="V14" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C14="Objetivo",V$7&gt;=$F14,V$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",V$7&gt;=$F14,V$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="W14" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C14="Objetivo",W$7&gt;=$F14,W$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",W$7&gt;=$F14,W$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="X14" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C14="Objetivo",X$7&gt;=$F14,X$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",X$7&gt;=$F14,X$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="Y14" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C14="Objetivo",Y$7&gt;=$F14,Y$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",Y$7&gt;=$F14,Y$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="Z14" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C14="Objetivo",Z$7&gt;=$F14,Z$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",Z$7&gt;=$F14,Z$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="AA14" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C14="Objetivo",AA$7&gt;=$F14,AA$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",AA$7&gt;=$F14,AA$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="AB14" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C14="Objetivo",AB$7&gt;=$F14,AB$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",AB$7&gt;=$F14,AB$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="AC14" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C14="Objetivo",AC$7&gt;=$F14,AC$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",AC$7&gt;=$F14,AC$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="AD14" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C14="Objetivo",AD$7&gt;=$F14,AD$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",AD$7&gt;=$F14,AD$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="AE14" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C14="Objetivo",AE$7&gt;=$F14,AE$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",AE$7&gt;=$F14,AE$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="AF14" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C14="Objetivo",AF$7&gt;=$F14,AF$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",AF$7&gt;=$F14,AF$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="AG14" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C14="Objetivo",AG$7&gt;=$F14,AG$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",AG$7&gt;=$F14,AG$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="AH14" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C14="Objetivo",AH$7&gt;=$F14,AH$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",AH$7&gt;=$F14,AH$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="AI14" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C14="Objetivo",AI$7&gt;=$F14,AI$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",AI$7&gt;=$F14,AI$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ14" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C14="Objetivo",AJ$7&gt;=$F14,AJ$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",AJ$7&gt;=$F14,AJ$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="AK14" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C14="Objetivo",AK$7&gt;=$F14,AK$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",AK$7&gt;=$F14,AK$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="AL14" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C14="Objetivo",AL$7&gt;=$F14,AL$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",AL$7&gt;=$F14,AL$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="AM14" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C14="Objetivo",AM$7&gt;=$F14,AM$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",AM$7&gt;=$F14,AM$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="AN14" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C14="Objetivo",AN$7&gt;=$F14,AN$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",AN$7&gt;=$F14,AN$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="AO14" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C14="Objetivo",AO$7&gt;=$F14,AO$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",AO$7&gt;=$F14,AO$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="AP14" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C14="Objetivo",AP$7&gt;=$F14,AP$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",AP$7&gt;=$F14,AP$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ14" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C14="Objetivo",AQ$7&gt;=$F14,AQ$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",AQ$7&gt;=$F14,AQ$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="AR14" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C14="Objetivo",AR$7&gt;=$F14,AR$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",AR$7&gt;=$F14,AR$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="AS14" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C14="Objetivo",AS$7&gt;=$F14,AS$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",AS$7&gt;=$F14,AS$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="AT14" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C14="Objetivo",AT$7&gt;=$F14,AT$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",AT$7&gt;=$F14,AT$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="AU14" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C14="Objetivo",AU$7&gt;=$F14,AU$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",AU$7&gt;=$F14,AU$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="AV14" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C14="Objetivo",AV$7&gt;=$F14,AV$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",AV$7&gt;=$F14,AV$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="AW14" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C14="Objetivo",AW$7&gt;=$F14,AW$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",AW$7&gt;=$F14,AW$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="AX14" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C14="Objetivo",AX$7&gt;=$F14,AX$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",AX$7&gt;=$F14,AX$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="AY14" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C14="Objetivo",AY$7&gt;=$F14,AY$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",AY$7&gt;=$F14,AY$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ14" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C14="Objetivo",AZ$7&gt;=$F14,AZ$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",AZ$7&gt;=$F14,AZ$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="BA14" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C14="Objetivo",BA$7&gt;=$F14,BA$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",BA$7&gt;=$F14,BA$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="BB14" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C14="Objetivo",BB$7&gt;=$F14,BB$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",BB$7&gt;=$F14,BB$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="BC14" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C14="Objetivo",BC$7&gt;=$F14,BC$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",BC$7&gt;=$F14,BC$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="BD14" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C14="Objetivo",BD$7&gt;=$F14,BD$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",BD$7&gt;=$F14,BD$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="BE14" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C14="Objetivo",BE$7&gt;=$F14,BE$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",BE$7&gt;=$F14,BE$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="BF14" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C14="Objetivo",BF$7&gt;=$F14,BF$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",BF$7&gt;=$F14,BF$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="BG14" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C14="Objetivo",BG$7&gt;=$F14,BG$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",BG$7&gt;=$F14,BG$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="BH14" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C14="Objetivo",BH$7&gt;=$F14,BH$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",BH$7&gt;=$F14,BH$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="BI14" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C14="Objetivo",BI$7&gt;=$F14,BI$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",BI$7&gt;=$F14,BI$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ14" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C14="Objetivo",BJ$7&gt;=$F14,BJ$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",BJ$7&gt;=$F14,BJ$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="BK14" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C14="Objetivo",BK$7&gt;=$F14,BK$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",BK$7&gt;=$F14,BK$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="BL14" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C14="Objetivo",BL$7&gt;=$F14,BL$7&lt;=$F14+$G14-1),2,IF(AND($C14="Marco",BL$7&gt;=$F14,BL$7&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="BM14" s="29"/>
@@ -13226,215 +13686,227 @@
       <c r="G15" s="25"/>
       <c r="H15" s="20"/>
       <c r="I15" s="48" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C15="Objetivo",I$7&gt;=$F15,I$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",I$7&gt;=$F15,I$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="J15" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C15="Objetivo",J$7&gt;=$F15,J$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",J$7&gt;=$F15,J$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="K15" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C15="Objetivo",K$7&gt;=$F15,K$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",K$7&gt;=$F15,K$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="L15" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C15="Objetivo",L$7&gt;=$F15,L$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",L$7&gt;=$F15,L$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="M15" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C15="Objetivo",M$7&gt;=$F15,M$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",M$7&gt;=$F15,M$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="N15" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="O15" s="157"/>
-      <c r="P15" s="157"/>
-      <c r="Q15" s="157"/>
-      <c r="R15" s="158"/>
+        <f ca="1">IF(AND($C15="Objetivo",N$7&gt;=$F15,N$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",N$7&gt;=$F15,N$7&lt;=$F15+$G15-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="O15" s="28" t="str">
+        <f ca="1">IF(AND($C15="Objetivo",O$7&gt;=$F15,O$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",O$7&gt;=$F15,O$7&lt;=$F15+$G15-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="P15" s="28" t="str">
+        <f ca="1">IF(AND($C15="Objetivo",P$7&gt;=$F15,P$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",P$7&gt;=$F15,P$7&lt;=$F15+$G15-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="Q15" s="28" t="str">
+        <f ca="1">IF(AND($C15="Objetivo",Q$7&gt;=$F15,Q$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",Q$7&gt;=$F15,Q$7&lt;=$F15+$G15-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="R15" s="28" t="str">
+        <f ca="1">IF(AND($C15="Objetivo",R$7&gt;=$F15,R$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",R$7&gt;=$F15,R$7&lt;=$F15+$G15-1),1,""))</f>
+        <v/>
+      </c>
       <c r="S15" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C15="Objetivo",S$7&gt;=$F15,S$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",S$7&gt;=$F15,S$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="T15" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C15="Objetivo",T$7&gt;=$F15,T$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",T$7&gt;=$F15,T$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="U15" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C15="Objetivo",U$7&gt;=$F15,U$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",U$7&gt;=$F15,U$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="V15" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C15="Objetivo",V$7&gt;=$F15,V$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",V$7&gt;=$F15,V$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="W15" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C15="Objetivo",W$7&gt;=$F15,W$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",W$7&gt;=$F15,W$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="X15" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C15="Objetivo",X$7&gt;=$F15,X$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",X$7&gt;=$F15,X$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="Y15" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C15="Objetivo",Y$7&gt;=$F15,Y$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",Y$7&gt;=$F15,Y$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="Z15" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C15="Objetivo",Z$7&gt;=$F15,Z$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",Z$7&gt;=$F15,Z$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="AA15" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C15="Objetivo",AA$7&gt;=$F15,AA$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",AA$7&gt;=$F15,AA$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="AB15" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C15="Objetivo",AB$7&gt;=$F15,AB$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",AB$7&gt;=$F15,AB$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="AC15" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C15="Objetivo",AC$7&gt;=$F15,AC$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",AC$7&gt;=$F15,AC$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="AD15" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C15="Objetivo",AD$7&gt;=$F15,AD$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",AD$7&gt;=$F15,AD$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="AE15" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C15="Objetivo",AE$7&gt;=$F15,AE$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",AE$7&gt;=$F15,AE$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="AF15" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C15="Objetivo",AF$7&gt;=$F15,AF$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",AF$7&gt;=$F15,AF$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="AG15" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C15="Objetivo",AG$7&gt;=$F15,AG$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",AG$7&gt;=$F15,AG$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="AH15" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C15="Objetivo",AH$7&gt;=$F15,AH$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",AH$7&gt;=$F15,AH$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="AI15" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C15="Objetivo",AI$7&gt;=$F15,AI$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",AI$7&gt;=$F15,AI$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ15" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C15="Objetivo",AJ$7&gt;=$F15,AJ$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",AJ$7&gt;=$F15,AJ$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="AK15" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C15="Objetivo",AK$7&gt;=$F15,AK$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",AK$7&gt;=$F15,AK$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="AL15" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C15="Objetivo",AL$7&gt;=$F15,AL$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",AL$7&gt;=$F15,AL$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="AM15" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C15="Objetivo",AM$7&gt;=$F15,AM$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",AM$7&gt;=$F15,AM$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="AN15" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C15="Objetivo",AN$7&gt;=$F15,AN$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",AN$7&gt;=$F15,AN$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="AO15" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C15="Objetivo",AO$7&gt;=$F15,AO$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",AO$7&gt;=$F15,AO$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="AP15" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C15="Objetivo",AP$7&gt;=$F15,AP$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",AP$7&gt;=$F15,AP$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ15" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C15="Objetivo",AQ$7&gt;=$F15,AQ$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",AQ$7&gt;=$F15,AQ$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="AR15" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C15="Objetivo",AR$7&gt;=$F15,AR$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",AR$7&gt;=$F15,AR$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="AS15" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C15="Objetivo",AS$7&gt;=$F15,AS$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",AS$7&gt;=$F15,AS$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="AT15" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C15="Objetivo",AT$7&gt;=$F15,AT$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",AT$7&gt;=$F15,AT$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="AU15" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C15="Objetivo",AU$7&gt;=$F15,AU$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",AU$7&gt;=$F15,AU$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="AV15" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C15="Objetivo",AV$7&gt;=$F15,AV$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",AV$7&gt;=$F15,AV$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="AW15" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C15="Objetivo",AW$7&gt;=$F15,AW$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",AW$7&gt;=$F15,AW$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="AX15" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C15="Objetivo",AX$7&gt;=$F15,AX$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",AX$7&gt;=$F15,AX$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="AY15" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C15="Objetivo",AY$7&gt;=$F15,AY$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",AY$7&gt;=$F15,AY$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ15" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C15="Objetivo",AZ$7&gt;=$F15,AZ$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",AZ$7&gt;=$F15,AZ$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="BA15" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C15="Objetivo",BA$7&gt;=$F15,BA$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",BA$7&gt;=$F15,BA$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="BB15" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C15="Objetivo",BB$7&gt;=$F15,BB$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",BB$7&gt;=$F15,BB$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="BC15" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C15="Objetivo",BC$7&gt;=$F15,BC$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",BC$7&gt;=$F15,BC$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="BD15" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C15="Objetivo",BD$7&gt;=$F15,BD$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",BD$7&gt;=$F15,BD$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="BE15" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C15="Objetivo",BE$7&gt;=$F15,BE$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",BE$7&gt;=$F15,BE$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="BF15" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C15="Objetivo",BF$7&gt;=$F15,BF$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",BF$7&gt;=$F15,BF$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="BG15" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C15="Objetivo",BG$7&gt;=$F15,BG$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",BG$7&gt;=$F15,BG$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="BH15" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C15="Objetivo",BH$7&gt;=$F15,BH$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",BH$7&gt;=$F15,BH$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="BI15" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C15="Objetivo",BI$7&gt;=$F15,BI$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",BI$7&gt;=$F15,BI$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ15" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C15="Objetivo",BJ$7&gt;=$F15,BJ$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",BJ$7&gt;=$F15,BJ$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="BK15" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C15="Objetivo",BK$7&gt;=$F15,BK$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",BK$7&gt;=$F15,BK$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="BL15" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C15="Objetivo",BL$7&gt;=$F15,BL$7&lt;=$F15+$G15-1),2,IF(AND($C15="Marco",BL$7&gt;=$F15,BL$7&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="BM15" s="29"/>
@@ -13442,7 +13914,7 @@
     <row r="16" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>36</v>
@@ -13462,27 +13934,27 @@
       </c>
       <c r="H16" s="20"/>
       <c r="I16" s="48" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C16="Objetivo",I$7&gt;=$F16,I$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",I$7&gt;=$F16,I$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="J16" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C16="Objetivo",J$7&gt;=$F16,J$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",J$7&gt;=$F16,J$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="K16" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C16="Objetivo",K$7&gt;=$F16,K$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",K$7&gt;=$F16,K$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="L16" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C16="Objetivo",L$7&gt;=$F16,L$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",L$7&gt;=$F16,L$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="M16" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C16="Objetivo",M$7&gt;=$F16,M$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",M$7&gt;=$F16,M$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="N16" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C16="Objetivo",N$7&gt;=$F16,N$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",N$7&gt;=$F16,N$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="O16" s="156"/>
@@ -13492,43 +13964,43 @@
       <c r="S16" s="157"/>
       <c r="T16" s="158"/>
       <c r="U16" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C16="Objetivo",U$7&gt;=$F16,U$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",U$7&gt;=$F16,U$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="V16" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C16="Objetivo",V$7&gt;=$F16,V$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",V$7&gt;=$F16,V$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="W16" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C16="Objetivo",W$7&gt;=$F16,W$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",W$7&gt;=$F16,W$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="X16" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C16="Objetivo",X$7&gt;=$F16,X$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",X$7&gt;=$F16,X$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="Y16" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C16="Objetivo",Y$7&gt;=$F16,Y$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",Y$7&gt;=$F16,Y$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="Z16" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C16="Objetivo",Z$7&gt;=$F16,Z$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",Z$7&gt;=$F16,Z$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="AA16" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C16="Objetivo",AA$7&gt;=$F16,AA$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",AA$7&gt;=$F16,AA$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="AB16" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C16="Objetivo",AB$7&gt;=$F16,AB$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",AB$7&gt;=$F16,AB$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="AC16" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C16="Objetivo",AC$7&gt;=$F16,AC$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",AC$7&gt;=$F16,AC$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="AD16" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C16="Objetivo",AD$7&gt;=$F16,AD$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",AD$7&gt;=$F16,AD$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="AE16" s="28" t="str">
@@ -13536,135 +14008,135 @@
         <v/>
       </c>
       <c r="AF16" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C16="Objetivo",AF$7&gt;=$F16,AF$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",AF$7&gt;=$F16,AF$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="AG16" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C16="Objetivo",AG$7&gt;=$F16,AG$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",AG$7&gt;=$F16,AG$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="AH16" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C16="Objetivo",AH$7&gt;=$F16,AH$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",AH$7&gt;=$F16,AH$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="AI16" s="28" t="str">
-        <f t="shared" ref="AI16:BL16" ca="1" si="9">IF(AND($C16="Objetivo",AI$7&gt;=$F16,AI$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",AI$7&gt;=$F16,AI$7&lt;=$F16+$G16-1),1,""))</f>
+        <f ca="1">IF(AND($C16="Objetivo",AI$7&gt;=$F16,AI$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",AI$7&gt;=$F16,AI$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ16" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C16="Objetivo",AJ$7&gt;=$F16,AJ$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",AJ$7&gt;=$F16,AJ$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="AK16" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C16="Objetivo",AK$7&gt;=$F16,AK$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",AK$7&gt;=$F16,AK$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="AL16" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C16="Objetivo",AL$7&gt;=$F16,AL$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",AL$7&gt;=$F16,AL$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="AM16" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C16="Objetivo",AM$7&gt;=$F16,AM$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",AM$7&gt;=$F16,AM$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="AN16" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C16="Objetivo",AN$7&gt;=$F16,AN$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",AN$7&gt;=$F16,AN$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="AO16" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C16="Objetivo",AO$7&gt;=$F16,AO$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",AO$7&gt;=$F16,AO$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="AP16" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C16="Objetivo",AP$7&gt;=$F16,AP$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",AP$7&gt;=$F16,AP$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ16" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C16="Objetivo",AQ$7&gt;=$F16,AQ$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",AQ$7&gt;=$F16,AQ$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="AR16" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C16="Objetivo",AR$7&gt;=$F16,AR$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",AR$7&gt;=$F16,AR$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="AS16" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C16="Objetivo",AS$7&gt;=$F16,AS$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",AS$7&gt;=$F16,AS$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="AT16" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C16="Objetivo",AT$7&gt;=$F16,AT$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",AT$7&gt;=$F16,AT$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="AU16" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C16="Objetivo",AU$7&gt;=$F16,AU$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",AU$7&gt;=$F16,AU$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="AV16" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C16="Objetivo",AV$7&gt;=$F16,AV$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",AV$7&gt;=$F16,AV$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="AW16" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C16="Objetivo",AW$7&gt;=$F16,AW$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",AW$7&gt;=$F16,AW$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="AX16" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C16="Objetivo",AX$7&gt;=$F16,AX$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",AX$7&gt;=$F16,AX$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="AY16" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C16="Objetivo",AY$7&gt;=$F16,AY$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",AY$7&gt;=$F16,AY$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ16" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C16="Objetivo",AZ$7&gt;=$F16,AZ$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",AZ$7&gt;=$F16,AZ$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="BA16" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C16="Objetivo",BA$7&gt;=$F16,BA$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",BA$7&gt;=$F16,BA$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="BB16" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C16="Objetivo",BB$7&gt;=$F16,BB$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",BB$7&gt;=$F16,BB$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="BC16" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C16="Objetivo",BC$7&gt;=$F16,BC$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",BC$7&gt;=$F16,BC$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="BD16" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C16="Objetivo",BD$7&gt;=$F16,BD$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",BD$7&gt;=$F16,BD$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="BE16" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C16="Objetivo",BE$7&gt;=$F16,BE$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",BE$7&gt;=$F16,BE$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="BF16" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C16="Objetivo",BF$7&gt;=$F16,BF$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",BF$7&gt;=$F16,BF$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="BG16" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C16="Objetivo",BG$7&gt;=$F16,BG$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",BG$7&gt;=$F16,BG$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="BH16" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C16="Objetivo",BH$7&gt;=$F16,BH$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",BH$7&gt;=$F16,BH$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="BI16" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C16="Objetivo",BI$7&gt;=$F16,BI$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",BI$7&gt;=$F16,BI$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ16" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C16="Objetivo",BJ$7&gt;=$F16,BJ$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",BJ$7&gt;=$F16,BJ$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="BK16" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C16="Objetivo",BK$7&gt;=$F16,BK$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",BK$7&gt;=$F16,BK$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="BL16" s="28" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C16="Objetivo",BL$7&gt;=$F16,BL$7&lt;=$F16+$G16-1),2,IF(AND($C16="Marco",BL$7&gt;=$F16,BL$7&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="BM16" s="29"/>
@@ -13679,227 +14151,227 @@
       <c r="G17" s="25"/>
       <c r="H17" s="20"/>
       <c r="I17" s="48" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C17="Objetivo",I$7&gt;=$F17,I$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",I$7&gt;=$F17,I$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="J17" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C17="Objetivo",J$7&gt;=$F17,J$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",J$7&gt;=$F17,J$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="K17" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C17="Objetivo",K$7&gt;=$F17,K$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",K$7&gt;=$F17,K$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="L17" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C17="Objetivo",L$7&gt;=$F17,L$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",L$7&gt;=$F17,L$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="M17" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C17="Objetivo",M$7&gt;=$F17,M$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",M$7&gt;=$F17,M$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="N17" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C17="Objetivo",N$7&gt;=$F17,N$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",N$7&gt;=$F17,N$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="O17" s="28" t="str">
-        <f t="shared" ref="O17:T25" ca="1" si="10">IF(AND($C17="Objetivo",O$7&gt;=$F17,O$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",O$7&gt;=$F17,O$7&lt;=$F17+$G17-1),1,""))</f>
+        <f ca="1">IF(AND($C17="Objetivo",O$7&gt;=$F17,O$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",O$7&gt;=$F17,O$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="P17" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C17="Objetivo",P$7&gt;=$F17,P$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",P$7&gt;=$F17,P$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="Q17" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C17="Objetivo",Q$7&gt;=$F17,Q$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",Q$7&gt;=$F17,Q$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="R17" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C17="Objetivo",R$7&gt;=$F17,R$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",R$7&gt;=$F17,R$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="S17" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C17="Objetivo",S$7&gt;=$F17,S$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",S$7&gt;=$F17,S$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="T17" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C17="Objetivo",T$7&gt;=$F17,T$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",T$7&gt;=$F17,T$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="U17" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C17="Objetivo",U$7&gt;=$F17,U$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",U$7&gt;=$F17,U$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="V17" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C17="Objetivo",V$7&gt;=$F17,V$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",V$7&gt;=$F17,V$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="W17" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C17="Objetivo",W$7&gt;=$F17,W$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",W$7&gt;=$F17,W$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="X17" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C17="Objetivo",X$7&gt;=$F17,X$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",X$7&gt;=$F17,X$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="Y17" s="28" t="str">
-        <f t="shared" ref="Y17:AN26" ca="1" si="11">IF(AND($C17="Objetivo",Y$7&gt;=$F17,Y$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",Y$7&gt;=$F17,Y$7&lt;=$F17+$G17-1),1,""))</f>
+        <f ca="1">IF(AND($C17="Objetivo",Y$7&gt;=$F17,Y$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",Y$7&gt;=$F17,Y$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="Z17" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C17="Objetivo",Z$7&gt;=$F17,Z$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",Z$7&gt;=$F17,Z$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AA17" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C17="Objetivo",AA$7&gt;=$F17,AA$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",AA$7&gt;=$F17,AA$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AB17" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C17="Objetivo",AB$7&gt;=$F17,AB$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",AB$7&gt;=$F17,AB$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AC17" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C17="Objetivo",AC$7&gt;=$F17,AC$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",AC$7&gt;=$F17,AC$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AD17" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C17="Objetivo",AD$7&gt;=$F17,AD$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",AD$7&gt;=$F17,AD$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AE17" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C17="Objetivo",AE$7&gt;=$F17,AE$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",AE$7&gt;=$F17,AE$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AF17" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C17="Objetivo",AF$7&gt;=$F17,AF$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",AF$7&gt;=$F17,AF$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AG17" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C17="Objetivo",AG$7&gt;=$F17,AG$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",AG$7&gt;=$F17,AG$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AH17" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C17="Objetivo",AH$7&gt;=$F17,AH$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",AH$7&gt;=$F17,AH$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AI17" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C17="Objetivo",AI$7&gt;=$F17,AI$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",AI$7&gt;=$F17,AI$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ17" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C17="Objetivo",AJ$7&gt;=$F17,AJ$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",AJ$7&gt;=$F17,AJ$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AK17" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C17="Objetivo",AK$7&gt;=$F17,AK$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",AK$7&gt;=$F17,AK$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AL17" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C17="Objetivo",AL$7&gt;=$F17,AL$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",AL$7&gt;=$F17,AL$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AM17" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C17="Objetivo",AM$7&gt;=$F17,AM$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",AM$7&gt;=$F17,AM$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AN17" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C17="Objetivo",AN$7&gt;=$F17,AN$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",AN$7&gt;=$F17,AN$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AO17" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C17="Objetivo",AO$7&gt;=$F17,AO$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",AO$7&gt;=$F17,AO$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AP17" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C17="Objetivo",AP$7&gt;=$F17,AP$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",AP$7&gt;=$F17,AP$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ17" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C17="Objetivo",AQ$7&gt;=$F17,AQ$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",AQ$7&gt;=$F17,AQ$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AR17" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C17="Objetivo",AR$7&gt;=$F17,AR$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",AR$7&gt;=$F17,AR$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AS17" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C17="Objetivo",AS$7&gt;=$F17,AS$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",AS$7&gt;=$F17,AS$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AT17" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C17="Objetivo",AT$7&gt;=$F17,AT$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",AT$7&gt;=$F17,AT$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AU17" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C17="Objetivo",AU$7&gt;=$F17,AU$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",AU$7&gt;=$F17,AU$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AV17" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C17="Objetivo",AV$7&gt;=$F17,AV$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",AV$7&gt;=$F17,AV$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AW17" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C17="Objetivo",AW$7&gt;=$F17,AW$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",AW$7&gt;=$F17,AW$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AX17" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C17="Objetivo",AX$7&gt;=$F17,AX$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",AX$7&gt;=$F17,AX$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AY17" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C17="Objetivo",AY$7&gt;=$F17,AY$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",AY$7&gt;=$F17,AY$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ17" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C17="Objetivo",AZ$7&gt;=$F17,AZ$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",AZ$7&gt;=$F17,AZ$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="BA17" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C17="Objetivo",BA$7&gt;=$F17,BA$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",BA$7&gt;=$F17,BA$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="BB17" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C17="Objetivo",BB$7&gt;=$F17,BB$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",BB$7&gt;=$F17,BB$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="BC17" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C17="Objetivo",BC$7&gt;=$F17,BC$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",BC$7&gt;=$F17,BC$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="BD17" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C17="Objetivo",BD$7&gt;=$F17,BD$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",BD$7&gt;=$F17,BD$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="BE17" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C17="Objetivo",BE$7&gt;=$F17,BE$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",BE$7&gt;=$F17,BE$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="BF17" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C17="Objetivo",BF$7&gt;=$F17,BF$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",BF$7&gt;=$F17,BF$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="BG17" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C17="Objetivo",BG$7&gt;=$F17,BG$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",BG$7&gt;=$F17,BG$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="BH17" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C17="Objetivo",BH$7&gt;=$F17,BH$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",BH$7&gt;=$F17,BH$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="BI17" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C17="Objetivo",BI$7&gt;=$F17,BI$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",BI$7&gt;=$F17,BI$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ17" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C17="Objetivo",BJ$7&gt;=$F17,BJ$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",BJ$7&gt;=$F17,BJ$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="BK17" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C17="Objetivo",BK$7&gt;=$F17,BK$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",BK$7&gt;=$F17,BK$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="BL17" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C17="Objetivo",BL$7&gt;=$F17,BL$7&lt;=$F17+$G17-1),2,IF(AND($C17="Marco",BL$7&gt;=$F17,BL$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="BM17" s="29"/>
@@ -13907,10 +14379,10 @@
     <row r="18" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>42</v>
@@ -13927,227 +14399,209 @@
       </c>
       <c r="H18" s="20"/>
       <c r="I18" s="48" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C18="Objetivo",I$7&gt;=$F18,I$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",I$7&gt;=$F18,I$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="J18" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C18="Objetivo",J$7&gt;=$F18,J$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",J$7&gt;=$F18,J$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="K18" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C18="Objetivo",K$7&gt;=$F18,K$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",K$7&gt;=$F18,K$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="L18" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C18="Objetivo",L$7&gt;=$F18,L$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",L$7&gt;=$F18,L$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="M18" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C18="Objetivo",M$7&gt;=$F18,M$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",M$7&gt;=$F18,M$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="N18" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C18="Objetivo",N$7&gt;=$F18,N$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",N$7&gt;=$F18,N$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="O18" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C18="Objetivo",O$7&gt;=$F18,O$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",O$7&gt;=$F18,O$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="P18" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C18="Objetivo",P$7&gt;=$F18,P$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",P$7&gt;=$F18,P$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="Q18" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C18="Objetivo",Q$7&gt;=$F18,Q$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",Q$7&gt;=$F18,Q$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="R18" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C18="Objetivo",R$7&gt;=$F18,R$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",R$7&gt;=$F18,R$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="S18" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C18="Objetivo",S$7&gt;=$F18,S$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",S$7&gt;=$F18,S$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="T18" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C18="Objetivo",T$7&gt;=$F18,T$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",T$7&gt;=$F18,T$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="U18" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C18="Objetivo",U$7&gt;=$F18,U$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",U$7&gt;=$F18,U$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="V18" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C18="Objetivo",V$7&gt;=$F18,V$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",V$7&gt;=$F18,V$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="W18" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C18="Objetivo",W$7&gt;=$F18,W$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",W$7&gt;=$F18,W$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="X18" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C18="Objetivo",X$7&gt;=$F18,X$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",X$7&gt;=$F18,X$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="Y18" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="Z18" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AA18" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AB18" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AC18" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AD18" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AE18" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
+        <f ca="1">IF(AND($C18="Objetivo",Y$7&gt;=$F18,Y$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",Y$7&gt;=$F18,Y$7&lt;=$F18+$G18-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="Z18" s="156"/>
+      <c r="AA18" s="157"/>
+      <c r="AB18" s="157"/>
+      <c r="AC18" s="157"/>
+      <c r="AD18" s="157"/>
+      <c r="AE18" s="158"/>
       <c r="AF18" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C18="Objetivo",AF$7&gt;=$F18,AF$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",AF$7&gt;=$F18,AF$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AG18" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C18="Objetivo",AG$7&gt;=$F18,AG$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",AG$7&gt;=$F18,AG$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AH18" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C18="Objetivo",AH$7&gt;=$F18,AH$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",AH$7&gt;=$F18,AH$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AI18" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C18="Objetivo",AI$7&gt;=$F18,AI$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",AI$7&gt;=$F18,AI$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ18" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C18="Objetivo",AJ$7&gt;=$F18,AJ$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",AJ$7&gt;=$F18,AJ$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AK18" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C18="Objetivo",AK$7&gt;=$F18,AK$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",AK$7&gt;=$F18,AK$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AL18" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C18="Objetivo",AL$7&gt;=$F18,AL$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",AL$7&gt;=$F18,AL$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AM18" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C18="Objetivo",AM$7&gt;=$F18,AM$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",AM$7&gt;=$F18,AM$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AN18" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C18="Objetivo",AN$7&gt;=$F18,AN$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",AN$7&gt;=$F18,AN$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AO18" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C18="Objetivo",AO$7&gt;=$F18,AO$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",AO$7&gt;=$F18,AO$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AP18" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C18="Objetivo",AP$7&gt;=$F18,AP$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",AP$7&gt;=$F18,AP$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ18" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C18="Objetivo",AQ$7&gt;=$F18,AQ$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",AQ$7&gt;=$F18,AQ$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AR18" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C18="Objetivo",AR$7&gt;=$F18,AR$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",AR$7&gt;=$F18,AR$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AS18" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C18="Objetivo",AS$7&gt;=$F18,AS$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",AS$7&gt;=$F18,AS$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AT18" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C18="Objetivo",AT$7&gt;=$F18,AT$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",AT$7&gt;=$F18,AT$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AU18" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C18="Objetivo",AU$7&gt;=$F18,AU$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",AU$7&gt;=$F18,AU$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AV18" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C18="Objetivo",AV$7&gt;=$F18,AV$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",AV$7&gt;=$F18,AV$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AW18" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C18="Objetivo",AW$7&gt;=$F18,AW$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",AW$7&gt;=$F18,AW$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AX18" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C18="Objetivo",AX$7&gt;=$F18,AX$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",AX$7&gt;=$F18,AX$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AY18" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C18="Objetivo",AY$7&gt;=$F18,AY$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",AY$7&gt;=$F18,AY$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ18" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C18="Objetivo",AZ$7&gt;=$F18,AZ$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",AZ$7&gt;=$F18,AZ$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="BA18" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C18="Objetivo",BA$7&gt;=$F18,BA$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",BA$7&gt;=$F18,BA$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="BB18" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C18="Objetivo",BB$7&gt;=$F18,BB$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",BB$7&gt;=$F18,BB$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="BC18" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C18="Objetivo",BC$7&gt;=$F18,BC$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",BC$7&gt;=$F18,BC$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="BD18" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C18="Objetivo",BD$7&gt;=$F18,BD$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",BD$7&gt;=$F18,BD$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="BE18" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C18="Objetivo",BE$7&gt;=$F18,BE$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",BE$7&gt;=$F18,BE$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="BF18" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C18="Objetivo",BF$7&gt;=$F18,BF$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",BF$7&gt;=$F18,BF$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="BG18" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C18="Objetivo",BG$7&gt;=$F18,BG$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",BG$7&gt;=$F18,BG$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="BH18" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C18="Objetivo",BH$7&gt;=$F18,BH$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",BH$7&gt;=$F18,BH$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="BI18" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C18="Objetivo",BI$7&gt;=$F18,BI$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",BI$7&gt;=$F18,BI$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ18" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C18="Objetivo",BJ$7&gt;=$F18,BJ$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",BJ$7&gt;=$F18,BJ$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="BK18" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C18="Objetivo",BK$7&gt;=$F18,BK$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",BK$7&gt;=$F18,BK$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="BL18" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C18="Objetivo",BL$7&gt;=$F18,BL$7&lt;=$F18+$G18-1),2,IF(AND($C18="Marco",BL$7&gt;=$F18,BL$7&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="BM18" s="29"/>
@@ -14162,308 +14616,314 @@
       <c r="G19" s="25"/>
       <c r="H19" s="20"/>
       <c r="I19" s="48" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C19="Objetivo",I$7&gt;=$F19,I$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",I$7&gt;=$F19,I$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="J19" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C19="Objetivo",J$7&gt;=$F19,J$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",J$7&gt;=$F19,J$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="K19" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C19="Objetivo",K$7&gt;=$F19,K$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",K$7&gt;=$F19,K$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="L19" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C19="Objetivo",L$7&gt;=$F19,L$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",L$7&gt;=$F19,L$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="M19" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C19="Objetivo",M$7&gt;=$F19,M$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",M$7&gt;=$F19,M$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="N19" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C19="Objetivo",N$7&gt;=$F19,N$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",N$7&gt;=$F19,N$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="O19" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C19="Objetivo",O$7&gt;=$F19,O$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",O$7&gt;=$F19,O$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="P19" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C19="Objetivo",P$7&gt;=$F19,P$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",P$7&gt;=$F19,P$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="Q19" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C19="Objetivo",Q$7&gt;=$F19,Q$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",Q$7&gt;=$F19,Q$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="R19" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C19="Objetivo",R$7&gt;=$F19,R$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",R$7&gt;=$F19,R$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="S19" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C19="Objetivo",S$7&gt;=$F19,S$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",S$7&gt;=$F19,S$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="T19" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C19="Objetivo",T$7&gt;=$F19,T$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",T$7&gt;=$F19,T$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="U19" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C19="Objetivo",U$7&gt;=$F19,U$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",U$7&gt;=$F19,U$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="V19" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C19="Objetivo",V$7&gt;=$F19,V$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",V$7&gt;=$F19,V$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="W19" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C19="Objetivo",W$7&gt;=$F19,W$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",W$7&gt;=$F19,W$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="X19" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C19="Objetivo",X$7&gt;=$F19,X$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",X$7&gt;=$F19,X$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="Y19" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C19="Objetivo",Y$7&gt;=$F19,Y$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",Y$7&gt;=$F19,Y$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="Z19" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C19="Objetivo",Z$7&gt;=$F19,Z$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",Z$7&gt;=$F19,Z$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AA19" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C19="Objetivo",AA$7&gt;=$F19,AA$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",AA$7&gt;=$F19,AA$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AB19" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C19="Objetivo",AB$7&gt;=$F19,AB$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",AB$7&gt;=$F19,AB$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AC19" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C19="Objetivo",AC$7&gt;=$F19,AC$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",AC$7&gt;=$F19,AC$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AD19" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C19="Objetivo",AD$7&gt;=$F19,AD$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",AD$7&gt;=$F19,AD$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AE19" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C19="Objetivo",AE$7&gt;=$F19,AE$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",AE$7&gt;=$F19,AE$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AF19" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C19="Objetivo",AF$7&gt;=$F19,AF$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",AF$7&gt;=$F19,AF$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AG19" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C19="Objetivo",AG$7&gt;=$F19,AG$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",AG$7&gt;=$F19,AG$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AH19" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C19="Objetivo",AH$7&gt;=$F19,AH$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",AH$7&gt;=$F19,AH$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AI19" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C19="Objetivo",AI$7&gt;=$F19,AI$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",AI$7&gt;=$F19,AI$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ19" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C19="Objetivo",AJ$7&gt;=$F19,AJ$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",AJ$7&gt;=$F19,AJ$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AK19" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C19="Objetivo",AK$7&gt;=$F19,AK$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",AK$7&gt;=$F19,AK$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AL19" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C19="Objetivo",AL$7&gt;=$F19,AL$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",AL$7&gt;=$F19,AL$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AM19" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C19="Objetivo",AM$7&gt;=$F19,AM$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",AM$7&gt;=$F19,AM$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AN19" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C19="Objetivo",AN$7&gt;=$F19,AN$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",AN$7&gt;=$F19,AN$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AO19" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C19="Objetivo",AO$7&gt;=$F19,AO$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",AO$7&gt;=$F19,AO$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AP19" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C19="Objetivo",AP$7&gt;=$F19,AP$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",AP$7&gt;=$F19,AP$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ19" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C19="Objetivo",AQ$7&gt;=$F19,AQ$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",AQ$7&gt;=$F19,AQ$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AR19" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C19="Objetivo",AR$7&gt;=$F19,AR$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",AR$7&gt;=$F19,AR$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AS19" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C19="Objetivo",AS$7&gt;=$F19,AS$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",AS$7&gt;=$F19,AS$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AT19" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C19="Objetivo",AT$7&gt;=$F19,AT$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",AT$7&gt;=$F19,AT$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AU19" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C19="Objetivo",AU$7&gt;=$F19,AU$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",AU$7&gt;=$F19,AU$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AV19" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C19="Objetivo",AV$7&gt;=$F19,AV$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",AV$7&gt;=$F19,AV$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AW19" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C19="Objetivo",AW$7&gt;=$F19,AW$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",AW$7&gt;=$F19,AW$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AX19" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C19="Objetivo",AX$7&gt;=$F19,AX$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",AX$7&gt;=$F19,AX$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AY19" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C19="Objetivo",AY$7&gt;=$F19,AY$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",AY$7&gt;=$F19,AY$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ19" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C19="Objetivo",AZ$7&gt;=$F19,AZ$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",AZ$7&gt;=$F19,AZ$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="BA19" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C19="Objetivo",BA$7&gt;=$F19,BA$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",BA$7&gt;=$F19,BA$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="BB19" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C19="Objetivo",BB$7&gt;=$F19,BB$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",BB$7&gt;=$F19,BB$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="BC19" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C19="Objetivo",BC$7&gt;=$F19,BC$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",BC$7&gt;=$F19,BC$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="BD19" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C19="Objetivo",BD$7&gt;=$F19,BD$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",BD$7&gt;=$F19,BD$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="BE19" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C19="Objetivo",BE$7&gt;=$F19,BE$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",BE$7&gt;=$F19,BE$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="BF19" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C19="Objetivo",BF$7&gt;=$F19,BF$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",BF$7&gt;=$F19,BF$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="BG19" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C19="Objetivo",BG$7&gt;=$F19,BG$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",BG$7&gt;=$F19,BG$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="BH19" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C19="Objetivo",BH$7&gt;=$F19,BH$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",BH$7&gt;=$F19,BH$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="BI19" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C19="Objetivo",BI$7&gt;=$F19,BI$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",BI$7&gt;=$F19,BI$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ19" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C19="Objetivo",BJ$7&gt;=$F19,BJ$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",BJ$7&gt;=$F19,BJ$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="BK19" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C19="Objetivo",BK$7&gt;=$F19,BK$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",BK$7&gt;=$F19,BK$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="BL19" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C19="Objetivo",BL$7&gt;=$F19,BL$7&lt;=$F19+$G19-1),2,IF(AND($C19="Marco",BL$7&gt;=$F19,BL$7&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="BM19" s="29"/>
     </row>
     <row r="20" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
+      <c r="B20" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>48</v>
+      </c>
       <c r="E20" s="23">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="F20" s="24">
         <v>44494</v>
       </c>
       <c r="G20" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H20" s="20"/>
       <c r="I20" s="48" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C20="Objetivo",I$7&gt;=$F20,I$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",I$7&gt;=$F20,I$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="J20" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C20="Objetivo",J$7&gt;=$F20,J$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",J$7&gt;=$F20,J$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="K20" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C20="Objetivo",K$7&gt;=$F20,K$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",K$7&gt;=$F20,K$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="L20" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C20="Objetivo",L$7&gt;=$F20,L$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",L$7&gt;=$F20,L$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="M20" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C20="Objetivo",M$7&gt;=$F20,M$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",M$7&gt;=$F20,M$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="N20" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C20="Objetivo",N$7&gt;=$F20,N$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",N$7&gt;=$F20,N$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="O20" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C20="Objetivo",O$7&gt;=$F20,O$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",O$7&gt;=$F20,O$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="P20" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C20="Objetivo",P$7&gt;=$F20,P$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",P$7&gt;=$F20,P$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="Q20" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C20="Objetivo",Q$7&gt;=$F20,Q$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",Q$7&gt;=$F20,Q$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="R20" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C20="Objetivo",R$7&gt;=$F20,R$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",R$7&gt;=$F20,R$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="S20" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C20="Objetivo",S$7&gt;=$F20,S$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",S$7&gt;=$F20,S$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="T20" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C20="Objetivo",T$7&gt;=$F20,T$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",T$7&gt;=$F20,T$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="U20" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C20="Objetivo",U$7&gt;=$F20,U$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",U$7&gt;=$F20,U$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="V20" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C20="Objetivo",V$7&gt;=$F20,V$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",V$7&gt;=$F20,V$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="W20" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C20="Objetivo",W$7&gt;=$F20,W$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",W$7&gt;=$F20,W$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="X20" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C20="Objetivo",X$7&gt;=$F20,X$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",X$7&gt;=$F20,X$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="Y20" s="28"/>
@@ -14472,155 +14932,137 @@
         <v/>
       </c>
       <c r="AA20" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C20="Objetivo",AA$7&gt;=$F20,AA$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",AA$7&gt;=$F20,AA$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AB20" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C20="Objetivo",AB$7&gt;=$F20,AB$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",AB$7&gt;=$F20,AB$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AC20" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C20="Objetivo",AC$7&gt;=$F20,AC$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",AC$7&gt;=$F20,AC$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AD20" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C20="Objetivo",AD$7&gt;=$F20,AD$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",AD$7&gt;=$F20,AD$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AE20" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C20="Objetivo",AE$7&gt;=$F20,AE$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",AE$7&gt;=$F20,AE$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AF20" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C20="Objetivo",AF$7&gt;=$F20,AF$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",AF$7&gt;=$F20,AF$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AG20" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AH20" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AI20" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AJ20" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AK20" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AL20" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AM20" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
+        <f ca="1">IF(AND($C20="Objetivo",AG$7&gt;=$F20,AG$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",AG$7&gt;=$F20,AG$7&lt;=$F20+$G20-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AH20" s="172"/>
+      <c r="AI20" s="173"/>
+      <c r="AJ20" s="173"/>
+      <c r="AK20" s="173"/>
+      <c r="AL20" s="173"/>
+      <c r="AM20" s="174"/>
       <c r="AN20" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C20="Objetivo",AN$7&gt;=$F20,AN$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",AN$7&gt;=$F20,AN$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AO20" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C20="Objetivo",AO$7&gt;=$F20,AO$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",AO$7&gt;=$F20,AO$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AP20" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C20="Objetivo",AP$7&gt;=$F20,AP$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",AP$7&gt;=$F20,AP$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ20" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C20="Objetivo",AQ$7&gt;=$F20,AQ$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",AQ$7&gt;=$F20,AQ$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AR20" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C20="Objetivo",AR$7&gt;=$F20,AR$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",AR$7&gt;=$F20,AR$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AS20" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C20="Objetivo",AS$7&gt;=$F20,AS$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",AS$7&gt;=$F20,AS$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AT20" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C20="Objetivo",AT$7&gt;=$F20,AT$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",AT$7&gt;=$F20,AT$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AU20" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C20="Objetivo",AU$7&gt;=$F20,AU$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",AU$7&gt;=$F20,AU$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AV20" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C20="Objetivo",AV$7&gt;=$F20,AV$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",AV$7&gt;=$F20,AV$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AW20" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C20="Objetivo",AW$7&gt;=$F20,AW$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",AW$7&gt;=$F20,AW$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AX20" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C20="Objetivo",AX$7&gt;=$F20,AX$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",AX$7&gt;=$F20,AX$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AY20" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C20="Objetivo",AY$7&gt;=$F20,AY$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",AY$7&gt;=$F20,AY$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ20" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C20="Objetivo",AZ$7&gt;=$F20,AZ$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",AZ$7&gt;=$F20,AZ$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="BA20" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C20="Objetivo",BA$7&gt;=$F20,BA$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",BA$7&gt;=$F20,BA$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="BB20" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C20="Objetivo",BB$7&gt;=$F20,BB$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",BB$7&gt;=$F20,BB$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="BC20" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C20="Objetivo",BC$7&gt;=$F20,BC$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",BC$7&gt;=$F20,BC$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="BD20" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C20="Objetivo",BD$7&gt;=$F20,BD$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",BD$7&gt;=$F20,BD$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="BE20" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C20="Objetivo",BE$7&gt;=$F20,BE$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",BE$7&gt;=$F20,BE$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="BF20" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C20="Objetivo",BF$7&gt;=$F20,BF$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",BF$7&gt;=$F20,BF$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="BG20" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C20="Objetivo",BG$7&gt;=$F20,BG$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",BG$7&gt;=$F20,BG$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="BH20" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C20="Objetivo",BH$7&gt;=$F20,BH$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",BH$7&gt;=$F20,BH$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="BI20" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C20="Objetivo",BI$7&gt;=$F20,BI$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",BI$7&gt;=$F20,BI$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ20" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C20="Objetivo",BJ$7&gt;=$F20,BJ$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",BJ$7&gt;=$F20,BJ$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="BK20" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C20="Objetivo",BK$7&gt;=$F20,BK$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",BK$7&gt;=$F20,BK$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="BL20" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C20="Objetivo",BL$7&gt;=$F20,BL$7&lt;=$F20+$G20-1),2,IF(AND($C20="Marco",BL$7&gt;=$F20,BL$7&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="BM20" s="29"/>
@@ -14628,259 +15070,251 @@
     <row r="21" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="26"/>
-      <c r="C21" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="23">
-        <v>0.7</v>
-      </c>
-      <c r="F21" s="24">
-        <v>44494</v>
-      </c>
-      <c r="G21" s="25">
-        <v>10</v>
-      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25"/>
       <c r="H21" s="20"/>
       <c r="I21" s="48" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C21="Objetivo",I$7&gt;=$F21,I$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",I$7&gt;=$F21,I$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="J21" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C21="Objetivo",J$7&gt;=$F21,J$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",J$7&gt;=$F21,J$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="K21" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C21="Objetivo",K$7&gt;=$F21,K$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",K$7&gt;=$F21,K$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="L21" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C21="Objetivo",L$7&gt;=$F21,L$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",L$7&gt;=$F21,L$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="M21" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C21="Objetivo",M$7&gt;=$F21,M$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",M$7&gt;=$F21,M$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="N21" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="O21" s="28">
-        <f t="shared" ca="1" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="P21" s="28">
-        <f t="shared" ca="1" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="Q21" s="28">
-        <f t="shared" ca="1" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="R21" s="28">
-        <f t="shared" ca="1" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="S21" s="28">
-        <f t="shared" ca="1" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="T21" s="28">
-        <f t="shared" ca="1" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="U21" s="28">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="V21" s="28">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="W21" s="28">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="X21" s="28">
+        <f ca="1">IF(AND($C21="Objetivo",N$7&gt;=$F21,N$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",N$7&gt;=$F21,N$7&lt;=$F21+$G21-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="O21" s="28" t="str">
+        <f ca="1">IF(AND($C21="Objetivo",O$7&gt;=$F21,O$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",O$7&gt;=$F21,O$7&lt;=$F21+$G21-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="P21" s="28" t="str">
+        <f ca="1">IF(AND($C21="Objetivo",P$7&gt;=$F21,P$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",P$7&gt;=$F21,P$7&lt;=$F21+$G21-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="Q21" s="28" t="str">
+        <f ca="1">IF(AND($C21="Objetivo",Q$7&gt;=$F21,Q$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",Q$7&gt;=$F21,Q$7&lt;=$F21+$G21-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="R21" s="28" t="str">
+        <f ca="1">IF(AND($C21="Objetivo",R$7&gt;=$F21,R$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",R$7&gt;=$F21,R$7&lt;=$F21+$G21-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="S21" s="28" t="str">
+        <f ca="1">IF(AND($C21="Objetivo",S$7&gt;=$F21,S$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",S$7&gt;=$F21,S$7&lt;=$F21+$G21-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="T21" s="28" t="str">
+        <f ca="1">IF(AND($C21="Objetivo",T$7&gt;=$F21,T$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",T$7&gt;=$F21,T$7&lt;=$F21+$G21-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="U21" s="28" t="str">
+        <f ca="1">IF(AND($C21="Objetivo",U$7&gt;=$F21,U$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",U$7&gt;=$F21,U$7&lt;=$F21+$G21-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="V21" s="28" t="str">
+        <f ca="1">IF(AND($C21="Objetivo",V$7&gt;=$F21,V$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",V$7&gt;=$F21,V$7&lt;=$F21+$G21-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="W21" s="28" t="str">
+        <f ca="1">IF(AND($C21="Objetivo",W$7&gt;=$F21,W$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",W$7&gt;=$F21,W$7&lt;=$F21+$G21-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="X21" s="28" t="str">
         <f ca="1">IF(AND($C21="Objetivo",X$7&gt;=$F21,X$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",X$7&gt;=$F21,X$7&lt;=$F21+$G21-1),1,""))</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="Y21" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C21="Objetivo",Y$7&gt;=$F21,Y$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",Y$7&gt;=$F21,Y$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="Z21" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C21="Objetivo",Z$7&gt;=$F21,Z$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",Z$7&gt;=$F21,Z$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AA21" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C21="Objetivo",AA$7&gt;=$F21,AA$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",AA$7&gt;=$F21,AA$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AB21" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C21="Objetivo",AB$7&gt;=$F21,AB$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",AB$7&gt;=$F21,AB$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AC21" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C21="Objetivo",AC$7&gt;=$F21,AC$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",AC$7&gt;=$F21,AC$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AD21" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C21="Objetivo",AD$7&gt;=$F21,AD$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",AD$7&gt;=$F21,AD$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AE21" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C21="Objetivo",AE$7&gt;=$F21,AE$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",AE$7&gt;=$F21,AE$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AF21" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C21="Objetivo",AF$7&gt;=$F21,AF$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",AF$7&gt;=$F21,AF$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AG21" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C21="Objetivo",AG$7&gt;=$F21,AG$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",AG$7&gt;=$F21,AG$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AH21" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C21="Objetivo",AH$7&gt;=$F21,AH$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",AH$7&gt;=$F21,AH$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AI21" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C21="Objetivo",AI$7&gt;=$F21,AI$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",AI$7&gt;=$F21,AI$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ21" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C21="Objetivo",AJ$7&gt;=$F21,AJ$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",AJ$7&gt;=$F21,AJ$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AK21" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C21="Objetivo",AK$7&gt;=$F21,AK$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",AK$7&gt;=$F21,AK$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AL21" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C21="Objetivo",AL$7&gt;=$F21,AL$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",AL$7&gt;=$F21,AL$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AM21" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C21="Objetivo",AM$7&gt;=$F21,AM$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",AM$7&gt;=$F21,AM$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AN21" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C21="Objetivo",AN$7&gt;=$F21,AN$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",AN$7&gt;=$F21,AN$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AO21" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C21="Objetivo",AO$7&gt;=$F21,AO$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",AO$7&gt;=$F21,AO$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AP21" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C21="Objetivo",AP$7&gt;=$F21,AP$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",AP$7&gt;=$F21,AP$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ21" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C21="Objetivo",AQ$7&gt;=$F21,AQ$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",AQ$7&gt;=$F21,AQ$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AR21" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C21="Objetivo",AR$7&gt;=$F21,AR$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",AR$7&gt;=$F21,AR$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AS21" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C21="Objetivo",AS$7&gt;=$F21,AS$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",AS$7&gt;=$F21,AS$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AT21" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C21="Objetivo",AT$7&gt;=$F21,AT$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",AT$7&gt;=$F21,AT$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AU21" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C21="Objetivo",AU$7&gt;=$F21,AU$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",AU$7&gt;=$F21,AU$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AV21" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C21="Objetivo",AV$7&gt;=$F21,AV$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",AV$7&gt;=$F21,AV$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AW21" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C21="Objetivo",AW$7&gt;=$F21,AW$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",AW$7&gt;=$F21,AW$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AX21" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C21="Objetivo",AX$7&gt;=$F21,AX$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",AX$7&gt;=$F21,AX$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AY21" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C21="Objetivo",AY$7&gt;=$F21,AY$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",AY$7&gt;=$F21,AY$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ21" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C21="Objetivo",AZ$7&gt;=$F21,AZ$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",AZ$7&gt;=$F21,AZ$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="BA21" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C21="Objetivo",BA$7&gt;=$F21,BA$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",BA$7&gt;=$F21,BA$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="BB21" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C21="Objetivo",BB$7&gt;=$F21,BB$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",BB$7&gt;=$F21,BB$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="BC21" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C21="Objetivo",BC$7&gt;=$F21,BC$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",BC$7&gt;=$F21,BC$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="BD21" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C21="Objetivo",BD$7&gt;=$F21,BD$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",BD$7&gt;=$F21,BD$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="BE21" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C21="Objetivo",BE$7&gt;=$F21,BE$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",BE$7&gt;=$F21,BE$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="BF21" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C21="Objetivo",BF$7&gt;=$F21,BF$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",BF$7&gt;=$F21,BF$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="BG21" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C21="Objetivo",BG$7&gt;=$F21,BG$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",BG$7&gt;=$F21,BG$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="BH21" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C21="Objetivo",BH$7&gt;=$F21,BH$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",BH$7&gt;=$F21,BH$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="BI21" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C21="Objetivo",BI$7&gt;=$F21,BI$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",BI$7&gt;=$F21,BI$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ21" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C21="Objetivo",BJ$7&gt;=$F21,BJ$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",BJ$7&gt;=$F21,BJ$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="BK21" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C21="Objetivo",BK$7&gt;=$F21,BK$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",BK$7&gt;=$F21,BK$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="BL21" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C21="Objetivo",BL$7&gt;=$F21,BL$7&lt;=$F21+$G21-1),2,IF(AND($C21="Marco",BL$7&gt;=$F21,BL$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="BM21" s="29"/>
     </row>
     <row r="22" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
-      <c r="B22" s="26"/>
+      <c r="B22" s="26" t="s">
+        <v>54</v>
+      </c>
       <c r="C22" s="22" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E22" s="23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F22" s="24">
         <f>F20-F161</f>
@@ -14891,227 +15325,209 @@
       </c>
       <c r="H22" s="20"/>
       <c r="I22" s="48" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C22="Objetivo",I$7&gt;=$F22,I$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",I$7&gt;=$F22,I$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="J22" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C22="Objetivo",J$7&gt;=$F22,J$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",J$7&gt;=$F22,J$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="K22" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C22="Objetivo",K$7&gt;=$F22,K$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",K$7&gt;=$F22,K$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="L22" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C22="Objetivo",L$7&gt;=$F22,L$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",L$7&gt;=$F22,L$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="M22" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C22="Objetivo",M$7&gt;=$F22,M$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",M$7&gt;=$F22,M$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="N22" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="O22" s="28">
-        <f t="shared" ca="1" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="P22" s="28">
-        <f t="shared" ca="1" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="Q22" s="28">
-        <f t="shared" ca="1" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="R22" s="28">
-        <f t="shared" ca="1" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="S22" s="28">
-        <f t="shared" ca="1" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="T22" s="28">
-        <f t="shared" ca="1" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="U22" s="28">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="V22" s="28">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="W22" s="28">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="X22" s="28">
+        <f ca="1">IF(AND($C22="Objetivo",N$7&gt;=$F22,N$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",N$7&gt;=$F22,N$7&lt;=$F22+$G22-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="O22" s="28" t="str">
+        <f ca="1">IF(AND($C22="Objetivo",O$7&gt;=$F22,O$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",O$7&gt;=$F22,O$7&lt;=$F22+$G22-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="P22" s="28" t="str">
+        <f ca="1">IF(AND($C22="Objetivo",P$7&gt;=$F22,P$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",P$7&gt;=$F22,P$7&lt;=$F22+$G22-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="Q22" s="28" t="str">
+        <f ca="1">IF(AND($C22="Objetivo",Q$7&gt;=$F22,Q$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",Q$7&gt;=$F22,Q$7&lt;=$F22+$G22-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="R22" s="28" t="str">
+        <f ca="1">IF(AND($C22="Objetivo",R$7&gt;=$F22,R$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",R$7&gt;=$F22,R$7&lt;=$F22+$G22-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="S22" s="28" t="str">
+        <f ca="1">IF(AND($C22="Objetivo",S$7&gt;=$F22,S$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",S$7&gt;=$F22,S$7&lt;=$F22+$G22-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="T22" s="28" t="str">
+        <f ca="1">IF(AND($C22="Objetivo",T$7&gt;=$F22,T$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",T$7&gt;=$F22,T$7&lt;=$F22+$G22-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="U22" s="28" t="str">
+        <f ca="1">IF(AND($C22="Objetivo",U$7&gt;=$F22,U$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",U$7&gt;=$F22,U$7&lt;=$F22+$G22-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="V22" s="28" t="str">
+        <f ca="1">IF(AND($C22="Objetivo",V$7&gt;=$F22,V$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",V$7&gt;=$F22,V$7&lt;=$F22+$G22-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="W22" s="28" t="str">
+        <f ca="1">IF(AND($C22="Objetivo",W$7&gt;=$F22,W$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",W$7&gt;=$F22,W$7&lt;=$F22+$G22-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="X22" s="28" t="str">
         <f ca="1">IF(AND($C22="Objetivo",X$7&gt;=$F22,X$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",X$7&gt;=$F22,X$7&lt;=$F22+$G22-1),1,""))</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="Y22" s="28" t="str">
         <f ca="1">IF(AND($C22="Objetivo",Y$7&gt;=$F22,Y$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",Y$7&gt;=$F22,Y$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="Z22" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C22="Objetivo",Z$7&gt;=$F22,Z$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",Z$7&gt;=$F22,Z$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AA22" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C22="Objetivo",AA$7&gt;=$F22,AA$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AA$7&gt;=$F22,AA$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AB22" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C22="Objetivo",AB$7&gt;=$F22,AB$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AB$7&gt;=$F22,AB$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AC22" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C22="Objetivo",AC$7&gt;=$F22,AC$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AC$7&gt;=$F22,AC$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AD22" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C22="Objetivo",AD$7&gt;=$F22,AD$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AD$7&gt;=$F22,AD$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AE22" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C22="Objetivo",AE$7&gt;=$F22,AE$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AE$7&gt;=$F22,AE$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AF22" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C22="Objetivo",AF$7&gt;=$F22,AF$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AF$7&gt;=$F22,AF$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AG22" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C22="Objetivo",AG$7&gt;=$F22,AG$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AG$7&gt;=$F22,AG$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AH22" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C22="Objetivo",AH$7&gt;=$F22,AH$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AH$7&gt;=$F22,AH$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AI22" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C22="Objetivo",AI$7&gt;=$F22,AI$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AI$7&gt;=$F22,AI$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ22" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C22="Objetivo",AJ$7&gt;=$F22,AJ$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AJ$7&gt;=$F22,AJ$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AK22" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AL22" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AM22" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AN22" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AO22" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AP22" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AQ22" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
+        <f ca="1">IF(AND($C22="Objetivo",AK$7&gt;=$F22,AK$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AK$7&gt;=$F22,AK$7&lt;=$F22+$G22-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AL22" s="172"/>
+      <c r="AM22" s="173"/>
+      <c r="AN22" s="173"/>
+      <c r="AO22" s="173"/>
+      <c r="AP22" s="173"/>
+      <c r="AQ22" s="174"/>
       <c r="AR22" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C22="Objetivo",AR$7&gt;=$F22,AR$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AR$7&gt;=$F22,AR$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AS22" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C22="Objetivo",AS$7&gt;=$F22,AS$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AS$7&gt;=$F22,AS$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AT22" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C22="Objetivo",AT$7&gt;=$F22,AT$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AT$7&gt;=$F22,AT$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AU22" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C22="Objetivo",AU$7&gt;=$F22,AU$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AU$7&gt;=$F22,AU$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AV22" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C22="Objetivo",AV$7&gt;=$F22,AV$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AV$7&gt;=$F22,AV$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AW22" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C22="Objetivo",AW$7&gt;=$F22,AW$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AW$7&gt;=$F22,AW$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AX22" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C22="Objetivo",AX$7&gt;=$F22,AX$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AX$7&gt;=$F22,AX$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AY22" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C22="Objetivo",AY$7&gt;=$F22,AY$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AY$7&gt;=$F22,AY$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ22" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C22="Objetivo",AZ$7&gt;=$F22,AZ$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",AZ$7&gt;=$F22,AZ$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="BA22" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C22="Objetivo",BA$7&gt;=$F22,BA$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",BA$7&gt;=$F22,BA$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="BB22" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C22="Objetivo",BB$7&gt;=$F22,BB$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",BB$7&gt;=$F22,BB$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="BC22" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C22="Objetivo",BC$7&gt;=$F22,BC$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",BC$7&gt;=$F22,BC$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="BD22" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C22="Objetivo",BD$7&gt;=$F22,BD$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",BD$7&gt;=$F22,BD$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="BE22" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C22="Objetivo",BE$7&gt;=$F22,BE$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",BE$7&gt;=$F22,BE$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="BF22" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C22="Objetivo",BF$7&gt;=$F22,BF$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",BF$7&gt;=$F22,BF$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="BG22" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C22="Objetivo",BG$7&gt;=$F22,BG$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",BG$7&gt;=$F22,BG$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="BH22" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C22="Objetivo",BH$7&gt;=$F22,BH$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",BH$7&gt;=$F22,BH$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="BI22" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C22="Objetivo",BI$7&gt;=$F22,BI$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",BI$7&gt;=$F22,BI$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ22" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C22="Objetivo",BJ$7&gt;=$F22,BJ$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",BJ$7&gt;=$F22,BJ$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="BK22" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C22="Objetivo",BK$7&gt;=$F22,BK$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",BK$7&gt;=$F22,BK$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="BL22" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C22="Objetivo",BL$7&gt;=$F22,BL$7&lt;=$F22+$G22-1),2,IF(AND($C22="Marco",BL$7&gt;=$F22,BL$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="BM22" s="29"/>
@@ -15119,251 +15535,243 @@
     <row r="23" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="26"/>
-      <c r="C23" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F23" s="24">
-        <v>44470</v>
-      </c>
-      <c r="G23" s="25">
-        <v>7</v>
-      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
       <c r="H23" s="20"/>
       <c r="I23" s="48" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C23="Objetivo",I$7&gt;=$F23,I$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",I$7&gt;=$F23,I$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="J23" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C23="Objetivo",J$7&gt;=$F23,J$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",J$7&gt;=$F23,J$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="K23" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C23="Objetivo",K$7&gt;=$F23,K$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",K$7&gt;=$F23,K$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="L23" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C23="Objetivo",L$7&gt;=$F23,L$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",L$7&gt;=$F23,L$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="M23" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C23="Objetivo",M$7&gt;=$F23,M$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",M$7&gt;=$F23,M$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="N23" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C23="Objetivo",N$7&gt;=$F23,N$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",N$7&gt;=$F23,N$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="O23" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C23="Objetivo",O$7&gt;=$F23,O$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",O$7&gt;=$F23,O$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="P23" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C23="Objetivo",P$7&gt;=$F23,P$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",P$7&gt;=$F23,P$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="Q23" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C23="Objetivo",Q$7&gt;=$F23,Q$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",Q$7&gt;=$F23,Q$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="R23" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C23="Objetivo",R$7&gt;=$F23,R$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",R$7&gt;=$F23,R$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="S23" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C23="Objetivo",S$7&gt;=$F23,S$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",S$7&gt;=$F23,S$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="T23" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C23="Objetivo",T$7&gt;=$F23,T$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",T$7&gt;=$F23,T$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="U23" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C23="Objetivo",U$7&gt;=$F23,U$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",U$7&gt;=$F23,U$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="V23" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C23="Objetivo",V$7&gt;=$F23,V$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",V$7&gt;=$F23,V$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="W23" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C23="Objetivo",W$7&gt;=$F23,W$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",W$7&gt;=$F23,W$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="X23" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C23="Objetivo",X$7&gt;=$F23,X$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",X$7&gt;=$F23,X$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="Y23" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C23="Objetivo",Y$7&gt;=$F23,Y$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",Y$7&gt;=$F23,Y$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="Z23" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C23="Objetivo",Z$7&gt;=$F23,Z$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",Z$7&gt;=$F23,Z$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AA23" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C23="Objetivo",AA$7&gt;=$F23,AA$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AA$7&gt;=$F23,AA$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AB23" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C23="Objetivo",AB$7&gt;=$F23,AB$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AB$7&gt;=$F23,AB$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AC23" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C23="Objetivo",AC$7&gt;=$F23,AC$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AC$7&gt;=$F23,AC$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AD23" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C23="Objetivo",AD$7&gt;=$F23,AD$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AD$7&gt;=$F23,AD$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AE23" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C23="Objetivo",AE$7&gt;=$F23,AE$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AE$7&gt;=$F23,AE$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AF23" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C23="Objetivo",AF$7&gt;=$F23,AF$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AF$7&gt;=$F23,AF$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AG23" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C23="Objetivo",AG$7&gt;=$F23,AG$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AG$7&gt;=$F23,AG$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AH23" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C23="Objetivo",AH$7&gt;=$F23,AH$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AH$7&gt;=$F23,AH$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AI23" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C23="Objetivo",AI$7&gt;=$F23,AI$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AI$7&gt;=$F23,AI$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ23" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C23="Objetivo",AJ$7&gt;=$F23,AJ$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AJ$7&gt;=$F23,AJ$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AK23" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C23="Objetivo",AK$7&gt;=$F23,AK$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AK$7&gt;=$F23,AK$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AL23" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C23="Objetivo",AL$7&gt;=$F23,AL$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AL$7&gt;=$F23,AL$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AM23" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C23="Objetivo",AM$7&gt;=$F23,AM$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AM$7&gt;=$F23,AM$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AN23" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C23="Objetivo",AN$7&gt;=$F23,AN$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AN$7&gt;=$F23,AN$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AO23" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C23="Objetivo",AO$7&gt;=$F23,AO$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AO$7&gt;=$F23,AO$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AP23" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C23="Objetivo",AP$7&gt;=$F23,AP$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AP$7&gt;=$F23,AP$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ23" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C23="Objetivo",AQ$7&gt;=$F23,AQ$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AQ$7&gt;=$F23,AQ$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AR23" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C23="Objetivo",AR$7&gt;=$F23,AR$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AR$7&gt;=$F23,AR$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AS23" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C23="Objetivo",AS$7&gt;=$F23,AS$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AS$7&gt;=$F23,AS$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AT23" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C23="Objetivo",AT$7&gt;=$F23,AT$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AT$7&gt;=$F23,AT$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AU23" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C23="Objetivo",AU$7&gt;=$F23,AU$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AU$7&gt;=$F23,AU$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AV23" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C23="Objetivo",AV$7&gt;=$F23,AV$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AV$7&gt;=$F23,AV$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AW23" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C23="Objetivo",AW$7&gt;=$F23,AW$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AW$7&gt;=$F23,AW$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AX23" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C23="Objetivo",AX$7&gt;=$F23,AX$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AX$7&gt;=$F23,AX$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AY23" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C23="Objetivo",AY$7&gt;=$F23,AY$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AY$7&gt;=$F23,AY$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ23" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C23="Objetivo",AZ$7&gt;=$F23,AZ$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",AZ$7&gt;=$F23,AZ$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="BA23" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C23="Objetivo",BA$7&gt;=$F23,BA$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",BA$7&gt;=$F23,BA$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="BB23" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C23="Objetivo",BB$7&gt;=$F23,BB$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",BB$7&gt;=$F23,BB$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="BC23" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C23="Objetivo",BC$7&gt;=$F23,BC$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",BC$7&gt;=$F23,BC$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="BD23" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C23="Objetivo",BD$7&gt;=$F23,BD$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",BD$7&gt;=$F23,BD$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="BE23" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C23="Objetivo",BE$7&gt;=$F23,BE$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",BE$7&gt;=$F23,BE$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="BF23" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C23="Objetivo",BF$7&gt;=$F23,BF$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",BF$7&gt;=$F23,BF$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="BG23" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C23="Objetivo",BG$7&gt;=$F23,BG$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",BG$7&gt;=$F23,BG$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="BH23" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C23="Objetivo",BH$7&gt;=$F23,BH$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",BH$7&gt;=$F23,BH$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="BI23" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C23="Objetivo",BI$7&gt;=$F23,BI$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",BI$7&gt;=$F23,BI$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ23" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C23="Objetivo",BJ$7&gt;=$F23,BJ$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",BJ$7&gt;=$F23,BJ$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="BK23" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C23="Objetivo",BK$7&gt;=$F23,BK$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",BK$7&gt;=$F23,BK$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="BL23" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C23="Objetivo",BL$7&gt;=$F23,BL$7&lt;=$F23+$G23-1),2,IF(AND($C23="Marco",BL$7&gt;=$F23,BL$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="BM23" s="29"/>
     </row>
     <row r="24" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
-      <c r="B24" s="26"/>
+      <c r="B24" s="26" t="s">
+        <v>55</v>
+      </c>
       <c r="C24" s="22" t="s">
         <v>20</v>
       </c>
@@ -15382,227 +15790,227 @@
       </c>
       <c r="H24" s="20"/>
       <c r="I24" s="48" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C24="Objetivo",I$7&gt;=$F24,I$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",I$7&gt;=$F24,I$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="J24" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C24="Objetivo",J$7&gt;=$F24,J$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",J$7&gt;=$F24,J$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="K24" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C24="Objetivo",K$7&gt;=$F24,K$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",K$7&gt;=$F24,K$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="L24" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C24="Objetivo",L$7&gt;=$F24,L$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",L$7&gt;=$F24,L$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="M24" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C24="Objetivo",M$7&gt;=$F24,M$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",M$7&gt;=$F24,M$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="N24" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C24="Objetivo",N$7&gt;=$F24,N$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",N$7&gt;=$F24,N$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="O24" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C24="Objetivo",O$7&gt;=$F24,O$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",O$7&gt;=$F24,O$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="P24" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C24="Objetivo",P$7&gt;=$F24,P$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",P$7&gt;=$F24,P$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="Q24" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C24="Objetivo",Q$7&gt;=$F24,Q$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",Q$7&gt;=$F24,Q$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="R24" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C24="Objetivo",R$7&gt;=$F24,R$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",R$7&gt;=$F24,R$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="S24" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C24="Objetivo",S$7&gt;=$F24,S$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",S$7&gt;=$F24,S$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="T24" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C24="Objetivo",T$7&gt;=$F24,T$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",T$7&gt;=$F24,T$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="U24" s="28">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C24="Objetivo",U$7&gt;=$F24,U$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",U$7&gt;=$F24,U$7&lt;=$F24+$G24-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="V24" s="28">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C24="Objetivo",V$7&gt;=$F24,V$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",V$7&gt;=$F24,V$7&lt;=$F24+$G24-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="W24" s="28">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C24="Objetivo",W$7&gt;=$F24,W$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",W$7&gt;=$F24,W$7&lt;=$F24+$G24-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="X24" s="28">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C24="Objetivo",X$7&gt;=$F24,X$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",X$7&gt;=$F24,X$7&lt;=$F24+$G24-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="Y24" s="28">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C24="Objetivo",Y$7&gt;=$F24,Y$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",Y$7&gt;=$F24,Y$7&lt;=$F24+$G24-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="Z24" s="28">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C24="Objetivo",Z$7&gt;=$F24,Z$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",Z$7&gt;=$F24,Z$7&lt;=$F24+$G24-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="AA24" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C24="Objetivo",AA$7&gt;=$F24,AA$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AA$7&gt;=$F24,AA$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AB24" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C24="Objetivo",AB$7&gt;=$F24,AB$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AB$7&gt;=$F24,AB$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AC24" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C24="Objetivo",AC$7&gt;=$F24,AC$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AC$7&gt;=$F24,AC$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AD24" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C24="Objetivo",AD$7&gt;=$F24,AD$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AD$7&gt;=$F24,AD$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AE24" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C24="Objetivo",AE$7&gt;=$F24,AE$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AE$7&gt;=$F24,AE$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AF24" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C24="Objetivo",AF$7&gt;=$F24,AF$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AF$7&gt;=$F24,AF$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AG24" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C24="Objetivo",AG$7&gt;=$F24,AG$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AG$7&gt;=$F24,AG$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AH24" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C24="Objetivo",AH$7&gt;=$F24,AH$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AH$7&gt;=$F24,AH$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AI24" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C24="Objetivo",AI$7&gt;=$F24,AI$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AI$7&gt;=$F24,AI$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ24" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C24="Objetivo",AJ$7&gt;=$F24,AJ$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AJ$7&gt;=$F24,AJ$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AK24" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C24="Objetivo",AK$7&gt;=$F24,AK$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AK$7&gt;=$F24,AK$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AL24" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C24="Objetivo",AL$7&gt;=$F24,AL$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AL$7&gt;=$F24,AL$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AM24" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C24="Objetivo",AM$7&gt;=$F24,AM$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AM$7&gt;=$F24,AM$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AN24" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C24="Objetivo",AN$7&gt;=$F24,AN$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AN$7&gt;=$F24,AN$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AO24" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C24="Objetivo",AO$7&gt;=$F24,AO$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AO$7&gt;=$F24,AO$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AP24" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C24="Objetivo",AP$7&gt;=$F24,AP$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AP$7&gt;=$F24,AP$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ24" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C24="Objetivo",AQ$7&gt;=$F24,AQ$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AQ$7&gt;=$F24,AQ$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AR24" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C24="Objetivo",AR$7&gt;=$F24,AR$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AR$7&gt;=$F24,AR$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AS24" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C24="Objetivo",AS$7&gt;=$F24,AS$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AS$7&gt;=$F24,AS$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AT24" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C24="Objetivo",AT$7&gt;=$F24,AT$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AT$7&gt;=$F24,AT$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AU24" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C24="Objetivo",AU$7&gt;=$F24,AU$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AU$7&gt;=$F24,AU$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AV24" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C24="Objetivo",AV$7&gt;=$F24,AV$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AV$7&gt;=$F24,AV$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AW24" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C24="Objetivo",AW$7&gt;=$F24,AW$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AW$7&gt;=$F24,AW$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AX24" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C24="Objetivo",AX$7&gt;=$F24,AX$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AX$7&gt;=$F24,AX$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AY24" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C24="Objetivo",AY$7&gt;=$F24,AY$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AY$7&gt;=$F24,AY$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ24" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C24="Objetivo",AZ$7&gt;=$F24,AZ$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",AZ$7&gt;=$F24,AZ$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="BA24" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C24="Objetivo",BA$7&gt;=$F24,BA$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",BA$7&gt;=$F24,BA$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="BB24" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C24="Objetivo",BB$7&gt;=$F24,BB$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",BB$7&gt;=$F24,BB$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="BC24" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C24="Objetivo",BC$7&gt;=$F24,BC$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",BC$7&gt;=$F24,BC$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="BD24" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C24="Objetivo",BD$7&gt;=$F24,BD$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",BD$7&gt;=$F24,BD$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="BE24" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C24="Objetivo",BE$7&gt;=$F24,BE$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",BE$7&gt;=$F24,BE$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="BF24" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C24="Objetivo",BF$7&gt;=$F24,BF$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",BF$7&gt;=$F24,BF$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="BG24" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C24="Objetivo",BG$7&gt;=$F24,BG$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",BG$7&gt;=$F24,BG$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="BH24" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C24="Objetivo",BH$7&gt;=$F24,BH$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",BH$7&gt;=$F24,BH$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="BI24" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C24="Objetivo",BI$7&gt;=$F24,BI$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",BI$7&gt;=$F24,BI$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ24" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C24="Objetivo",BJ$7&gt;=$F24,BJ$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",BJ$7&gt;=$F24,BJ$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="BK24" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C24="Objetivo",BK$7&gt;=$F24,BK$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",BK$7&gt;=$F24,BK$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="BL24" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C24="Objetivo",BL$7&gt;=$F24,BL$7&lt;=$F24+$G24-1),2,IF(AND($C24="Marco",BL$7&gt;=$F24,BL$7&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="BM24" s="29"/>
@@ -15621,232 +16029,232 @@
       </c>
       <c r="F25" s="24">
         <f>F21+6</f>
-        <v>44500</v>
+        <v>6</v>
       </c>
       <c r="G25" s="25"/>
       <c r="H25" s="20"/>
       <c r="I25" s="48" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C25="Objetivo",I$7&gt;=$F25,I$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",I$7&gt;=$F25,I$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="J25" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C25="Objetivo",J$7&gt;=$F25,J$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",J$7&gt;=$F25,J$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="K25" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C25="Objetivo",K$7&gt;=$F25,K$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",K$7&gt;=$F25,K$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="L25" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C25="Objetivo",L$7&gt;=$F25,L$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",L$7&gt;=$F25,L$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="M25" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C25="Objetivo",M$7&gt;=$F25,M$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",M$7&gt;=$F25,M$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="N25" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C25="Objetivo",N$7&gt;=$F25,N$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",N$7&gt;=$F25,N$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="O25" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C25="Objetivo",O$7&gt;=$F25,O$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",O$7&gt;=$F25,O$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="P25" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C25="Objetivo",P$7&gt;=$F25,P$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",P$7&gt;=$F25,P$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="Q25" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C25="Objetivo",Q$7&gt;=$F25,Q$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",Q$7&gt;=$F25,Q$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="R25" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C25="Objetivo",R$7&gt;=$F25,R$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",R$7&gt;=$F25,R$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="S25" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C25="Objetivo",S$7&gt;=$F25,S$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",S$7&gt;=$F25,S$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="T25" s="28" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C25="Objetivo",T$7&gt;=$F25,T$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",T$7&gt;=$F25,T$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="U25" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C25="Objetivo",U$7&gt;=$F25,U$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",U$7&gt;=$F25,U$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="V25" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C25="Objetivo",V$7&gt;=$F25,V$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",V$7&gt;=$F25,V$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="W25" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C25="Objetivo",W$7&gt;=$F25,W$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",W$7&gt;=$F25,W$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="X25" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C25="Objetivo",X$7&gt;=$F25,X$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",X$7&gt;=$F25,X$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="Y25" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C25="Objetivo",Y$7&gt;=$F25,Y$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",Y$7&gt;=$F25,Y$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="Z25" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C25="Objetivo",Z$7&gt;=$F25,Z$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",Z$7&gt;=$F25,Z$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AA25" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C25="Objetivo",AA$7&gt;=$F25,AA$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AA$7&gt;=$F25,AA$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AB25" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C25="Objetivo",AB$7&gt;=$F25,AB$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AB$7&gt;=$F25,AB$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AC25" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C25="Objetivo",AC$7&gt;=$F25,AC$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AC$7&gt;=$F25,AC$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AD25" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C25="Objetivo",AD$7&gt;=$F25,AD$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AD$7&gt;=$F25,AD$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AE25" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C25="Objetivo",AE$7&gt;=$F25,AE$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AE$7&gt;=$F25,AE$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AF25" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C25="Objetivo",AF$7&gt;=$F25,AF$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AF$7&gt;=$F25,AF$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AG25" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C25="Objetivo",AG$7&gt;=$F25,AG$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AG$7&gt;=$F25,AG$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AH25" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C25="Objetivo",AH$7&gt;=$F25,AH$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AH$7&gt;=$F25,AH$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AI25" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C25="Objetivo",AI$7&gt;=$F25,AI$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AI$7&gt;=$F25,AI$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ25" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C25="Objetivo",AJ$7&gt;=$F25,AJ$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AJ$7&gt;=$F25,AJ$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AK25" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C25="Objetivo",AK$7&gt;=$F25,AK$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AK$7&gt;=$F25,AK$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AL25" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C25="Objetivo",AL$7&gt;=$F25,AL$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AL$7&gt;=$F25,AL$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AM25" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C25="Objetivo",AM$7&gt;=$F25,AM$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AM$7&gt;=$F25,AM$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AN25" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C25="Objetivo",AN$7&gt;=$F25,AN$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AN$7&gt;=$F25,AN$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AO25" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C25="Objetivo",AO$7&gt;=$F25,AO$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AO$7&gt;=$F25,AO$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AP25" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C25="Objetivo",AP$7&gt;=$F25,AP$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AP$7&gt;=$F25,AP$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ25" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C25="Objetivo",AQ$7&gt;=$F25,AQ$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AQ$7&gt;=$F25,AQ$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AR25" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C25="Objetivo",AR$7&gt;=$F25,AR$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AR$7&gt;=$F25,AR$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AS25" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C25="Objetivo",AS$7&gt;=$F25,AS$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AS$7&gt;=$F25,AS$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AT25" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C25="Objetivo",AT$7&gt;=$F25,AT$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AT$7&gt;=$F25,AT$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AU25" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C25="Objetivo",AU$7&gt;=$F25,AU$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AU$7&gt;=$F25,AU$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AV25" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C25="Objetivo",AV$7&gt;=$F25,AV$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AV$7&gt;=$F25,AV$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AW25" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C25="Objetivo",AW$7&gt;=$F25,AW$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AW$7&gt;=$F25,AW$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AX25" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C25="Objetivo",AX$7&gt;=$F25,AX$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AX$7&gt;=$F25,AX$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AY25" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C25="Objetivo",AY$7&gt;=$F25,AY$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AY$7&gt;=$F25,AY$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ25" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C25="Objetivo",AZ$7&gt;=$F25,AZ$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",AZ$7&gt;=$F25,AZ$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="BA25" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C25="Objetivo",BA$7&gt;=$F25,BA$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",BA$7&gt;=$F25,BA$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="BB25" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C25="Objetivo",BB$7&gt;=$F25,BB$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",BB$7&gt;=$F25,BB$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="BC25" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C25="Objetivo",BC$7&gt;=$F25,BC$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",BC$7&gt;=$F25,BC$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="BD25" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C25="Objetivo",BD$7&gt;=$F25,BD$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",BD$7&gt;=$F25,BD$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="BE25" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C25="Objetivo",BE$7&gt;=$F25,BE$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",BE$7&gt;=$F25,BE$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="BF25" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C25="Objetivo",BF$7&gt;=$F25,BF$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",BF$7&gt;=$F25,BF$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="BG25" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C25="Objetivo",BG$7&gt;=$F25,BG$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",BG$7&gt;=$F25,BG$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="BH25" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C25="Objetivo",BH$7&gt;=$F25,BH$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",BH$7&gt;=$F25,BH$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="BI25" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C25="Objetivo",BI$7&gt;=$F25,BI$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",BI$7&gt;=$F25,BI$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ25" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C25="Objetivo",BJ$7&gt;=$F25,BJ$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",BJ$7&gt;=$F25,BJ$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="BK25" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C25="Objetivo",BK$7&gt;=$F25,BK$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",BK$7&gt;=$F25,BK$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="BL25" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C25="Objetivo",BL$7&gt;=$F25,BL$7&lt;=$F25+$G25-1),2,IF(AND($C25="Marco",BL$7&gt;=$F25,BL$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="BM25" s="29"/>
@@ -15872,227 +16280,227 @@
       </c>
       <c r="H26" s="20"/>
       <c r="I26" s="48" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C26="Objetivo",I$7&gt;=$F26,I$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",I$7&gt;=$F26,I$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="J26" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C26="Objetivo",J$7&gt;=$F26,J$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",J$7&gt;=$F26,J$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="K26" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C26="Objetivo",K$7&gt;=$F26,K$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",K$7&gt;=$F26,K$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="L26" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C26="Objetivo",L$7&gt;=$F26,L$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",L$7&gt;=$F26,L$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="M26" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C26="Objetivo",M$7&gt;=$F26,M$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",M$7&gt;=$F26,M$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="N26" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C26="Objetivo",N$7&gt;=$F26,N$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",N$7&gt;=$F26,N$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="O26" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C26="Objetivo",O$7&gt;=$F26,O$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",O$7&gt;=$F26,O$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="P26" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C26="Objetivo",P$7&gt;=$F26,P$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",P$7&gt;=$F26,P$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="Q26" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C26="Objetivo",Q$7&gt;=$F26,Q$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",Q$7&gt;=$F26,Q$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="R26" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C26="Objetivo",R$7&gt;=$F26,R$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",R$7&gt;=$F26,R$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="S26" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C26="Objetivo",S$7&gt;=$F26,S$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",S$7&gt;=$F26,S$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="T26" s="28" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C26="Objetivo",T$7&gt;=$F26,T$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",T$7&gt;=$F26,T$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="U26" s="28">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C26="Objetivo",U$7&gt;=$F26,U$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",U$7&gt;=$F26,U$7&lt;=$F26+$G26-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="V26" s="28">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C26="Objetivo",V$7&gt;=$F26,V$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",V$7&gt;=$F26,V$7&lt;=$F26+$G26-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="W26" s="28">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C26="Objetivo",W$7&gt;=$F26,W$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",W$7&gt;=$F26,W$7&lt;=$F26+$G26-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="X26" s="28">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(AND($C26="Objetivo",X$7&gt;=$F26,X$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",X$7&gt;=$F26,X$7&lt;=$F26+$G26-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="Y26" s="28">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C26="Objetivo",Y$7&gt;=$F26,Y$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",Y$7&gt;=$F26,Y$7&lt;=$F26+$G26-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="Z26" s="28">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C26="Objetivo",Z$7&gt;=$F26,Z$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",Z$7&gt;=$F26,Z$7&lt;=$F26+$G26-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="AA26" s="28">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C26="Objetivo",AA$7&gt;=$F26,AA$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AA$7&gt;=$F26,AA$7&lt;=$F26+$G26-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="AB26" s="28">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C26="Objetivo",AB$7&gt;=$F26,AB$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AB$7&gt;=$F26,AB$7&lt;=$F26+$G26-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="AC26" s="28">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C26="Objetivo",AC$7&gt;=$F26,AC$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AC$7&gt;=$F26,AC$7&lt;=$F26+$G26-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="AD26" s="28">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C26="Objetivo",AD$7&gt;=$F26,AD$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AD$7&gt;=$F26,AD$7&lt;=$F26+$G26-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="AE26" s="28">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C26="Objetivo",AE$7&gt;=$F26,AE$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AE$7&gt;=$F26,AE$7&lt;=$F26+$G26-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="AF26" s="28">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C26="Objetivo",AF$7&gt;=$F26,AF$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AF$7&gt;=$F26,AF$7&lt;=$F26+$G26-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="AG26" s="28">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C26="Objetivo",AG$7&gt;=$F26,AG$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AG$7&gt;=$F26,AG$7&lt;=$F26+$G26-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="AH26" s="28" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C26="Objetivo",AH$7&gt;=$F26,AH$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AH$7&gt;=$F26,AH$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AI26" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C26="Objetivo",AI$7&gt;=$F26,AI$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AI$7&gt;=$F26,AI$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ26" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C26="Objetivo",AJ$7&gt;=$F26,AJ$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AJ$7&gt;=$F26,AJ$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AK26" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C26="Objetivo",AK$7&gt;=$F26,AK$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AK$7&gt;=$F26,AK$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AL26" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C26="Objetivo",AL$7&gt;=$F26,AL$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AL$7&gt;=$F26,AL$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AM26" s="28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND($C26="Objetivo",AM$7&gt;=$F26,AM$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AM$7&gt;=$F26,AM$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AN26" s="28" t="str">
-        <f t="shared" ref="AN26:BC35" ca="1" si="12">IF(AND($C26="Objetivo",AN$7&gt;=$F26,AN$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AN$7&gt;=$F26,AN$7&lt;=$F26+$G26-1),1,""))</f>
+        <f ca="1">IF(AND($C26="Objetivo",AN$7&gt;=$F26,AN$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AN$7&gt;=$F26,AN$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AO26" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C26="Objetivo",AO$7&gt;=$F26,AO$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AO$7&gt;=$F26,AO$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AP26" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C26="Objetivo",AP$7&gt;=$F26,AP$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AP$7&gt;=$F26,AP$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ26" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C26="Objetivo",AQ$7&gt;=$F26,AQ$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AQ$7&gt;=$F26,AQ$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AR26" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C26="Objetivo",AR$7&gt;=$F26,AR$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AR$7&gt;=$F26,AR$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AS26" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C26="Objetivo",AS$7&gt;=$F26,AS$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AS$7&gt;=$F26,AS$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AT26" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C26="Objetivo",AT$7&gt;=$F26,AT$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AT$7&gt;=$F26,AT$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AU26" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C26="Objetivo",AU$7&gt;=$F26,AU$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AU$7&gt;=$F26,AU$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AV26" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C26="Objetivo",AV$7&gt;=$F26,AV$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AV$7&gt;=$F26,AV$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AW26" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C26="Objetivo",AW$7&gt;=$F26,AW$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AW$7&gt;=$F26,AW$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AX26" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C26="Objetivo",AX$7&gt;=$F26,AX$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AX$7&gt;=$F26,AX$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AY26" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C26="Objetivo",AY$7&gt;=$F26,AY$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AY$7&gt;=$F26,AY$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ26" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C26="Objetivo",AZ$7&gt;=$F26,AZ$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",AZ$7&gt;=$F26,AZ$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="BA26" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C26="Objetivo",BA$7&gt;=$F26,BA$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",BA$7&gt;=$F26,BA$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="BB26" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C26="Objetivo",BB$7&gt;=$F26,BB$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",BB$7&gt;=$F26,BB$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="BC26" s="28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C26="Objetivo",BC$7&gt;=$F26,BC$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",BC$7&gt;=$F26,BC$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="BD26" s="28" t="str">
-        <f t="shared" ref="BD26:BL35" ca="1" si="13">IF(AND($C26="Objetivo",BD$7&gt;=$F26,BD$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",BD$7&gt;=$F26,BD$7&lt;=$F26+$G26-1),1,""))</f>
+        <f ca="1">IF(AND($C26="Objetivo",BD$7&gt;=$F26,BD$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",BD$7&gt;=$F26,BD$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="BE26" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C26="Objetivo",BE$7&gt;=$F26,BE$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",BE$7&gt;=$F26,BE$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="BF26" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C26="Objetivo",BF$7&gt;=$F26,BF$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",BF$7&gt;=$F26,BF$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="BG26" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C26="Objetivo",BG$7&gt;=$F26,BG$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",BG$7&gt;=$F26,BG$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="BH26" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C26="Objetivo",BH$7&gt;=$F26,BH$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",BH$7&gt;=$F26,BH$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="BI26" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C26="Objetivo",BI$7&gt;=$F26,BI$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",BI$7&gt;=$F26,BI$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ26" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C26="Objetivo",BJ$7&gt;=$F26,BJ$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",BJ$7&gt;=$F26,BJ$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="BK26" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C26="Objetivo",BK$7&gt;=$F26,BK$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",BK$7&gt;=$F26,BK$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="BL26" s="28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C26="Objetivo",BL$7&gt;=$F26,BL$7&lt;=$F26+$G26-1),2,IF(AND($C26="Marco",BL$7&gt;=$F26,BL$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="BM26" s="29"/>
@@ -16116,236 +16524,234 @@
       </c>
       <c r="H27" s="20"/>
       <c r="I27" s="48" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C27="Objetivo",I$7&gt;=$F27,I$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",I$7&gt;=$F27,I$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="J27" s="28" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C27="Objetivo",J$7&gt;=$F27,J$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",J$7&gt;=$F27,J$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="K27" s="28" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C27="Objetivo",K$7&gt;=$F27,K$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",K$7&gt;=$F27,K$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="L27" s="28" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C27="Objetivo",L$7&gt;=$F27,L$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",L$7&gt;=$F27,L$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="M27" s="28" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C27="Objetivo",M$7&gt;=$F27,M$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",M$7&gt;=$F27,M$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="N27" s="28" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C27="Objetivo",N$7&gt;=$F27,N$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",N$7&gt;=$F27,N$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="O27" s="28" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C27="Objetivo",O$7&gt;=$F27,O$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",O$7&gt;=$F27,O$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="P27" s="28" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C27="Objetivo",P$7&gt;=$F27,P$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",P$7&gt;=$F27,P$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="Q27" s="28" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C27="Objetivo",Q$7&gt;=$F27,Q$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",Q$7&gt;=$F27,Q$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="R27" s="28" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C27="Objetivo",R$7&gt;=$F27,R$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",R$7&gt;=$F27,R$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="S27" s="28" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C27="Objetivo",S$7&gt;=$F27,S$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",S$7&gt;=$F27,S$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="T27" s="28" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C27="Objetivo",T$7&gt;=$F27,T$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",T$7&gt;=$F27,T$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="U27" s="28" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C27="Objetivo",U$7&gt;=$F27,U$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",U$7&gt;=$F27,U$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="V27" s="28" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C27="Objetivo",V$7&gt;=$F27,V$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",V$7&gt;=$F27,V$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="W27" s="28">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C27="Objetivo",W$7&gt;=$F27,W$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",W$7&gt;=$F27,W$7&lt;=$F27+$G27-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="X27" s="28">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C27="Objetivo",X$7&gt;=$F27,X$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",X$7&gt;=$F27,X$7&lt;=$F27+$G27-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="Y27" s="28">
-        <f t="shared" ref="Y27:AH35" ca="1" si="14">IF(AND($C27="Objetivo",Y$7&gt;=$F27,Y$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",Y$7&gt;=$F27,Y$7&lt;=$F27+$G27-1),1,""))</f>
+        <f ca="1">IF(AND($C27="Objetivo",Y$7&gt;=$F27,Y$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",Y$7&gt;=$F27,Y$7&lt;=$F27+$G27-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="Z27" s="28">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C27="Objetivo",Z$7&gt;=$F27,Z$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",Z$7&gt;=$F27,Z$7&lt;=$F27+$G27-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="AA27" s="28">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C27="Objetivo",AA$7&gt;=$F27,AA$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AA$7&gt;=$F27,AA$7&lt;=$F27+$G27-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="AB27" s="28">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C27="Objetivo",AB$7&gt;=$F27,AB$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AB$7&gt;=$F27,AB$7&lt;=$F27+$G27-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="AC27" s="28">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C27="Objetivo",AC$7&gt;=$F27,AC$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AC$7&gt;=$F27,AC$7&lt;=$F27+$G27-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="AD27" s="28">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C27="Objetivo",AD$7&gt;=$F27,AD$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AD$7&gt;=$F27,AD$7&lt;=$F27+$G27-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="AE27" s="28">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C27="Objetivo",AE$7&gt;=$F27,AE$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AE$7&gt;=$F27,AE$7&lt;=$F27+$G27-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="AF27" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C27="Objetivo",AF$7&gt;=$F27,AF$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AF$7&gt;=$F27,AF$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AG27" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C27="Objetivo",AG$7&gt;=$F27,AG$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AG$7&gt;=$F27,AG$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AH27" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C27="Objetivo",AH$7&gt;=$F27,AH$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AH$7&gt;=$F27,AH$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AI27" s="28" t="str">
-        <f t="shared" ref="AI27:AM35" ca="1" si="15">IF(AND($C27="Objetivo",AI$7&gt;=$F27,AI$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AI$7&gt;=$F27,AI$7&lt;=$F27+$G27-1),1,""))</f>
+        <f ca="1">IF(AND($C27="Objetivo",AI$7&gt;=$F27,AI$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AI$7&gt;=$F27,AI$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ27" s="28" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C27="Objetivo",AJ$7&gt;=$F27,AJ$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AJ$7&gt;=$F27,AJ$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AK27" s="28" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C27="Objetivo",AK$7&gt;=$F27,AK$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AK$7&gt;=$F27,AK$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AL27" s="28" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C27="Objetivo",AL$7&gt;=$F27,AL$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AL$7&gt;=$F27,AL$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AM27" s="28" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C27="Objetivo",AM$7&gt;=$F27,AM$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AM$7&gt;=$F27,AM$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AN27" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C27="Objetivo",AN$7&gt;=$F27,AN$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AN$7&gt;=$F27,AN$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AO27" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C27="Objetivo",AO$7&gt;=$F27,AO$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AO$7&gt;=$F27,AO$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AP27" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C27="Objetivo",AP$7&gt;=$F27,AP$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AP$7&gt;=$F27,AP$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ27" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C27="Objetivo",AQ$7&gt;=$F27,AQ$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AQ$7&gt;=$F27,AQ$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AR27" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C27="Objetivo",AR$7&gt;=$F27,AR$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AR$7&gt;=$F27,AR$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AS27" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C27="Objetivo",AS$7&gt;=$F27,AS$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AS$7&gt;=$F27,AS$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AT27" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C27="Objetivo",AT$7&gt;=$F27,AT$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AT$7&gt;=$F27,AT$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AU27" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C27="Objetivo",AU$7&gt;=$F27,AU$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AU$7&gt;=$F27,AU$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AV27" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C27="Objetivo",AV$7&gt;=$F27,AV$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AV$7&gt;=$F27,AV$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AW27" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C27="Objetivo",AW$7&gt;=$F27,AW$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AW$7&gt;=$F27,AW$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AX27" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C27="Objetivo",AX$7&gt;=$F27,AX$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AX$7&gt;=$F27,AX$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AY27" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C27="Objetivo",AY$7&gt;=$F27,AY$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AY$7&gt;=$F27,AY$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ27" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C27="Objetivo",AZ$7&gt;=$F27,AZ$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",AZ$7&gt;=$F27,AZ$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="BA27" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C27="Objetivo",BA$7&gt;=$F27,BA$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",BA$7&gt;=$F27,BA$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="BB27" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C27="Objetivo",BB$7&gt;=$F27,BB$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",BB$7&gt;=$F27,BB$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="BC27" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C27="Objetivo",BC$7&gt;=$F27,BC$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",BC$7&gt;=$F27,BC$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="BD27" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C27="Objetivo",BD$7&gt;=$F27,BD$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",BD$7&gt;=$F27,BD$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="BE27" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C27="Objetivo",BE$7&gt;=$F27,BE$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",BE$7&gt;=$F27,BE$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="BF27" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C27="Objetivo",BF$7&gt;=$F27,BF$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",BF$7&gt;=$F27,BF$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="BG27" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C27="Objetivo",BG$7&gt;=$F27,BG$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",BG$7&gt;=$F27,BG$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="BH27" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C27="Objetivo",BH$7&gt;=$F27,BH$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",BH$7&gt;=$F27,BH$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="BI27" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C27="Objetivo",BI$7&gt;=$F27,BI$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",BI$7&gt;=$F27,BI$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ27" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C27="Objetivo",BJ$7&gt;=$F27,BJ$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",BJ$7&gt;=$F27,BJ$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="BK27" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C27="Objetivo",BK$7&gt;=$F27,BK$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",BK$7&gt;=$F27,BK$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="BL27" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C27="Objetivo",BL$7&gt;=$F27,BL$7&lt;=$F27+$G27-1),2,IF(AND($C27="Marco",BL$7&gt;=$F27,BL$7&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="BM27" s="29"/>
     </row>
     <row r="28" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
-      <c r="B28" s="26" t="s">
-        <v>14</v>
-      </c>
+      <c r="B28" s="26"/>
       <c r="C28" s="22" t="s">
         <v>22</v>
       </c>
@@ -16360,236 +16766,234 @@
       </c>
       <c r="H28" s="20"/>
       <c r="I28" s="48" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C28="Objetivo",I$7&gt;=$F28,I$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",I$7&gt;=$F28,I$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="J28" s="28" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C28="Objetivo",J$7&gt;=$F28,J$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",J$7&gt;=$F28,J$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="K28" s="28" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C28="Objetivo",K$7&gt;=$F28,K$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",K$7&gt;=$F28,K$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="L28" s="28" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C28="Objetivo",L$7&gt;=$F28,L$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",L$7&gt;=$F28,L$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="M28" s="28" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C28="Objetivo",M$7&gt;=$F28,M$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",M$7&gt;=$F28,M$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="N28" s="28" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C28="Objetivo",N$7&gt;=$F28,N$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",N$7&gt;=$F28,N$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="O28" s="28" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C28="Objetivo",O$7&gt;=$F28,O$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",O$7&gt;=$F28,O$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="P28" s="28" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C28="Objetivo",P$7&gt;=$F28,P$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",P$7&gt;=$F28,P$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="Q28" s="28" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C28="Objetivo",Q$7&gt;=$F28,Q$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",Q$7&gt;=$F28,Q$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="R28" s="28" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C28="Objetivo",R$7&gt;=$F28,R$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",R$7&gt;=$F28,R$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="S28" s="28" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C28="Objetivo",S$7&gt;=$F28,S$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",S$7&gt;=$F28,S$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="T28" s="28" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C28="Objetivo",T$7&gt;=$F28,T$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",T$7&gt;=$F28,T$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="U28" s="28" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C28="Objetivo",U$7&gt;=$F28,U$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",U$7&gt;=$F28,U$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="V28" s="28" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C28="Objetivo",V$7&gt;=$F28,V$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",V$7&gt;=$F28,V$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="W28" s="28" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C28="Objetivo",W$7&gt;=$F28,W$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",W$7&gt;=$F28,W$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="X28" s="28" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C28="Objetivo",X$7&gt;=$F28,X$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",X$7&gt;=$F28,X$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="Y28" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C28="Objetivo",Y$7&gt;=$F28,Y$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",Y$7&gt;=$F28,Y$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="Z28" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C28="Objetivo",Z$7&gt;=$F28,Z$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",Z$7&gt;=$F28,Z$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AA28" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C28="Objetivo",AA$7&gt;=$F28,AA$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AA$7&gt;=$F28,AA$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AB28" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C28="Objetivo",AB$7&gt;=$F28,AB$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AB$7&gt;=$F28,AB$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AC28" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C28="Objetivo",AC$7&gt;=$F28,AC$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AC$7&gt;=$F28,AC$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AD28" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C28="Objetivo",AD$7&gt;=$F28,AD$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AD$7&gt;=$F28,AD$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AE28" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C28="Objetivo",AE$7&gt;=$F28,AE$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AE$7&gt;=$F28,AE$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AF28" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C28="Objetivo",AF$7&gt;=$F28,AF$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AF$7&gt;=$F28,AF$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AG28" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C28="Objetivo",AG$7&gt;=$F28,AG$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AG$7&gt;=$F28,AG$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AH28" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C28="Objetivo",AH$7&gt;=$F28,AH$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AH$7&gt;=$F28,AH$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AI28" s="28" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C28="Objetivo",AI$7&gt;=$F28,AI$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AI$7&gt;=$F28,AI$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ28" s="28" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C28="Objetivo",AJ$7&gt;=$F28,AJ$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AJ$7&gt;=$F28,AJ$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AK28" s="28" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C28="Objetivo",AK$7&gt;=$F28,AK$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AK$7&gt;=$F28,AK$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AL28" s="28" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C28="Objetivo",AL$7&gt;=$F28,AL$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AL$7&gt;=$F28,AL$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AM28" s="28" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C28="Objetivo",AM$7&gt;=$F28,AM$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AM$7&gt;=$F28,AM$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AN28" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C28="Objetivo",AN$7&gt;=$F28,AN$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AN$7&gt;=$F28,AN$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AO28" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C28="Objetivo",AO$7&gt;=$F28,AO$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AO$7&gt;=$F28,AO$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AP28" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C28="Objetivo",AP$7&gt;=$F28,AP$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AP$7&gt;=$F28,AP$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ28" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C28="Objetivo",AQ$7&gt;=$F28,AQ$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AQ$7&gt;=$F28,AQ$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AR28" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C28="Objetivo",AR$7&gt;=$F28,AR$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AR$7&gt;=$F28,AR$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AS28" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C28="Objetivo",AS$7&gt;=$F28,AS$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AS$7&gt;=$F28,AS$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AT28" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C28="Objetivo",AT$7&gt;=$F28,AT$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AT$7&gt;=$F28,AT$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AU28" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C28="Objetivo",AU$7&gt;=$F28,AU$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AU$7&gt;=$F28,AU$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AV28" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C28="Objetivo",AV$7&gt;=$F28,AV$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AV$7&gt;=$F28,AV$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AW28" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C28="Objetivo",AW$7&gt;=$F28,AW$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AW$7&gt;=$F28,AW$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AX28" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C28="Objetivo",AX$7&gt;=$F28,AX$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AX$7&gt;=$F28,AX$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AY28" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C28="Objetivo",AY$7&gt;=$F28,AY$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AY$7&gt;=$F28,AY$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ28" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C28="Objetivo",AZ$7&gt;=$F28,AZ$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",AZ$7&gt;=$F28,AZ$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="BA28" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C28="Objetivo",BA$7&gt;=$F28,BA$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",BA$7&gt;=$F28,BA$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="BB28" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C28="Objetivo",BB$7&gt;=$F28,BB$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",BB$7&gt;=$F28,BB$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="BC28" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C28="Objetivo",BC$7&gt;=$F28,BC$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",BC$7&gt;=$F28,BC$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="BD28" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C28="Objetivo",BD$7&gt;=$F28,BD$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",BD$7&gt;=$F28,BD$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="BE28" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C28="Objetivo",BE$7&gt;=$F28,BE$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",BE$7&gt;=$F28,BE$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="BF28" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C28="Objetivo",BF$7&gt;=$F28,BF$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",BF$7&gt;=$F28,BF$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="BG28" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C28="Objetivo",BG$7&gt;=$F28,BG$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",BG$7&gt;=$F28,BG$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="BH28" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C28="Objetivo",BH$7&gt;=$F28,BH$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",BH$7&gt;=$F28,BH$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="BI28" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C28="Objetivo",BI$7&gt;=$F28,BI$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",BI$7&gt;=$F28,BI$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ28" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C28="Objetivo",BJ$7&gt;=$F28,BJ$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",BJ$7&gt;=$F28,BJ$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="BK28" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C28="Objetivo",BK$7&gt;=$F28,BK$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",BK$7&gt;=$F28,BK$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="BL28" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C28="Objetivo",BL$7&gt;=$F28,BL$7&lt;=$F28+$G28-1),2,IF(AND($C28="Marco",BL$7&gt;=$F28,BL$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="BM28" s="29"/>
     </row>
     <row r="29" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
-      <c r="B29" s="123" t="s">
-        <v>17</v>
-      </c>
+      <c r="B29" s="123"/>
       <c r="C29" s="22" t="s">
         <v>21</v>
       </c>
@@ -16599,227 +17003,227 @@
       <c r="G29" s="25"/>
       <c r="H29" s="20"/>
       <c r="I29" s="48" t="str">
-        <f t="shared" ref="I29:X35" ca="1" si="16">IF(AND($C29="Objetivo",I$7&gt;=$F29,I$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",I$7&gt;=$F29,I$7&lt;=$F29+$G29-1),1,""))</f>
+        <f ca="1">IF(AND($C29="Objetivo",I$7&gt;=$F29,I$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",I$7&gt;=$F29,I$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="J29" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C29="Objetivo",J$7&gt;=$F29,J$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",J$7&gt;=$F29,J$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="K29" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C29="Objetivo",K$7&gt;=$F29,K$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",K$7&gt;=$F29,K$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="L29" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C29="Objetivo",L$7&gt;=$F29,L$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",L$7&gt;=$F29,L$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="M29" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C29="Objetivo",M$7&gt;=$F29,M$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",M$7&gt;=$F29,M$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="N29" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C29="Objetivo",N$7&gt;=$F29,N$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",N$7&gt;=$F29,N$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="O29" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C29="Objetivo",O$7&gt;=$F29,O$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",O$7&gt;=$F29,O$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="P29" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C29="Objetivo",P$7&gt;=$F29,P$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",P$7&gt;=$F29,P$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="Q29" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C29="Objetivo",Q$7&gt;=$F29,Q$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",Q$7&gt;=$F29,Q$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="R29" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C29="Objetivo",R$7&gt;=$F29,R$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",R$7&gt;=$F29,R$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="S29" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C29="Objetivo",S$7&gt;=$F29,S$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",S$7&gt;=$F29,S$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="T29" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C29="Objetivo",T$7&gt;=$F29,T$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",T$7&gt;=$F29,T$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="U29" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C29="Objetivo",U$7&gt;=$F29,U$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",U$7&gt;=$F29,U$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="V29" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C29="Objetivo",V$7&gt;=$F29,V$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",V$7&gt;=$F29,V$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="W29" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C29="Objetivo",W$7&gt;=$F29,W$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",W$7&gt;=$F29,W$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="X29" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C29="Objetivo",X$7&gt;=$F29,X$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",X$7&gt;=$F29,X$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="Y29" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C29="Objetivo",Y$7&gt;=$F29,Y$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",Y$7&gt;=$F29,Y$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="Z29" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C29="Objetivo",Z$7&gt;=$F29,Z$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",Z$7&gt;=$F29,Z$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AA29" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C29="Objetivo",AA$7&gt;=$F29,AA$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AA$7&gt;=$F29,AA$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AB29" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C29="Objetivo",AB$7&gt;=$F29,AB$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AB$7&gt;=$F29,AB$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AC29" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C29="Objetivo",AC$7&gt;=$F29,AC$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AC$7&gt;=$F29,AC$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AD29" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C29="Objetivo",AD$7&gt;=$F29,AD$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AD$7&gt;=$F29,AD$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AE29" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C29="Objetivo",AE$7&gt;=$F29,AE$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AE$7&gt;=$F29,AE$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AF29" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C29="Objetivo",AF$7&gt;=$F29,AF$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AF$7&gt;=$F29,AF$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AG29" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C29="Objetivo",AG$7&gt;=$F29,AG$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AG$7&gt;=$F29,AG$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AH29" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C29="Objetivo",AH$7&gt;=$F29,AH$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AH$7&gt;=$F29,AH$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AI29" s="28" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C29="Objetivo",AI$7&gt;=$F29,AI$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AI$7&gt;=$F29,AI$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ29" s="28" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C29="Objetivo",AJ$7&gt;=$F29,AJ$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AJ$7&gt;=$F29,AJ$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AK29" s="28" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C29="Objetivo",AK$7&gt;=$F29,AK$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AK$7&gt;=$F29,AK$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AL29" s="28" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C29="Objetivo",AL$7&gt;=$F29,AL$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AL$7&gt;=$F29,AL$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AM29" s="28" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C29="Objetivo",AM$7&gt;=$F29,AM$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AM$7&gt;=$F29,AM$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AN29" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C29="Objetivo",AN$7&gt;=$F29,AN$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AN$7&gt;=$F29,AN$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AO29" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C29="Objetivo",AO$7&gt;=$F29,AO$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AO$7&gt;=$F29,AO$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AP29" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C29="Objetivo",AP$7&gt;=$F29,AP$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AP$7&gt;=$F29,AP$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ29" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C29="Objetivo",AQ$7&gt;=$F29,AQ$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AQ$7&gt;=$F29,AQ$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AR29" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C29="Objetivo",AR$7&gt;=$F29,AR$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AR$7&gt;=$F29,AR$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AS29" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C29="Objetivo",AS$7&gt;=$F29,AS$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AS$7&gt;=$F29,AS$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AT29" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C29="Objetivo",AT$7&gt;=$F29,AT$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AT$7&gt;=$F29,AT$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AU29" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C29="Objetivo",AU$7&gt;=$F29,AU$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AU$7&gt;=$F29,AU$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AV29" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C29="Objetivo",AV$7&gt;=$F29,AV$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AV$7&gt;=$F29,AV$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AW29" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C29="Objetivo",AW$7&gt;=$F29,AW$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AW$7&gt;=$F29,AW$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AX29" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C29="Objetivo",AX$7&gt;=$F29,AX$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AX$7&gt;=$F29,AX$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AY29" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C29="Objetivo",AY$7&gt;=$F29,AY$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AY$7&gt;=$F29,AY$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ29" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C29="Objetivo",AZ$7&gt;=$F29,AZ$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",AZ$7&gt;=$F29,AZ$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="BA29" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C29="Objetivo",BA$7&gt;=$F29,BA$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",BA$7&gt;=$F29,BA$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="BB29" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C29="Objetivo",BB$7&gt;=$F29,BB$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",BB$7&gt;=$F29,BB$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="BC29" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C29="Objetivo",BC$7&gt;=$F29,BC$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",BC$7&gt;=$F29,BC$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="BD29" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C29="Objetivo",BD$7&gt;=$F29,BD$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",BD$7&gt;=$F29,BD$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="BE29" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C29="Objetivo",BE$7&gt;=$F29,BE$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",BE$7&gt;=$F29,BE$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="BF29" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C29="Objetivo",BF$7&gt;=$F29,BF$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",BF$7&gt;=$F29,BF$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="BG29" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C29="Objetivo",BG$7&gt;=$F29,BG$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",BG$7&gt;=$F29,BG$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="BH29" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C29="Objetivo",BH$7&gt;=$F29,BH$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",BH$7&gt;=$F29,BH$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="BI29" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C29="Objetivo",BI$7&gt;=$F29,BI$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",BI$7&gt;=$F29,BI$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ29" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C29="Objetivo",BJ$7&gt;=$F29,BJ$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",BJ$7&gt;=$F29,BJ$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="BK29" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C29="Objetivo",BK$7&gt;=$F29,BK$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",BK$7&gt;=$F29,BK$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="BL29" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C29="Objetivo",BL$7&gt;=$F29,BL$7&lt;=$F29+$G29-1),2,IF(AND($C29="Marco",BL$7&gt;=$F29,BL$7&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="BM29" s="29"/>
@@ -16843,227 +17247,227 @@
       </c>
       <c r="H30" s="20"/>
       <c r="I30" s="48" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C30="Objetivo",I$7&gt;=$F30,I$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",I$7&gt;=$F30,I$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="J30" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C30="Objetivo",J$7&gt;=$F30,J$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",J$7&gt;=$F30,J$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="K30" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C30="Objetivo",K$7&gt;=$F30,K$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",K$7&gt;=$F30,K$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="L30" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C30="Objetivo",L$7&gt;=$F30,L$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",L$7&gt;=$F30,L$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="M30" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C30="Objetivo",M$7&gt;=$F30,M$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",M$7&gt;=$F30,M$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="N30" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C30="Objetivo",N$7&gt;=$F30,N$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",N$7&gt;=$F30,N$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="O30" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C30="Objetivo",O$7&gt;=$F30,O$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",O$7&gt;=$F30,O$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="P30" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C30="Objetivo",P$7&gt;=$F30,P$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",P$7&gt;=$F30,P$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="Q30" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C30="Objetivo",Q$7&gt;=$F30,Q$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",Q$7&gt;=$F30,Q$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="R30" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C30="Objetivo",R$7&gt;=$F30,R$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",R$7&gt;=$F30,R$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="S30" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C30="Objetivo",S$7&gt;=$F30,S$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",S$7&gt;=$F30,S$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="T30" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C30="Objetivo",T$7&gt;=$F30,T$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",T$7&gt;=$F30,T$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="U30" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C30="Objetivo",U$7&gt;=$F30,U$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",U$7&gt;=$F30,U$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="V30" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C30="Objetivo",V$7&gt;=$F30,V$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",V$7&gt;=$F30,V$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="W30" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C30="Objetivo",W$7&gt;=$F30,W$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",W$7&gt;=$F30,W$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="X30" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C30="Objetivo",X$7&gt;=$F30,X$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",X$7&gt;=$F30,X$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="Y30" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C30="Objetivo",Y$7&gt;=$F30,Y$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",Y$7&gt;=$F30,Y$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="Z30" s="28">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C30="Objetivo",Z$7&gt;=$F30,Z$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",Z$7&gt;=$F30,Z$7&lt;=$F30+$G30-1),1,""))</f>
         <v>1</v>
       </c>
       <c r="AA30" s="28">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C30="Objetivo",AA$7&gt;=$F30,AA$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AA$7&gt;=$F30,AA$7&lt;=$F30+$G30-1),1,""))</f>
         <v>1</v>
       </c>
       <c r="AB30" s="28">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C30="Objetivo",AB$7&gt;=$F30,AB$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AB$7&gt;=$F30,AB$7&lt;=$F30+$G30-1),1,""))</f>
         <v>1</v>
       </c>
       <c r="AC30" s="28">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C30="Objetivo",AC$7&gt;=$F30,AC$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AC$7&gt;=$F30,AC$7&lt;=$F30+$G30-1),1,""))</f>
         <v>1</v>
       </c>
       <c r="AD30" s="28">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C30="Objetivo",AD$7&gt;=$F30,AD$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AD$7&gt;=$F30,AD$7&lt;=$F30+$G30-1),1,""))</f>
         <v>1</v>
       </c>
       <c r="AE30" s="28">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C30="Objetivo",AE$7&gt;=$F30,AE$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AE$7&gt;=$F30,AE$7&lt;=$F30+$G30-1),1,""))</f>
         <v>1</v>
       </c>
       <c r="AF30" s="28">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C30="Objetivo",AF$7&gt;=$F30,AF$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AF$7&gt;=$F30,AF$7&lt;=$F30+$G30-1),1,""))</f>
         <v>1</v>
       </c>
       <c r="AG30" s="28">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C30="Objetivo",AG$7&gt;=$F30,AG$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AG$7&gt;=$F30,AG$7&lt;=$F30+$G30-1),1,""))</f>
         <v>1</v>
       </c>
       <c r="AH30" s="28">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C30="Objetivo",AH$7&gt;=$F30,AH$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AH$7&gt;=$F30,AH$7&lt;=$F30+$G30-1),1,""))</f>
         <v>1</v>
       </c>
       <c r="AI30" s="28">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C30="Objetivo",AI$7&gt;=$F30,AI$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AI$7&gt;=$F30,AI$7&lt;=$F30+$G30-1),1,""))</f>
         <v>1</v>
       </c>
       <c r="AJ30" s="28">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C30="Objetivo",AJ$7&gt;=$F30,AJ$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AJ$7&gt;=$F30,AJ$7&lt;=$F30+$G30-1),1,""))</f>
         <v>1</v>
       </c>
       <c r="AK30" s="28">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C30="Objetivo",AK$7&gt;=$F30,AK$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AK$7&gt;=$F30,AK$7&lt;=$F30+$G30-1),1,""))</f>
         <v>1</v>
       </c>
       <c r="AL30" s="28">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C30="Objetivo",AL$7&gt;=$F30,AL$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AL$7&gt;=$F30,AL$7&lt;=$F30+$G30-1),1,""))</f>
         <v>1</v>
       </c>
       <c r="AM30" s="28">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C30="Objetivo",AM$7&gt;=$F30,AM$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AM$7&gt;=$F30,AM$7&lt;=$F30+$G30-1),1,""))</f>
         <v>1</v>
       </c>
       <c r="AN30" s="28">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C30="Objetivo",AN$7&gt;=$F30,AN$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AN$7&gt;=$F30,AN$7&lt;=$F30+$G30-1),1,""))</f>
         <v>1</v>
       </c>
       <c r="AO30" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C30="Objetivo",AO$7&gt;=$F30,AO$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AO$7&gt;=$F30,AO$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AP30" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C30="Objetivo",AP$7&gt;=$F30,AP$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AP$7&gt;=$F30,AP$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ30" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C30="Objetivo",AQ$7&gt;=$F30,AQ$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AQ$7&gt;=$F30,AQ$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AR30" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C30="Objetivo",AR$7&gt;=$F30,AR$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AR$7&gt;=$F30,AR$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AS30" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C30="Objetivo",AS$7&gt;=$F30,AS$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AS$7&gt;=$F30,AS$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AT30" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C30="Objetivo",AT$7&gt;=$F30,AT$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AT$7&gt;=$F30,AT$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AU30" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C30="Objetivo",AU$7&gt;=$F30,AU$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AU$7&gt;=$F30,AU$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AV30" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C30="Objetivo",AV$7&gt;=$F30,AV$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AV$7&gt;=$F30,AV$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AW30" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C30="Objetivo",AW$7&gt;=$F30,AW$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AW$7&gt;=$F30,AW$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AX30" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C30="Objetivo",AX$7&gt;=$F30,AX$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AX$7&gt;=$F30,AX$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AY30" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C30="Objetivo",AY$7&gt;=$F30,AY$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AY$7&gt;=$F30,AY$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ30" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C30="Objetivo",AZ$7&gt;=$F30,AZ$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",AZ$7&gt;=$F30,AZ$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="BA30" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C30="Objetivo",BA$7&gt;=$F30,BA$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",BA$7&gt;=$F30,BA$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="BB30" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C30="Objetivo",BB$7&gt;=$F30,BB$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",BB$7&gt;=$F30,BB$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="BC30" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C30="Objetivo",BC$7&gt;=$F30,BC$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",BC$7&gt;=$F30,BC$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="BD30" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C30="Objetivo",BD$7&gt;=$F30,BD$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",BD$7&gt;=$F30,BD$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="BE30" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C30="Objetivo",BE$7&gt;=$F30,BE$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",BE$7&gt;=$F30,BE$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="BF30" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C30="Objetivo",BF$7&gt;=$F30,BF$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",BF$7&gt;=$F30,BF$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="BG30" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C30="Objetivo",BG$7&gt;=$F30,BG$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",BG$7&gt;=$F30,BG$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="BH30" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C30="Objetivo",BH$7&gt;=$F30,BH$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",BH$7&gt;=$F30,BH$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="BI30" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C30="Objetivo",BI$7&gt;=$F30,BI$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",BI$7&gt;=$F30,BI$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ30" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C30="Objetivo",BJ$7&gt;=$F30,BJ$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",BJ$7&gt;=$F30,BJ$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="BK30" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C30="Objetivo",BK$7&gt;=$F30,BK$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",BK$7&gt;=$F30,BK$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="BL30" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C30="Objetivo",BL$7&gt;=$F30,BL$7&lt;=$F30+$G30-1),2,IF(AND($C30="Marco",BL$7&gt;=$F30,BL$7&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="BM30" s="29"/>
@@ -17087,227 +17491,227 @@
       </c>
       <c r="H31" s="20"/>
       <c r="I31" s="48" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C31="Objetivo",I$7&gt;=$F31,I$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",I$7&gt;=$F31,I$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="J31" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C31="Objetivo",J$7&gt;=$F31,J$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",J$7&gt;=$F31,J$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="K31" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C31="Objetivo",K$7&gt;=$F31,K$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",K$7&gt;=$F31,K$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="L31" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C31="Objetivo",L$7&gt;=$F31,L$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",L$7&gt;=$F31,L$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="M31" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C31="Objetivo",M$7&gt;=$F31,M$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",M$7&gt;=$F31,M$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="N31" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C31="Objetivo",N$7&gt;=$F31,N$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",N$7&gt;=$F31,N$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="O31" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C31="Objetivo",O$7&gt;=$F31,O$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",O$7&gt;=$F31,O$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="P31" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C31="Objetivo",P$7&gt;=$F31,P$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",P$7&gt;=$F31,P$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="Q31" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C31="Objetivo",Q$7&gt;=$F31,Q$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",Q$7&gt;=$F31,Q$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="R31" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C31="Objetivo",R$7&gt;=$F31,R$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",R$7&gt;=$F31,R$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="S31" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C31="Objetivo",S$7&gt;=$F31,S$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",S$7&gt;=$F31,S$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="T31" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C31="Objetivo",T$7&gt;=$F31,T$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",T$7&gt;=$F31,T$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="U31" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C31="Objetivo",U$7&gt;=$F31,U$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",U$7&gt;=$F31,U$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="V31" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C31="Objetivo",V$7&gt;=$F31,V$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",V$7&gt;=$F31,V$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="W31" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C31="Objetivo",W$7&gt;=$F31,W$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",W$7&gt;=$F31,W$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="X31" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C31="Objetivo",X$7&gt;=$F31,X$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",X$7&gt;=$F31,X$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="Y31" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C31="Objetivo",Y$7&gt;=$F31,Y$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",Y$7&gt;=$F31,Y$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="Z31" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C31="Objetivo",Z$7&gt;=$F31,Z$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",Z$7&gt;=$F31,Z$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AA31" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C31="Objetivo",AA$7&gt;=$F31,AA$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AA$7&gt;=$F31,AA$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AB31" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C31="Objetivo",AB$7&gt;=$F31,AB$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AB$7&gt;=$F31,AB$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AC31" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C31="Objetivo",AC$7&gt;=$F31,AC$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AC$7&gt;=$F31,AC$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AD31" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C31="Objetivo",AD$7&gt;=$F31,AD$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AD$7&gt;=$F31,AD$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AE31" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C31="Objetivo",AE$7&gt;=$F31,AE$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AE$7&gt;=$F31,AE$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AF31" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C31="Objetivo",AF$7&gt;=$F31,AF$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AF$7&gt;=$F31,AF$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AG31" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C31="Objetivo",AG$7&gt;=$F31,AG$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AG$7&gt;=$F31,AG$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AH31" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C31="Objetivo",AH$7&gt;=$F31,AH$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AH$7&gt;=$F31,AH$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AI31" s="28" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C31="Objetivo",AI$7&gt;=$F31,AI$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AI$7&gt;=$F31,AI$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ31" s="28" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C31="Objetivo",AJ$7&gt;=$F31,AJ$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AJ$7&gt;=$F31,AJ$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AK31" s="28" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C31="Objetivo",AK$7&gt;=$F31,AK$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AK$7&gt;=$F31,AK$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AL31" s="28" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C31="Objetivo",AL$7&gt;=$F31,AL$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AL$7&gt;=$F31,AL$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AM31" s="28" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C31="Objetivo",AM$7&gt;=$F31,AM$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AM$7&gt;=$F31,AM$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AN31" s="28">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C31="Objetivo",AN$7&gt;=$F31,AN$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AN$7&gt;=$F31,AN$7&lt;=$F31+$G31-1),1,""))</f>
         <v>1</v>
       </c>
       <c r="AO31" s="28">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C31="Objetivo",AO$7&gt;=$F31,AO$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AO$7&gt;=$F31,AO$7&lt;=$F31+$G31-1),1,""))</f>
         <v>1</v>
       </c>
       <c r="AP31" s="28">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C31="Objetivo",AP$7&gt;=$F31,AP$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AP$7&gt;=$F31,AP$7&lt;=$F31+$G31-1),1,""))</f>
         <v>1</v>
       </c>
       <c r="AQ31" s="28">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C31="Objetivo",AQ$7&gt;=$F31,AQ$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AQ$7&gt;=$F31,AQ$7&lt;=$F31+$G31-1),1,""))</f>
         <v>1</v>
       </c>
       <c r="AR31" s="28">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C31="Objetivo",AR$7&gt;=$F31,AR$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AR$7&gt;=$F31,AR$7&lt;=$F31+$G31-1),1,""))</f>
         <v>1</v>
       </c>
       <c r="AS31" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C31="Objetivo",AS$7&gt;=$F31,AS$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AS$7&gt;=$F31,AS$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AT31" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C31="Objetivo",AT$7&gt;=$F31,AT$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AT$7&gt;=$F31,AT$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AU31" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C31="Objetivo",AU$7&gt;=$F31,AU$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AU$7&gt;=$F31,AU$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AV31" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C31="Objetivo",AV$7&gt;=$F31,AV$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AV$7&gt;=$F31,AV$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AW31" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C31="Objetivo",AW$7&gt;=$F31,AW$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AW$7&gt;=$F31,AW$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AX31" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C31="Objetivo",AX$7&gt;=$F31,AX$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AX$7&gt;=$F31,AX$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AY31" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C31="Objetivo",AY$7&gt;=$F31,AY$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AY$7&gt;=$F31,AY$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ31" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C31="Objetivo",AZ$7&gt;=$F31,AZ$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",AZ$7&gt;=$F31,AZ$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="BA31" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C31="Objetivo",BA$7&gt;=$F31,BA$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",BA$7&gt;=$F31,BA$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="BB31" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C31="Objetivo",BB$7&gt;=$F31,BB$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",BB$7&gt;=$F31,BB$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="BC31" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C31="Objetivo",BC$7&gt;=$F31,BC$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",BC$7&gt;=$F31,BC$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="BD31" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C31="Objetivo",BD$7&gt;=$F31,BD$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",BD$7&gt;=$F31,BD$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="BE31" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C31="Objetivo",BE$7&gt;=$F31,BE$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",BE$7&gt;=$F31,BE$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="BF31" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C31="Objetivo",BF$7&gt;=$F31,BF$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",BF$7&gt;=$F31,BF$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="BG31" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C31="Objetivo",BG$7&gt;=$F31,BG$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",BG$7&gt;=$F31,BG$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="BH31" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C31="Objetivo",BH$7&gt;=$F31,BH$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",BH$7&gt;=$F31,BH$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="BI31" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C31="Objetivo",BI$7&gt;=$F31,BI$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",BI$7&gt;=$F31,BI$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ31" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C31="Objetivo",BJ$7&gt;=$F31,BJ$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",BJ$7&gt;=$F31,BJ$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="BK31" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C31="Objetivo",BK$7&gt;=$F31,BK$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",BK$7&gt;=$F31,BK$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="BL31" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C31="Objetivo",BL$7&gt;=$F31,BL$7&lt;=$F31+$G31-1),2,IF(AND($C31="Marco",BL$7&gt;=$F31,BL$7&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="BM31" s="29"/>
@@ -17331,227 +17735,227 @@
       </c>
       <c r="H32" s="20"/>
       <c r="I32" s="48" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C32="Objetivo",I$7&gt;=$F32,I$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",I$7&gt;=$F32,I$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="J32" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C32="Objetivo",J$7&gt;=$F32,J$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",J$7&gt;=$F32,J$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="K32" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C32="Objetivo",K$7&gt;=$F32,K$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",K$7&gt;=$F32,K$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="L32" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C32="Objetivo",L$7&gt;=$F32,L$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",L$7&gt;=$F32,L$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="M32" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C32="Objetivo",M$7&gt;=$F32,M$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",M$7&gt;=$F32,M$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="N32" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C32="Objetivo",N$7&gt;=$F32,N$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",N$7&gt;=$F32,N$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="O32" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C32="Objetivo",O$7&gt;=$F32,O$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",O$7&gt;=$F32,O$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="P32" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C32="Objetivo",P$7&gt;=$F32,P$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",P$7&gt;=$F32,P$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="Q32" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C32="Objetivo",Q$7&gt;=$F32,Q$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",Q$7&gt;=$F32,Q$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="R32" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C32="Objetivo",R$7&gt;=$F32,R$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",R$7&gt;=$F32,R$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="S32" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C32="Objetivo",S$7&gt;=$F32,S$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",S$7&gt;=$F32,S$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="T32" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C32="Objetivo",T$7&gt;=$F32,T$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",T$7&gt;=$F32,T$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="U32" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C32="Objetivo",U$7&gt;=$F32,U$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",U$7&gt;=$F32,U$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="V32" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C32="Objetivo",V$7&gt;=$F32,V$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",V$7&gt;=$F32,V$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="W32" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C32="Objetivo",W$7&gt;=$F32,W$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",W$7&gt;=$F32,W$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="X32" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C32="Objetivo",X$7&gt;=$F32,X$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",X$7&gt;=$F32,X$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="Y32" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C32="Objetivo",Y$7&gt;=$F32,Y$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",Y$7&gt;=$F32,Y$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="Z32" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C32="Objetivo",Z$7&gt;=$F32,Z$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",Z$7&gt;=$F32,Z$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AA32" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C32="Objetivo",AA$7&gt;=$F32,AA$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",AA$7&gt;=$F32,AA$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AB32" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C32="Objetivo",AB$7&gt;=$F32,AB$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",AB$7&gt;=$F32,AB$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AC32" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C32="Objetivo",AC$7&gt;=$F32,AC$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",AC$7&gt;=$F32,AC$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AD32" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C32="Objetivo",AD$7&gt;=$F32,AD$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",AD$7&gt;=$F32,AD$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AE32" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C32="Objetivo",AE$7&gt;=$F32,AE$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",AE$7&gt;=$F32,AE$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AF32" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C32="Objetivo",AF$7&gt;=$F32,AF$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",AF$7&gt;=$F32,AF$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AG32" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C32="Objetivo",AG$7&gt;=$F32,AG$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",AG$7&gt;=$F32,AG$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AH32" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C32="Objetivo",AH$7&gt;=$F32,AH$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",AH$7&gt;=$F32,AH$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AI32" s="28" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C32="Objetivo",AI$7&gt;=$F32,AI$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",AI$7&gt;=$F32,AI$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ32" s="28" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C32="Objetivo",AJ$7&gt;=$F32,AJ$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",AJ$7&gt;=$F32,AJ$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AK32" s="28" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C32="Objetivo",AK$7&gt;=$F32,AK$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",AK$7&gt;=$F32,AK$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AL32" s="28" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C32="Objetivo",AL$7&gt;=$F32,AL$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",AL$7&gt;=$F32,AL$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AM32" s="28" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C32="Objetivo",AM$7&gt;=$F32,AM$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",AM$7&gt;=$F32,AM$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AN32" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C32="Objetivo",AN$7&gt;=$F32,AN$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",AN$7&gt;=$F32,AN$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AO32" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C32="Objetivo",AO$7&gt;=$F32,AO$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",AO$7&gt;=$F32,AO$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AP32" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C32="Objetivo",AP$7&gt;=$F32,AP$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",AP$7&gt;=$F32,AP$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ32" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C32="Objetivo",AQ$7&gt;=$F32,AQ$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",AQ$7&gt;=$F32,AQ$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AR32" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C32="Objetivo",AR$7&gt;=$F32,AR$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",AR$7&gt;=$F32,AR$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AS32" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C32="Objetivo",AS$7&gt;=$F32,AS$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",AS$7&gt;=$F32,AS$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AT32" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C32="Objetivo",AT$7&gt;=$F32,AT$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",AT$7&gt;=$F32,AT$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AU32" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C32="Objetivo",AU$7&gt;=$F32,AU$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",AU$7&gt;=$F32,AU$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AV32" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C32="Objetivo",AV$7&gt;=$F32,AV$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",AV$7&gt;=$F32,AV$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AW32" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C32="Objetivo",AW$7&gt;=$F32,AW$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",AW$7&gt;=$F32,AW$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AX32" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C32="Objetivo",AX$7&gt;=$F32,AX$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",AX$7&gt;=$F32,AX$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AY32" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C32="Objetivo",AY$7&gt;=$F32,AY$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",AY$7&gt;=$F32,AY$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ32" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C32="Objetivo",AZ$7&gt;=$F32,AZ$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",AZ$7&gt;=$F32,AZ$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="BA32" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C32="Objetivo",BA$7&gt;=$F32,BA$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",BA$7&gt;=$F32,BA$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="BB32" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C32="Objetivo",BB$7&gt;=$F32,BB$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",BB$7&gt;=$F32,BB$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="BC32" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C32="Objetivo",BC$7&gt;=$F32,BC$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",BC$7&gt;=$F32,BC$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="BD32" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C32="Objetivo",BD$7&gt;=$F32,BD$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",BD$7&gt;=$F32,BD$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="BE32" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C32="Objetivo",BE$7&gt;=$F32,BE$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",BE$7&gt;=$F32,BE$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="BF32" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C32="Objetivo",BF$7&gt;=$F32,BF$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",BF$7&gt;=$F32,BF$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="BG32" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C32="Objetivo",BG$7&gt;=$F32,BG$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",BG$7&gt;=$F32,BG$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="BH32" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C32="Objetivo",BH$7&gt;=$F32,BH$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",BH$7&gt;=$F32,BH$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="BI32" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C32="Objetivo",BI$7&gt;=$F32,BI$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",BI$7&gt;=$F32,BI$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ32" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C32="Objetivo",BJ$7&gt;=$F32,BJ$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",BJ$7&gt;=$F32,BJ$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="BK32" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C32="Objetivo",BK$7&gt;=$F32,BK$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",BK$7&gt;=$F32,BK$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="BL32" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C32="Objetivo",BL$7&gt;=$F32,BL$7&lt;=$F32+$G32-1),2,IF(AND($C32="Marco",BL$7&gt;=$F32,BL$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="BM32" s="29"/>
@@ -17570,227 +17974,227 @@
       <c r="G33" s="25"/>
       <c r="H33" s="20"/>
       <c r="I33" s="48" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C33="Objetivo",I$7&gt;=$F33,I$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",I$7&gt;=$F33,I$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="J33" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C33="Objetivo",J$7&gt;=$F33,J$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",J$7&gt;=$F33,J$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="K33" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C33="Objetivo",K$7&gt;=$F33,K$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",K$7&gt;=$F33,K$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="L33" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C33="Objetivo",L$7&gt;=$F33,L$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",L$7&gt;=$F33,L$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="M33" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C33="Objetivo",M$7&gt;=$F33,M$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",M$7&gt;=$F33,M$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="N33" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C33="Objetivo",N$7&gt;=$F33,N$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",N$7&gt;=$F33,N$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="O33" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C33="Objetivo",O$7&gt;=$F33,O$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",O$7&gt;=$F33,O$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="P33" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C33="Objetivo",P$7&gt;=$F33,P$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",P$7&gt;=$F33,P$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="Q33" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C33="Objetivo",Q$7&gt;=$F33,Q$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",Q$7&gt;=$F33,Q$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="R33" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C33="Objetivo",R$7&gt;=$F33,R$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",R$7&gt;=$F33,R$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="S33" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C33="Objetivo",S$7&gt;=$F33,S$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",S$7&gt;=$F33,S$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="T33" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C33="Objetivo",T$7&gt;=$F33,T$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",T$7&gt;=$F33,T$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="U33" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C33="Objetivo",U$7&gt;=$F33,U$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",U$7&gt;=$F33,U$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="V33" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C33="Objetivo",V$7&gt;=$F33,V$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",V$7&gt;=$F33,V$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="W33" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C33="Objetivo",W$7&gt;=$F33,W$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",W$7&gt;=$F33,W$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="X33" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C33="Objetivo",X$7&gt;=$F33,X$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",X$7&gt;=$F33,X$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="Y33" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C33="Objetivo",Y$7&gt;=$F33,Y$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",Y$7&gt;=$F33,Y$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="Z33" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C33="Objetivo",Z$7&gt;=$F33,Z$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",Z$7&gt;=$F33,Z$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AA33" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C33="Objetivo",AA$7&gt;=$F33,AA$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",AA$7&gt;=$F33,AA$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AB33" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C33="Objetivo",AB$7&gt;=$F33,AB$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",AB$7&gt;=$F33,AB$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AC33" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C33="Objetivo",AC$7&gt;=$F33,AC$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",AC$7&gt;=$F33,AC$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AD33" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C33="Objetivo",AD$7&gt;=$F33,AD$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",AD$7&gt;=$F33,AD$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AE33" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C33="Objetivo",AE$7&gt;=$F33,AE$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",AE$7&gt;=$F33,AE$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AF33" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C33="Objetivo",AF$7&gt;=$F33,AF$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",AF$7&gt;=$F33,AF$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AG33" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C33="Objetivo",AG$7&gt;=$F33,AG$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",AG$7&gt;=$F33,AG$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AH33" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C33="Objetivo",AH$7&gt;=$F33,AH$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",AH$7&gt;=$F33,AH$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AI33" s="28" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C33="Objetivo",AI$7&gt;=$F33,AI$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",AI$7&gt;=$F33,AI$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ33" s="28" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C33="Objetivo",AJ$7&gt;=$F33,AJ$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",AJ$7&gt;=$F33,AJ$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AK33" s="28" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C33="Objetivo",AK$7&gt;=$F33,AK$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",AK$7&gt;=$F33,AK$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AL33" s="28" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C33="Objetivo",AL$7&gt;=$F33,AL$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",AL$7&gt;=$F33,AL$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AM33" s="28" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C33="Objetivo",AM$7&gt;=$F33,AM$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",AM$7&gt;=$F33,AM$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AN33" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C33="Objetivo",AN$7&gt;=$F33,AN$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",AN$7&gt;=$F33,AN$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AO33" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C33="Objetivo",AO$7&gt;=$F33,AO$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",AO$7&gt;=$F33,AO$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AP33" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C33="Objetivo",AP$7&gt;=$F33,AP$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",AP$7&gt;=$F33,AP$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ33" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C33="Objetivo",AQ$7&gt;=$F33,AQ$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",AQ$7&gt;=$F33,AQ$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AR33" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C33="Objetivo",AR$7&gt;=$F33,AR$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",AR$7&gt;=$F33,AR$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AS33" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C33="Objetivo",AS$7&gt;=$F33,AS$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",AS$7&gt;=$F33,AS$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AT33" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C33="Objetivo",AT$7&gt;=$F33,AT$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",AT$7&gt;=$F33,AT$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AU33" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C33="Objetivo",AU$7&gt;=$F33,AU$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",AU$7&gt;=$F33,AU$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AV33" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C33="Objetivo",AV$7&gt;=$F33,AV$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",AV$7&gt;=$F33,AV$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AW33" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C33="Objetivo",AW$7&gt;=$F33,AW$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",AW$7&gt;=$F33,AW$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AX33" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C33="Objetivo",AX$7&gt;=$F33,AX$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",AX$7&gt;=$F33,AX$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AY33" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C33="Objetivo",AY$7&gt;=$F33,AY$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",AY$7&gt;=$F33,AY$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ33" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C33="Objetivo",AZ$7&gt;=$F33,AZ$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",AZ$7&gt;=$F33,AZ$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="BA33" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C33="Objetivo",BA$7&gt;=$F33,BA$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",BA$7&gt;=$F33,BA$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="BB33" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C33="Objetivo",BB$7&gt;=$F33,BB$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",BB$7&gt;=$F33,BB$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="BC33" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C33="Objetivo",BC$7&gt;=$F33,BC$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",BC$7&gt;=$F33,BC$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="BD33" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C33="Objetivo",BD$7&gt;=$F33,BD$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",BD$7&gt;=$F33,BD$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="BE33" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C33="Objetivo",BE$7&gt;=$F33,BE$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",BE$7&gt;=$F33,BE$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="BF33" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C33="Objetivo",BF$7&gt;=$F33,BF$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",BF$7&gt;=$F33,BF$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="BG33" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C33="Objetivo",BG$7&gt;=$F33,BG$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",BG$7&gt;=$F33,BG$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="BH33" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C33="Objetivo",BH$7&gt;=$F33,BH$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",BH$7&gt;=$F33,BH$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="BI33" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C33="Objetivo",BI$7&gt;=$F33,BI$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",BI$7&gt;=$F33,BI$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ33" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C33="Objetivo",BJ$7&gt;=$F33,BJ$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",BJ$7&gt;=$F33,BJ$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="BK33" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C33="Objetivo",BK$7&gt;=$F33,BK$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",BK$7&gt;=$F33,BK$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="BL33" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C33="Objetivo",BL$7&gt;=$F33,BL$7&lt;=$F33+$G33-1),2,IF(AND($C33="Marco",BL$7&gt;=$F33,BL$7&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="BM33" s="29"/>
@@ -17809,227 +18213,227 @@
       <c r="G34" s="25"/>
       <c r="H34" s="20"/>
       <c r="I34" s="48" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C34="Objetivo",I$7&gt;=$F34,I$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",I$7&gt;=$F34,I$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="J34" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C34="Objetivo",J$7&gt;=$F34,J$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",J$7&gt;=$F34,J$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="K34" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C34="Objetivo",K$7&gt;=$F34,K$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",K$7&gt;=$F34,K$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="L34" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C34="Objetivo",L$7&gt;=$F34,L$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",L$7&gt;=$F34,L$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="M34" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C34="Objetivo",M$7&gt;=$F34,M$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",M$7&gt;=$F34,M$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="N34" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C34="Objetivo",N$7&gt;=$F34,N$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",N$7&gt;=$F34,N$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="O34" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C34="Objetivo",O$7&gt;=$F34,O$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",O$7&gt;=$F34,O$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="P34" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C34="Objetivo",P$7&gt;=$F34,P$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",P$7&gt;=$F34,P$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="Q34" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C34="Objetivo",Q$7&gt;=$F34,Q$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",Q$7&gt;=$F34,Q$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="R34" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C34="Objetivo",R$7&gt;=$F34,R$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",R$7&gt;=$F34,R$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="S34" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C34="Objetivo",S$7&gt;=$F34,S$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",S$7&gt;=$F34,S$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="T34" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C34="Objetivo",T$7&gt;=$F34,T$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",T$7&gt;=$F34,T$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="U34" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C34="Objetivo",U$7&gt;=$F34,U$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",U$7&gt;=$F34,U$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="V34" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C34="Objetivo",V$7&gt;=$F34,V$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",V$7&gt;=$F34,V$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="W34" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C34="Objetivo",W$7&gt;=$F34,W$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",W$7&gt;=$F34,W$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="X34" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C34="Objetivo",X$7&gt;=$F34,X$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",X$7&gt;=$F34,X$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="Y34" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C34="Objetivo",Y$7&gt;=$F34,Y$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",Y$7&gt;=$F34,Y$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="Z34" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C34="Objetivo",Z$7&gt;=$F34,Z$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",Z$7&gt;=$F34,Z$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="AA34" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C34="Objetivo",AA$7&gt;=$F34,AA$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",AA$7&gt;=$F34,AA$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="AB34" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C34="Objetivo",AB$7&gt;=$F34,AB$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",AB$7&gt;=$F34,AB$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="AC34" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C34="Objetivo",AC$7&gt;=$F34,AC$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",AC$7&gt;=$F34,AC$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="AD34" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C34="Objetivo",AD$7&gt;=$F34,AD$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",AD$7&gt;=$F34,AD$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="AE34" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C34="Objetivo",AE$7&gt;=$F34,AE$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",AE$7&gt;=$F34,AE$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="AF34" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C34="Objetivo",AF$7&gt;=$F34,AF$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",AF$7&gt;=$F34,AF$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="AG34" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C34="Objetivo",AG$7&gt;=$F34,AG$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",AG$7&gt;=$F34,AG$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="AH34" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C34="Objetivo",AH$7&gt;=$F34,AH$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",AH$7&gt;=$F34,AH$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="AI34" s="28" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C34="Objetivo",AI$7&gt;=$F34,AI$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",AI$7&gt;=$F34,AI$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ34" s="28" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C34="Objetivo",AJ$7&gt;=$F34,AJ$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",AJ$7&gt;=$F34,AJ$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="AK34" s="28" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C34="Objetivo",AK$7&gt;=$F34,AK$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",AK$7&gt;=$F34,AK$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="AL34" s="28" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C34="Objetivo",AL$7&gt;=$F34,AL$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",AL$7&gt;=$F34,AL$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="AM34" s="28" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C34="Objetivo",AM$7&gt;=$F34,AM$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",AM$7&gt;=$F34,AM$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="AN34" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C34="Objetivo",AN$7&gt;=$F34,AN$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",AN$7&gt;=$F34,AN$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="AO34" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C34="Objetivo",AO$7&gt;=$F34,AO$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",AO$7&gt;=$F34,AO$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="AP34" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C34="Objetivo",AP$7&gt;=$F34,AP$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",AP$7&gt;=$F34,AP$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ34" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C34="Objetivo",AQ$7&gt;=$F34,AQ$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",AQ$7&gt;=$F34,AQ$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="AR34" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C34="Objetivo",AR$7&gt;=$F34,AR$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",AR$7&gt;=$F34,AR$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="AS34" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C34="Objetivo",AS$7&gt;=$F34,AS$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",AS$7&gt;=$F34,AS$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="AT34" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C34="Objetivo",AT$7&gt;=$F34,AT$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",AT$7&gt;=$F34,AT$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="AU34" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C34="Objetivo",AU$7&gt;=$F34,AU$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",AU$7&gt;=$F34,AU$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="AV34" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C34="Objetivo",AV$7&gt;=$F34,AV$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",AV$7&gt;=$F34,AV$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="AW34" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C34="Objetivo",AW$7&gt;=$F34,AW$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",AW$7&gt;=$F34,AW$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="AX34" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C34="Objetivo",AX$7&gt;=$F34,AX$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",AX$7&gt;=$F34,AX$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="AY34" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C34="Objetivo",AY$7&gt;=$F34,AY$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",AY$7&gt;=$F34,AY$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ34" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C34="Objetivo",AZ$7&gt;=$F34,AZ$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",AZ$7&gt;=$F34,AZ$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="BA34" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C34="Objetivo",BA$7&gt;=$F34,BA$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",BA$7&gt;=$F34,BA$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="BB34" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C34="Objetivo",BB$7&gt;=$F34,BB$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",BB$7&gt;=$F34,BB$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="BC34" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C34="Objetivo",BC$7&gt;=$F34,BC$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",BC$7&gt;=$F34,BC$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="BD34" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C34="Objetivo",BD$7&gt;=$F34,BD$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",BD$7&gt;=$F34,BD$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="BE34" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C34="Objetivo",BE$7&gt;=$F34,BE$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",BE$7&gt;=$F34,BE$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="BF34" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C34="Objetivo",BF$7&gt;=$F34,BF$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",BF$7&gt;=$F34,BF$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="BG34" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C34="Objetivo",BG$7&gt;=$F34,BG$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",BG$7&gt;=$F34,BG$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="BH34" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C34="Objetivo",BH$7&gt;=$F34,BH$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",BH$7&gt;=$F34,BH$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="BI34" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C34="Objetivo",BI$7&gt;=$F34,BI$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",BI$7&gt;=$F34,BI$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ34" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C34="Objetivo",BJ$7&gt;=$F34,BJ$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",BJ$7&gt;=$F34,BJ$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="BK34" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C34="Objetivo",BK$7&gt;=$F34,BK$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",BK$7&gt;=$F34,BK$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="BL34" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C34="Objetivo",BL$7&gt;=$F34,BL$7&lt;=$F34+$G34-1),2,IF(AND($C34="Marco",BL$7&gt;=$F34,BL$7&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="BM34" s="29"/>
@@ -18044,227 +18448,227 @@
       <c r="G35" s="25"/>
       <c r="H35" s="20"/>
       <c r="I35" s="48" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Objetivo",I$7&gt;=$F35,I$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",I$7&gt;=$F35,I$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="J35" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Objetivo",J$7&gt;=$F35,J$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",J$7&gt;=$F35,J$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="K35" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Objetivo",K$7&gt;=$F35,K$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",K$7&gt;=$F35,K$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="L35" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Objetivo",L$7&gt;=$F35,L$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",L$7&gt;=$F35,L$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="M35" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Objetivo",M$7&gt;=$F35,M$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",M$7&gt;=$F35,M$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="N35" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Objetivo",N$7&gt;=$F35,N$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",N$7&gt;=$F35,N$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="O35" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Objetivo",O$7&gt;=$F35,O$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",O$7&gt;=$F35,O$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="P35" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Objetivo",P$7&gt;=$F35,P$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",P$7&gt;=$F35,P$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="Q35" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Objetivo",Q$7&gt;=$F35,Q$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",Q$7&gt;=$F35,Q$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="R35" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Objetivo",R$7&gt;=$F35,R$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",R$7&gt;=$F35,R$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="S35" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Objetivo",S$7&gt;=$F35,S$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",S$7&gt;=$F35,S$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="T35" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Objetivo",T$7&gt;=$F35,T$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",T$7&gt;=$F35,T$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="U35" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Objetivo",U$7&gt;=$F35,U$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",U$7&gt;=$F35,U$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="V35" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Objetivo",V$7&gt;=$F35,V$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",V$7&gt;=$F35,V$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="W35" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Objetivo",W$7&gt;=$F35,W$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",W$7&gt;=$F35,W$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="X35" s="28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Objetivo",X$7&gt;=$F35,X$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",X$7&gt;=$F35,X$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="Y35" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C35="Objetivo",Y$7&gt;=$F35,Y$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",Y$7&gt;=$F35,Y$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="Z35" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C35="Objetivo",Z$7&gt;=$F35,Z$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",Z$7&gt;=$F35,Z$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AA35" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C35="Objetivo",AA$7&gt;=$F35,AA$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",AA$7&gt;=$F35,AA$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AB35" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C35="Objetivo",AB$7&gt;=$F35,AB$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",AB$7&gt;=$F35,AB$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AC35" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C35="Objetivo",AC$7&gt;=$F35,AC$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",AC$7&gt;=$F35,AC$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AD35" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C35="Objetivo",AD$7&gt;=$F35,AD$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",AD$7&gt;=$F35,AD$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AE35" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C35="Objetivo",AE$7&gt;=$F35,AE$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",AE$7&gt;=$F35,AE$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AF35" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C35="Objetivo",AF$7&gt;=$F35,AF$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",AF$7&gt;=$F35,AF$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AG35" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C35="Objetivo",AG$7&gt;=$F35,AG$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",AG$7&gt;=$F35,AG$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AH35" s="28" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C35="Objetivo",AH$7&gt;=$F35,AH$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",AH$7&gt;=$F35,AH$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AI35" s="28" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C35="Objetivo",AI$7&gt;=$F35,AI$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",AI$7&gt;=$F35,AI$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ35" s="28" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C35="Objetivo",AJ$7&gt;=$F35,AJ$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",AJ$7&gt;=$F35,AJ$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AK35" s="28" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C35="Objetivo",AK$7&gt;=$F35,AK$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",AK$7&gt;=$F35,AK$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AL35" s="28" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C35="Objetivo",AL$7&gt;=$F35,AL$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",AL$7&gt;=$F35,AL$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AM35" s="28" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C35="Objetivo",AM$7&gt;=$F35,AM$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",AM$7&gt;=$F35,AM$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AN35" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C35="Objetivo",AN$7&gt;=$F35,AN$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",AN$7&gt;=$F35,AN$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AO35" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C35="Objetivo",AO$7&gt;=$F35,AO$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",AO$7&gt;=$F35,AO$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AP35" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C35="Objetivo",AP$7&gt;=$F35,AP$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",AP$7&gt;=$F35,AP$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ35" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C35="Objetivo",AQ$7&gt;=$F35,AQ$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",AQ$7&gt;=$F35,AQ$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AR35" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C35="Objetivo",AR$7&gt;=$F35,AR$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",AR$7&gt;=$F35,AR$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AS35" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C35="Objetivo",AS$7&gt;=$F35,AS$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",AS$7&gt;=$F35,AS$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AT35" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C35="Objetivo",AT$7&gt;=$F35,AT$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",AT$7&gt;=$F35,AT$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AU35" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C35="Objetivo",AU$7&gt;=$F35,AU$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",AU$7&gt;=$F35,AU$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AV35" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C35="Objetivo",AV$7&gt;=$F35,AV$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",AV$7&gt;=$F35,AV$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AW35" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C35="Objetivo",AW$7&gt;=$F35,AW$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",AW$7&gt;=$F35,AW$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AX35" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C35="Objetivo",AX$7&gt;=$F35,AX$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",AX$7&gt;=$F35,AX$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AY35" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C35="Objetivo",AY$7&gt;=$F35,AY$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",AY$7&gt;=$F35,AY$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ35" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C35="Objetivo",AZ$7&gt;=$F35,AZ$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",AZ$7&gt;=$F35,AZ$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="BA35" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C35="Objetivo",BA$7&gt;=$F35,BA$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",BA$7&gt;=$F35,BA$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="BB35" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C35="Objetivo",BB$7&gt;=$F35,BB$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",BB$7&gt;=$F35,BB$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="BC35" s="28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C35="Objetivo",BC$7&gt;=$F35,BC$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",BC$7&gt;=$F35,BC$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="BD35" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C35="Objetivo",BD$7&gt;=$F35,BD$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",BD$7&gt;=$F35,BD$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="BE35" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C35="Objetivo",BE$7&gt;=$F35,BE$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",BE$7&gt;=$F35,BE$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="BF35" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C35="Objetivo",BF$7&gt;=$F35,BF$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",BF$7&gt;=$F35,BF$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="BG35" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C35="Objetivo",BG$7&gt;=$F35,BG$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",BG$7&gt;=$F35,BG$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="BH35" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C35="Objetivo",BH$7&gt;=$F35,BH$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",BH$7&gt;=$F35,BH$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="BI35" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C35="Objetivo",BI$7&gt;=$F35,BI$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",BI$7&gt;=$F35,BI$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ35" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C35="Objetivo",BJ$7&gt;=$F35,BJ$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",BJ$7&gt;=$F35,BJ$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="BK35" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C35="Objetivo",BK$7&gt;=$F35,BK$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",BK$7&gt;=$F35,BK$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="BL35" s="28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C35="Objetivo",BL$7&gt;=$F35,BL$7&lt;=$F35+$G35-1),2,IF(AND($C35="Marco",BL$7&gt;=$F35,BL$7&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="BM35" s="68"/>
@@ -18347,8 +18751,18 @@
       </c>
       <c r="D38" s="5"/>
     </row>
+    <row r="50" spans="9:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I50" s="157" t="s">
+        <v>49</v>
+      </c>
+      <c r="J50" s="157"/>
+      <c r="K50" s="157"/>
+      <c r="L50" s="158"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="15">
+    <mergeCell ref="AH20:AM20"/>
+    <mergeCell ref="AL22:AQ22"/>
     <mergeCell ref="O16:T16"/>
     <mergeCell ref="Y4:AB4"/>
     <mergeCell ref="AD4:AH4"/>
@@ -18359,11 +18773,12 @@
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="S4:W4"/>
     <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="I50:L50"/>
     <mergeCell ref="O12:R12"/>
+    <mergeCell ref="Z18:AE18"/>
   </mergeCells>
   <conditionalFormatting sqref="E9:E13 E28:E36 E15 E17:E19">
-    <cfRule type="dataBar" priority="43">
+    <cfRule type="dataBar" priority="71">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18376,111 +18791,94 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16:O16 U16:BL16 I17:BL36 I7:BL11 I15:N15 M12:O12 I13:L13 Q13:BL13 I14:M14 R14:BL14 S15:BL15 S12:BL12">
-    <cfRule type="expression" dxfId="53" priority="39">
+  <conditionalFormatting sqref="I16:O16 U16:BL16 I17:BL17 I7:BL11 I15:N15 M12:O12 I13:L13 Q13:BL13 I14:M14 R14:BL14 S15:BL15 S12:BL12 I19:BL19 I18:Y18 AL18:BL18 I21:BL21 I20:AG20 AN20:BL20 I23:BL36 I22:AK22 AR22:BL22">
+    <cfRule type="expression" dxfId="83" priority="67">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="52" priority="42">
+    <cfRule type="expression" dxfId="82" priority="70">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="51" priority="41">
+    <cfRule type="expression" dxfId="81" priority="69">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="50" priority="40">
+    <cfRule type="expression" dxfId="80" priority="68">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:BL11 I16:O16 U16:BL16 I17:BL35 I15:N15 M12:O12 I13:L13 Q13:BL13 I14:M14 R14:BL14 S15:BL15 S12:BL12">
-    <cfRule type="expression" dxfId="49" priority="45" stopIfTrue="1">
+  <conditionalFormatting sqref="I10:BL11 I15:N15 M12:O12 I13:L13 Q13:BL13 I14:M14 R14:BL14 S12:BL12 I16:O16 U16:BL16 I17:BL17 S15:BL15 I19:BL19 I18:Y18 AL18:BL18 I21:BL21 I20:AG20 AN20:BL20 I23:BL35 I22:AK22 AR22:BL22">
+    <cfRule type="expression" dxfId="79" priority="73" stopIfTrue="1">
       <formula>AND($C10="Baixo risco",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="74" stopIfTrue="1">
       <formula>AND($C10="Alto risco",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="75" stopIfTrue="1">
       <formula>AND($C10="No prazo",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="76" stopIfTrue="1">
       <formula>AND($C10="Médio risco",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="77" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="expression" dxfId="32" priority="26">
+    <cfRule type="expression" dxfId="74" priority="54">
       <formula>AND(TODAY()&gt;=Q$7,TODAY()&lt;R$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="expression" dxfId="31" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="55" stopIfTrue="1">
       <formula>AND($C14="Baixo risco",Q$7&gt;=$F14,Q$7&lt;=$F14+$G14-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="56" stopIfTrue="1">
       <formula>AND($C14="Alto risco",Q$7&gt;=$F14,Q$7&lt;=$F14+$G14-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="57" stopIfTrue="1">
       <formula>AND($C14="No prazo",Q$7&gt;=$F14,Q$7&lt;=$F14+$G14-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="58" stopIfTrue="1">
       <formula>AND($C14="Médio risco",Q$7&gt;=$F14,Q$7&lt;=$F14+$G14-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="59" stopIfTrue="1">
       <formula>AND(LEN($C14)=0,Q$7&gt;=$F14,Q$7&lt;=$F14+$G14-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O15">
-    <cfRule type="expression" dxfId="26" priority="19">
+  <conditionalFormatting sqref="I50">
+    <cfRule type="expression" dxfId="68" priority="47">
       <formula>AND(TODAY()&gt;=R$7,TODAY()&lt;S$7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O15">
-    <cfRule type="expression" dxfId="25" priority="20" stopIfTrue="1">
-      <formula>AND($C15="Baixo risco",R$7&gt;=$F15,R$7&lt;=$F15+$G15-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="21" stopIfTrue="1">
-      <formula>AND($C15="Alto risco",R$7&gt;=$F15,R$7&lt;=$F15+$G15-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="22" stopIfTrue="1">
-      <formula>AND($C15="No prazo",R$7&gt;=$F15,R$7&lt;=$F15+$G15-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
-      <formula>AND($C15="Médio risco",R$7&gt;=$F15,R$7&lt;=$F15+$G15-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="24" stopIfTrue="1">
-      <formula>AND(LEN($C15)=0,R$7&gt;=$F15,R$7&lt;=$F15+$G15-1)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I12:L12">
-    <cfRule type="expression" dxfId="20" priority="11">
+    <cfRule type="expression" dxfId="67" priority="39">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:L12">
-    <cfRule type="expression" dxfId="19" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="41" stopIfTrue="1">
       <formula>AND($C12="Baixo risco",I$7&gt;=$F12,I$7&lt;=$F12+$G12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="42" stopIfTrue="1">
       <formula>AND($C12="Alto risco",I$7&gt;=$F12,I$7&lt;=$F12+$G12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="43" stopIfTrue="1">
       <formula>AND($C12="No prazo",I$7&gt;=$F12,I$7&lt;=$F12+$G12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="44" stopIfTrue="1">
       <formula>AND($C12="Médio risco",I$7&gt;=$F12,I$7&lt;=$F12+$G12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="45" stopIfTrue="1">
       <formula>AND(LEN($C12)=0,I$7&gt;=$F12,I$7&lt;=$F12+$G12-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:E27">
-    <cfRule type="dataBar" priority="10">
+    <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18494,7 +18892,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18508,29 +18906,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13:P13">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="61" priority="30">
       <formula>AND(TODAY()&gt;=M$7,TODAY()&lt;N$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13:P13">
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="32" stopIfTrue="1">
       <formula>AND($C13="Baixo risco",M$7&gt;=$F13,M$7&lt;=$F13+$G13-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="33" stopIfTrue="1">
       <formula>AND($C13="Alto risco",M$7&gt;=$F13,M$7&lt;=$F13+$G13-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="34" stopIfTrue="1">
       <formula>AND($C13="No prazo",M$7&gt;=$F13,M$7&lt;=$F13+$G13-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="35" stopIfTrue="1">
       <formula>AND($C13="Médio risco",M$7&gt;=$F13,M$7&lt;=$F13+$G13-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="36" stopIfTrue="1">
       <formula>AND(LEN($C13)=0,M$7&gt;=$F13,M$7&lt;=$F13+$G13-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18541,6 +18939,111 @@
           <x14:id>{A6DB0180-9DB9-4306-8DBF-A8ACCD03F586}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50">
+    <cfRule type="expression" dxfId="55" priority="99" stopIfTrue="1">
+      <formula>AND($C15="Baixo risco",R$7&gt;=$F15,R$7&lt;=$F15+$G15-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="100" stopIfTrue="1">
+      <formula>AND($C15="Alto risco",R$7&gt;=$F15,R$7&lt;=$F15+$G15-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="101" stopIfTrue="1">
+      <formula>AND($C15="No prazo",R$7&gt;=$F15,R$7&lt;=$F15+$G15-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="102" stopIfTrue="1">
+      <formula>AND($C15="Médio risco",R$7&gt;=$F15,R$7&lt;=$F15+$G15-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="103" stopIfTrue="1">
+      <formula>AND(LEN($C15)=0,R$7&gt;=$F15,R$7&lt;=$F15+$G15-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O15:R15">
+    <cfRule type="expression" dxfId="50" priority="22">
+      <formula>AND(TODAY()&gt;=O$7,TODAY()&lt;P$7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O15:R15">
+    <cfRule type="expression" dxfId="49" priority="24" stopIfTrue="1">
+      <formula>AND($C15="Baixo risco",O$7&gt;=$F15,O$7&lt;=$F15+$G15-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="25" stopIfTrue="1">
+      <formula>AND($C15="Alto risco",O$7&gt;=$F15,O$7&lt;=$F15+$G15-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="26" stopIfTrue="1">
+      <formula>AND($C15="No prazo",O$7&gt;=$F15,O$7&lt;=$F15+$G15-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="27" stopIfTrue="1">
+      <formula>AND($C15="Médio risco",O$7&gt;=$F15,O$7&lt;=$F15+$G15-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="28" stopIfTrue="1">
+      <formula>AND(LEN($C15)=0,O$7&gt;=$F15,O$7&lt;=$F15+$G15-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z18 AF18:AK18">
+    <cfRule type="expression" dxfId="32" priority="15">
+      <formula>AND(TODAY()&gt;=Z$7,TODAY()&lt;AA$7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z18 AF18:AK18">
+    <cfRule type="expression" dxfId="31" priority="17" stopIfTrue="1">
+      <formula>AND($C18="Baixo risco",Z$7&gt;=$F18,Z$7&lt;=$F18+$G18-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="18" stopIfTrue="1">
+      <formula>AND($C18="Alto risco",Z$7&gt;=$F18,Z$7&lt;=$F18+$G18-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="19" stopIfTrue="1">
+      <formula>AND($C18="No prazo",Z$7&gt;=$F18,Z$7&lt;=$F18+$G18-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="20" stopIfTrue="1">
+      <formula>AND($C18="Médio risco",Z$7&gt;=$F18,Z$7&lt;=$F18+$G18-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="21" stopIfTrue="1">
+      <formula>AND(LEN($C18)=0,Z$7&gt;=$F18,Z$7&lt;=$F18+$G18-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH20">
+    <cfRule type="expression" dxfId="20" priority="8">
+      <formula>AND(TODAY()&gt;=AH$7,TODAY()&lt;AI$7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH20">
+    <cfRule type="expression" dxfId="19" priority="10" stopIfTrue="1">
+      <formula>AND($C20="Baixo risco",AH$7&gt;=$F20,AH$7&lt;=$F20+$G20-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="11" stopIfTrue="1">
+      <formula>AND($C20="Alto risco",AH$7&gt;=$F20,AH$7&lt;=$F20+$G20-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="12" stopIfTrue="1">
+      <formula>AND($C20="No prazo",AH$7&gt;=$F20,AH$7&lt;=$F20+$G20-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="13" stopIfTrue="1">
+      <formula>AND($C20="Médio risco",AH$7&gt;=$F20,AH$7&lt;=$F20+$G20-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="14" stopIfTrue="1">
+      <formula>AND(LEN($C20)=0,AH$7&gt;=$F20,AH$7&lt;=$F20+$G20-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL22">
+    <cfRule type="expression" dxfId="14" priority="1">
+      <formula>AND(TODAY()&gt;=AL$7,TODAY()&lt;AM$7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL22">
+    <cfRule type="expression" dxfId="13" priority="3" stopIfTrue="1">
+      <formula>AND($C22="Baixo risco",AL$7&gt;=$F22,AL$7&lt;=$F22+$G22-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="4" stopIfTrue="1">
+      <formula>AND($C22="Alto risco",AL$7&gt;=$F22,AL$7&lt;=$F22+$G22-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
+      <formula>AND($C22="No prazo",AL$7&gt;=$F22,AL$7&lt;=$F22+$G22-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
+      <formula>AND($C22="Médio risco",AL$7&gt;=$F22,AL$7&lt;=$F22+$G22-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
+      <formula>AND(LEN($C22)=0,AL$7&gt;=$F22,AL$7&lt;=$F22+$G22-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="15">
@@ -18628,101 +19131,6 @@
           <xm:sqref>E9:E13 E28:E36 E15 E17:E19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="44" id="{C84307BC-4E4D-4989-9D21-88D6AEB0AFD2}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I16:O16 U16:BL16 I17:BL35 I10:BL11 I15:N15 M12:O12 I13:L13 Q13:BL13 I14:M14 R14:BL14 S15:BL15 S12:BL12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="50" id="{3EF75A3E-8286-4296-914E-C8F63A2E14FB}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I36:BL36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{06DD56DB-B963-4889-970E-C15197463F78}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>N14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{E782128D-E287-483C-B143-AEF1867BA217}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>O15</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{16CF1FFB-5DBA-4207-A72C-1C6D0A465384}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I12:L12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{788A2C48-684D-4571-8C20-ACCEACA42EBE}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -18753,7 +19161,117 @@
           <xm:sqref>E14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{1C79CE11-247B-490A-96FC-9DF30FDE247C}">
+          <x14:cfRule type="dataBar" id="{A6DB0180-9DB9-4306-8DBF-A8ACCD03F586}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="72" id="{C84307BC-4E4D-4989-9D21-88D6AEB0AFD2}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I16:O16 U16:BL16 I17:BL17 I10:BL11 I15:N15 M12:O12 I13:L13 Q13:BL13 I14:M14 R14:BL14 S15:BL15 S12:BL12 I19:BL19 I18:Y18 AL18:BL18 I21:BL21 I20:AG20 AN20:BL20 I23:BL35 I22:AK22 AR22:BL22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="78" id="{3EF75A3E-8286-4296-914E-C8F63A2E14FB}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I36:BL36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="53" id="{06DD56DB-B963-4889-970E-C15197463F78}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>N14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="46" id="{E782128D-E287-483C-B143-AEF1867BA217}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="40" id="{16CF1FFB-5DBA-4207-A72C-1C6D0A465384}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I12:L12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="31" id="{1C79CE11-247B-490A-96FC-9DF30FDE247C}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18772,19 +19290,80 @@
           <xm:sqref>M13:P13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A6DB0180-9DB9-4306-8DBF-A8ACCD03F586}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
+          <x14:cfRule type="iconSet" priority="23" id="{A90CDEF7-3F18-4D4C-AF97-0D1265C1DA4E}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
               </x14:cfvo>
               <x14:cfvo type="num">
                 <xm:f>1</xm:f>
               </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>E16</xm:sqref>
+          <xm:sqref>O15:R15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="16" id="{5357AAD4-F241-4C83-BF0E-AD0FCC754D4A}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>Z18 AF18:AK18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="9" id="{DDD18A47-2DA5-4EBD-AC0D-05B6A50C0090}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>AH20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{1503824B-7EC5-40F5-9B9F-704BB889217B}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>AL22</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -18819,27 +19398,27 @@
     <row r="1" spans="1:68" ht="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:68" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="167"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="168"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="170"/>
+      <c r="N2" s="170"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="171"/>
       <c r="U2" s="107"/>
       <c r="V2" s="107"/>
       <c r="W2" s="107"/>
@@ -25978,39 +26557,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL36">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="13" priority="4">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL35">
-    <cfRule type="expression" dxfId="10" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
       <formula>AND($C10="Baixo risco",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="8" stopIfTrue="1">
       <formula>AND($C10="Alto risco",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="9" stopIfTrue="1">
       <formula>AND($C10="No prazo",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
       <formula>AND($C10="Médio risco",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="11" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26159,15 +26738,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="22a266b9fa9a230c5a512669d8b298c3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eddc33fff6b14141ee5c74a0d29ea6a1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -26443,6 +27013,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
   <ds:schemaRefs>
@@ -26456,14 +27035,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75C87518-DD8E-42CD-8DAC-291A323E849B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26482,4 +27053,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>